--- a/data/망고플레이트/mangoplates_reviews.xlsx
+++ b/data/망고플레이트/mangoplates_reviews.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>{1:2020-07-19 :           완죠-니 직장인 핫플레이스,, 점심시간에 갔더니 테이크아웃 커피를 15분 기다려서 받을 수 있었다.. ^.^; 하지만 정말 커피가 맛있었던.. 매장 내에 퍼진 고소한 커피냄새부터 날 설레게 하지!플랫화이트 시켰다. 태양커피를 접한 이후로, 맛있는 커피 집에 가면 플랫화이트를 일단 먹어보는 습관이 생겼는데, 사실 시키고 양이 너무 적어서 후회한다 ㅎ... 아무튼 이 집도 양은 적었지만, 그래도 꼬숩고 맛있었다. 여름이라 밖에서 얼음이 금방 녹아버려 조금 아쉬웠지만, 아무렴 맛있었다일행은 아이스아메리카노를 시켰고, 산미가 가득한 원두였다! (원두 종류를 골랐던 것 같기도) 약간 오렌지 맛..? 도 난다고 했던 것 같고... 암튼 아주 매력적인 맛이었다.가격도 착하고, 맛도 훌륭하기 때문에 사람이 많다고 생각된다.나와 함께 주문부터 커피를 수령하기까지 약 20분가량의 웨이팅을 해준 둘도 없는 남사친님에게 이 자리를 빌어 감사의 인사를 올린다. (--)(__)        }{2:2020-04-13 :           이렇게 맛있는 플랫화이트를 3500원에! 여의도 자주오는데 처음 찾은 이곳. 전부터 와보고 싶었음 멋진 사장님에 편안한 분위기의 그레이톤 앉는 자리는 8개 남짓고소하고 바디감있는 묵직한 원두 딱 내스타일이다 여기 근처오면 무조건 올거같다 ㅎㅎ 저렴해서~아메리카노는 2500        }{3:2019-03-29 :           커피는 무난, 음료는 비추        }{4:2019-01-31 :           위치가 좋다곤 할 수 없지만, 품질 좋은 커피를 좋은 가격에 만날 수 있는 즐거움.        }{5:2018-06-11 :           고민 끝에 아이스 라떼로 마셨는데 괜찮았어요! 쓰지 않았고 고소했는데 커피 맛이 너무 약했어요. 거의 우유 맛 밖에 나지 않은 것 같은...ㅠㅠ그래도 가격도 매우매우 저렴했고 분위기도 좋았어요!        }{6:2018-03-23 :           맛있다 고소하고 깔끔한 맛임!내가 좋아하는 스타일ㅋㅋ표현력이 부족해서 설명을 못하지만...바디감도 있고 괜찮은듯!!!그치만 위치가 넘나 애매 ㅠㅠㅠ글고 멀리서 발견했을때 문닫은줄알고 돌아갈뻔...ㅋㅋㅋ        }{7:2018-02-12 :           한줄평: 품질 좋은 테이크아웃 커피! 겨울엔 시즌음료 생강차도 굿.샛강역 근처에 있는 테이크아웃 위주의 카페다. 그레이 에스프레소라는 이름처럼 실내는 회색빛. 테이크아웃 중심이라 안에는 잠깐 앉을 자리 정도만 있다. 커피는 바리스타 챔피언십 파이널 1위를 차지했다는 박승규 벙커컴퍼니와 함께한다고 써있었다. 그래서 커피를 마실까 하다가 몸상태가 좋질 않아서 시즌음료인 생강차(3500원)을 주문했다.생강차는 맑게 우려낸 스타일이다. 생강이 많이 들어가서 쌉싸름하지만 원하던 맛이다. 오히려 너무 달면 먹는 느낌이 별로 안사는데, 생강맛이 많이 나서 아픈 목에 참 좋다. 라떼를 주문해도 맛있었을 것 같다는 생각이 들었다 :D테이크아웃이라 잠깐 머물렀지만 근처에 간다면 다음번엔 커피를 주문해야짓!        }{8:2018-01-19 :           가을생강라떼(4.0) 영접. 우유 거품이 정말 부드럽고 잘 사라지지도 않는다. 사무실까지 15분 정도를 걸었는데도 여전히 두껍고 마시는 중간에도 살아있음. 생강차가 목이 따갑게 매콤했다면 라떼는 매콤한 맛이 사라진 부드러운 맛임. 매운맛 덕분에 라떼의 느끼함이 없어서 좋다. 진한 노란색이던 생강차에 흰색 섞은 상아색으로 보임. 개인적으로는 미친듯이 매운 생강 맛을 좋아해서 대부분 생강차로 먹을 것 같고, 아침이라면 부드럽게 생강라떼로 갈 것 같다.         }{9:2018-01-17 :           사진이 뜬금없지만11-3월에만 한정 판매하는 가을 생강 tea (3.5)를 드디어 먹었다. 9월부터 먹어보고 싶었는데 진작 먹었으면 매번 이것만 먹었겠다. 집에서 엄마가 해준 것 같은 아주 진하고 매콤한 생강 맛이고 달지 않아서 생강 매니아라면 환장할 맛이다. 목이 칼칼해서 미세먼지 심하고 목이픈 날 좋을 것 같다. 다음에는 생강 라떼로 도전해야지 &gt;_&lt;        }{10:2017-10-17 :           그레이  플랫화이트 넘넘 맛있음! 진한 커피와 고소한 우유가 엄청 잘 어울리고, 라떼보다 양도 적은 편이라 점심먹고 한잔하기 딱 좋다. 언제 가도 사람 많고, 사람 많은데 신기하게 조용한 분위기. 회사에서 멀지만 굳이 찾아가야하는 곳!        }{11:2017-09-22 :           예쁘고 맛있고 사람도 많은 그레이 에스프레소!사진은 라떼+하겐다즈 아이스크림인 퐁당퐁당(4.5)에스프레소1샷이라 나중에 커피가 엄청 연할 거라 생각했는데 얼음이 녹았는데도 끝까지 맛있게 먹었다. 라떼 안좋아하는데도 맛있게 먹어서 다음엔 플랫화이트 도전할 예정        }{12:2017-01-16 :           진짜 서울에서 제일 좋아하는 카페에요다른 말 필요 없습니다그레이에스프레소 진리        }{13:2016-07-16 :           넘나 맛있어요 ㅜ 커피 맛있고 가격 너무 싸여 게다가 쿠폰도 찍어주시고 ㅜ 사장님이 숫기가 없으셔서 넘 좋아요 정말 자기 일만 집중하시는듯. 군더더기 없고 커피 맛나고 테익아웃전문이라 테이블은 두개뿐이지만 잠시 앉았다 오기 좋아요. 앞으로 자주 갈것 같네요. Sc커피랑 맛은 비등비등한데 가격이 훨씬 싸네요.         }{14:2016-06-19 :           여의도에 이런 카페가 생기다뉘- 진짜 맛있당여의도 카페들 진짜 많은데 여기가 젤 내스탈!담엔 플랫화이트 먹어야징퐁당퐁당 (오지아이스) - 4,500원아이스 카페라떼 - 3,300원        }{15:2018-04-09 :           grey? because my ideas are colorful}</t>
-  </si>
-  <si>
-    <t>{1:2020-08-20 :           20200609◇ 콩 국 수*. 인생 첫 콩국수...너무너무 대성공. 이럴수가. 저는 마카롱이나 콩국수나 처음 먹어보는 것들을 거의 &lt;진수&gt;라고 불리는 곳에서만 접해서 어쩐대요... 눈높이 너무 높아져서 이제 아무 콩국수나 못먹어벌여ㅠ*. 진짜 고소하고 꾸덕한 콩국수의 끝판왕이 아닐까요.. 콩을 워낙 좋아해도, 신문지맛이 난다는 소문 탓에 쉽사리 도전하지 못했는데... 역시 인간은 도전해야 경험하고 경험해야 진리를 찾을 수 있다는 말을 또 되새기게 됩니다...*. 그리고 여기 무슨 보쌈집인가요??? 김치 왜케 맛있어~!!~!! 김치 잘 안 먹는 저같은 어린이도 싹 비우게 하는 맛입니다.. 이 김치 하나만 있으면 쌀밥 한 그릇도 뚝딱 비워내겠는걸요. 물론 전 쌀밥은 안 먹긴 하지만요..        }{2:2020-08-17 :           한 건물 지하 식당가에 위치한 국수집. 흔하디 흔해 보이는 음식점 외관과 달리 음식의 퀄리티는 흔하지 않다.내부는 넓디 넓고 테이블도 정말 많다. 사람들이 아주 많아서 점심시간대만 되면 손님들로 가득 차 있다. 피크타임보다 늦게 가서인지 테이블이 많아서인지 음식이 나오는 속도가 빨라서인지 줄은 길지만 금방금방 자리가 났다.날도 덥고 사진으로 본 콩국수의 비쥬얼 덕에 이미 메뉴를 정하고 들어왔었다.메뉴는 콩국수 11000원홀릭 리뷰로 볼 때는 9500원 정도의 가격이었지만 아무래도 몇 년 전에 비해 가격이 꽤 올랐다.하긴 냉면 한 그릇 12000원 하는 요즘이니 콩국수 11000원 맛만 있다면 놀랄 거 없다.음식은 생각보다 금방 나왔다. 아무래도 국물은 이미 준비되어 있을테고 면만 삶아서 콩국물을 넣어서 내어줄 터이니 시간이 많이 걸리지는 않았을 것이다. 하지만 손님들이 굉장히 많았는데?콩국수는 딱 봐도 너무 진하게 생겼다. 고명은 없다. 진하고 곱게 갈려서 부드럽기도 하다. 테이블에 소금이 따로 비치되어 있지 않아서 의외였는데 먹어보니 소금은 필요 치 않았다. 국물은 굉장히 진하고 고소하다. 농도가 높지만 걸쭉함과는 조금 다른 느낌. 너무 곱게 갈려서 부드러웠다. 콩 향은 조금 약한 편이긴 하다.면발은 굉장히 쫄깃하다. 식감까지도 상당히 훌륭한 국수이다. 먹다보면 고명이 없는 이유를 알 것 같다. 고명은 이 맛에 방해가 된다.나는 콩국수를 원래 좋아해 본적이 딱히 없다. 가장 최근에 콩국수를 맛있게 먹었던 건 예전에 갔던 답십리 별미. 거기랑은 또 다른 매력을 보여주는 듯.김치도 아삭거림이 괜찮았는데 사실 김치보다 마음에 든 건 무말랭이다. 개인적으로 부피가 조금 더 작아서인지 콩국수와의 합이 배추김치보다 조금 더 마음에 들었다. 배추김치도 좋지만 왠지 콩국수를 먹을 때는 좋아하는 배추김치보다 별로 안 좋아하는 파김치랑 부추김치가 조금 더 생각이 난다. 유명 맛집일 것 같은 느낌이 아니었지만 콩국수만큼은 웬만한 유명식당들보다 뛰어난 듯 하다. 가까우니까 또 와볼 생각은 있다. 비빔국수가 궁금해졌다.        }{3:2020-08-07 :           콩국수가 땡겨서 검색해서 찾아갔는데~여의도 백화점 지하 1층에 아주 넓게 자리하고 있었다.줄을 선다해서 느지막히~오후 2시반쯤 갔는데~우와~유명하긴한가 보네 ㅎ그때도 2/3쯤 차 있었다.일단 콩국수 하나, 닭칼국수 하나 주문했는데~양이 딥다 많았다.닭칼국수 맛이 좋았고, 또 만두가 2개 들어 있어서 만두도 맛보고 ㅋ무엇보다도 진~한 콩국수 국물과 쫄깃한 국수 맛은 무척 인상적이었다.500원내면 주차도 1시간 되고~더운 여름날 시원한 콩국수 생각날때~일부러 찾아올만 하다는 생각이 든다.#냠냠        }{4:2020-08-05 :           냉콩국수여름엔 콩국수~~  김치랑 먹으면 더 맛있어요! 테이블에는 후추밖에 없어서 소금 넣어드시려면 이모님께 말씀드려야합니닷        }{5:2020-08-01 :           여름, 콩국수와 보쌈김치의 정석"여의도 직장인의 피서지"⠀#진주집​⠀평일 점심시간, 여름엔근처 직장인들이 바글바글⠀주문 하자마자 세팅되는 상차림에서오랜 내공이 느껴진다.⠀냉콩국수는 흠잡을 데 없이 깔끔하다.걸쭉하고 구수한 '콩국수의 정석'콩비린내 없이, 슴슴 달달하다.양이 곱빼기 수준인데도 소면은 살아있다.비빔국수, 닭칼국수도 맛있지만, 콩국수가 진리!!⠀이 집의 킥은 어른 주먹만한보쌈김치 한 덩이다.아삭아삭 시원하고 맵싸하다.크림파스타와 김치 조합 같기도 하고..고소함과 짠맛의 조화가 환상이다.⠀​#여름맛집 #계절한입 #계절맛집 #제철맛집 #여의도맛집 #콩국수 #비건 #vegan#계절강정 #보쌈김치 #미식 #서울맛집 #한식 #koreanfoods #찐맛집 ----------------------------------------------------⠀✔️서울 여의도역, 영등포구 국제금융로6길 33✔️ 10:00~20:00, 토 10:00~19:00, 일 휴무✔️냉콩국수 11,000원, 닭칼국수, 비빔국수, 접시만두 9,000➕평일 점심은 직장인 Party 조심⠀​        }{6:2020-07-29 :           와 여기 진짜 맛있다.인생 콩국수!!! ㅠㅡㅠ 내가 생각한 딱 이상적인 콩국수에요.#콩국수에서 국물 진한건 디폴트고맛있는 콩국수라면 면이 중요하다고 생각해요.여긴 면이 너무 얇지않고 쫄깃해서 콩국수랑 잘어울리는 것 같습니다.그리고 #만두.. 만두 꼭 시키세요 ㅠㅡㅠ 만두가 짱이네여속이 매우 부드럽고 간이 딱 좋아서 ㅠㅠ끊임없이 들어가요..같이 간 지인은 #비빔국수가 젤 맛있데요!뜨끈한 국물이 땡긴다면 #닭칼국수도 좋아요.이것도 너무 맛있었어요. 만두도 들어가 있고 국물이 부담없이 깔끔해요!콩국수 싫어하는 사람도 맛있게 먹을 만한 맛이고,다른 국수도 훌륭해서 그날그날 기호에 따라 골라 먹어도 다 만족스러울듯해여!주말이면 텅텅비는 여의도인데 놀랐어요..여의도 사람들 전부 다 진주집에 모여있는게 아닐까 생각할정도로 사람이 많았어요..좌석도 많고 회전율도 높아서 오래 기다리진 않을 듯 합니다.계산할때보니 포장도 받는 듯하더라구요어른들 모시고 오기도 좋고 남녀노소 모두 즐길 수 있는 맛집이네여실제로도 손님 구성이 너무 다양했어요 ㅋㅋ        }{7:2020-07-20 :           내가 콩국수를 맛있다고 생각하게 될 줄이야.콩국수는 밍밍하고 맛없다고 생각하다가 워낙 주변에서 이야기하길래 너무 궁금해서 가봤다우선, 국수로 건물 세우셨겠다는 확신이 드는 엄청난 줄에 놀라고이렇게 바쁜 와중에도 친절하신 이모님들에 두 번 놀람 여튼, 콩국수도 맛있지만 비빔국수 무슨 일..? 너무 맛있다! 만두도 맛있었지만 크게 특별한 맛은 아니었음진주집에서 콩국수랑 비빔국수는 무조건 세트로 주문 필수        }{8:2020-07-15 :           머리말) 저는 콩국수를 처음 먹어본 사람임을 밝힙니다.1년 중 여의도에 딱 나흘을 머물게 되었는데 하필 여름이네. 진주집에 가보라는 신의 계시가 아니었을까! 콩국수가 무슨 맛인지 몰라서 콩국수 땡기는 게 뭔지 몰랐다. 그렇다고 딱히 궁금해해본 적도 없지만 자타공인 아재입맛으로서 왠지 먹어야만 할 것 같았다. 묘하게 왠지 끌려;; 내가 컨셉을 만드는 건지 컨셉이 나를 만드는 것인지..아무튼 리틀아재 혼자서 진주집 착석.11시 10분쯤 도착했을 땐 홀 하나만 꽉 차고 하나는 거의 비어있었다. 11시반에 만석. ‘조금만 늦게 왔으면,,, ‘하는 생각이 절로 들었다. 거의 출퇴근 시간 지하철을 방불케하는 타임어택이었다. 평일이라 그런지 나올 때는 줄도 장난이 아니었다. 헉 소리 절로 나는 직장인 체험기... 콩국수는 반드시 잘라달라고 해야 한다. 나는 원래 냉면도 십자모양으로 잘라먹는 사람이라 당연히 잘랐는데 여긴 후루룩 면치기 좋아하는 사람도 무조건 잘라야 한다. 왜냐하면 국물은 너무 걸쭉하고, 면은 단단히 엉겨있어 면이랑 국이 잘 안 섞이기 때문이다. 사진을 보면 아시다시피 잘라도 면 사이사이로 콩국물이 안 들어온다. 가만히 놔두면 아마 영원히 안 섞일듯. 진주집 콩국수 한줄평은 “명품조연 콩국수”다. 이집 김치가 진짜 맛있는데 콩국물이 입에 들어가는 순간 김치맛이 싹 리셋되어 김치가 또 땡긴다. 그래서 또 먹으면 짜니까 또 콩국수에 손이 간다. 콩국수 한입 김치 한입 무한반복. 이집 김치는 보쌈김치처럼 양념이 많이 묻어있고 양념과 무가 잔뜩 올라가있는데 보기보다 안 텁텁하고 시원했다. 담음새도 마음에 들고:) 김치가 별로였으면 콩국수 왜 먹어 하고 나왔을텐데 나는 콩국수를 먹는 이유를 김치에서 찾았다. 정말 콩국수는 김치를 더 맛있게 먹기 위한 수단이 아닐까? 콩국수만 먹으면 국물 포만감이 대단해서 위가 철컹하고 문 닫는 순간이 온다. 배불러도 맛있으면 바닥 비우는 편인데 콩국수는 어느 순간 되니 더이상 들어가지 않았다. 옆테이블에서 스뎅그릇 바닥을 숟가락으로 싹싹 긁는 소리가 나는 것을 들어보니 콩국수도 국물까지 완탕할 수 있는 음식이기는 한가본데,,, 내 입맛에는 원앤온리 콩국수를 먹기에는 심심했다. 비빔국수 등 콩국수를 빛나게 해줄 다른 메뉴랑 같이 주문해서 나눠먹음 좋을 것 같다. 내가 만약 비건이었으면 크림파스타가 먹고 싶을 때 진주집에 올 것이다. 진짜 걸—쭉하면서도 곱고 부드러웠고 풋내 하나도 안 났다. 나는 콩을 원래 좋아하지만 콩을 안 좋아해도 거부감 없이 맛볼 정도는 될 것 같다. 첫 콩국수라 비교 대상이 없는 것이 아쉽지만 아마 다른 집에 가서 먹어보면 그제서야 깨닫겠지 진주집이 맛집이었다는 것을. 콩국물은 간이 엄청 살살 되어있어서 싱거웠고 스프처럼 국물만 떠먹어도 든든한 한 그릇이 될 것 같았다. 이건 콩국수라는 음식에 대한 본질적인 의문이지만 크림스프에 굳이 밥 안 말아 먹는 것처럼 국물만 먹어도 배부를 것 같은데 왜 면이랑 같이 먹는지 궁금했다. 암튼 은근히 손이 가는 콩국물만으로도 먹어볼 가치는 충분한 진주집 콩국수!         }{9:2020-07-11 :           레전드        }{10:2020-07-09 :           냉콩국수(11,000)/ 접시만두(9,000)을 먹었습니다진주집은 재재재방문한 곳이었어요!! 항상 여름이 된다면 가게 되는 것 같습니다 맨날 다음에 오면 콩국수 말고 다른거 먹을거라고 다짐하지만 결국 또 콩국수를 먹게 되었습니다 콩국수의 국물이 굉장히 걸쭉하고 고소해요!! 그래서 정말 여기 콩국수를 꼭 먹어보셔야 합니다,,,, 그리고 같이 나오는 김치가 ㄹㅇ 미친놈입니다,,, 진짜 너무 맛있어요!! 이번에는 접시만두도 먹어봤는데 다른 만두에 비해 피가 두껍고 맛있었어요!! 하지만 그렇게 특별한 맛은 아닌거 같아요. 이번에 갔을때에는 딱 밥먹을 시간대여서 좀 기다렸는데 그래도 식당이 넓기 때문에 회전율은 빠른편이에요!! 꼭 한번쯤은 가봐야할 식당이라구 생각합니다        }{11:2020-07-03 :           너무 맛있어서 매일 매일 먹고 싶네요. 여기보다 맛있는 콩국수집을 아직 못 찾아서...        }{12:2020-06-23 :           여지껏 할머니표 콩국수가 최고인줄 알았는데..이제 여름마다 생각날것 같은 진주집 칼국수는 먹어본 맛이지만 안에 만두가 진짜 맛있어요 ! 콩국수는 진하고 ㅠㅜㅜ 간 되어있어서 그냥 먹어도 맛있고 먹다가 중간에 설탕 달라고해서 설탕 넣어먹어도 별미입니다다음에 간다면 콩국수만 각 1그릇 할것 같아요 !!+ 김치 찐 맛 집.저는 평일 5:40 정도에 갔는데 아슬하게 기다리지 않았습니다 !        }{13:2020-06-21 :           콩국수+비빔국수+만두 이러케 머그면 조합 끝판왕  평일 점심엔 줄이 길어서 저녁에 가야지 줄 안서고 먹을수있는집 ! ㅎㅎ         }{14:2020-06-19 :           모든 근심걱정 사라지고 세계평화를 이룩할맛.. 콩1 김치1의 무한루프.. 한입마다 입맛 리셋되는 신비한경험..한국의 유산.. 단연으뜸.. 그어떤 말로도 표현불가이네요...비교불가최고의콩국수....: 배가찢어질것같음에도 그릇의바닥을보지않고는 일어날수가없다...인류는 이러한 경지에 이를수있다...:        }{15:2020-06-17 :           완콩하게끔 만드는 맛 ㅎㅎ 너무 맛있어서 두번이나 갔어요 음식(김치,만두)이 전체적으로 달아서 단거 안좋아하시는 분들은 그다지..? 일것같아요 여름엔 콩국수!        }{16:2020-06-10 :           맛 : ★★★★☆양 : ★★★★☆위생 : ★★★☆☆서비스 : ★★★☆☆분위기 : ★★☆☆☆가격 : ★★☆☆☆        }{17:2020-06-10 :           정말맛있다 김치는 무말랭이와 무쳐져있는데 무말랭이는 달고 김치는 시원하다 콩물국수는 매우진하고 맛있다 콩물만 1.8L에 28000원 비싸서 11000원짜리 콩국수를 먹는걸 추천 매일매일가고싶다!        }{18:2020-06-05 :           아 이젠 멀어서 못가겟지...?콩국수 닭칼국수 만두 다 짱짱인데 작년 비오는날 택시타고 남친이였던 신랑이랑 존맛탱으로 먹고 비그쳐서 따릉이타고 다리건너 집에왓능데ㅠㅠ행복했던 추억과 맛집 이당ㅋㅋㅋㅋㅋㅋㅋ아 시워어언한 진주집 콩국수에 김치 촥 먹고싶네 만두고 함냐 하고싶고        }{19:2020-05-30 :           진짜 콩국수. (무말랭이)김치 맛집        }{20:2020-05-13 :           총평: 4.0/5.0 비릿한 맛때문에 콩국수 딱히 좋아하지는 않는데 여의도에 올일이 있어 망플보고 한번 방문해본 곳. 그런데 왠걸? 콩비린맛이 전혀 없는 콩국수. 콩국수 맛이 이렇게 깔끔하기는  처음이다. }{21:2020-05-02 :           회사 근처라그런지 평일저녁은 확실히 사람이 없었다. 점심때 직장인들 먹기엔 괜찮을 곳.찾아가서 먹을정도의 맛인지는 모르겠음.        }{22:2020-04-02 :           제가 알아주는 면킬러인데 이 집을 이제야 가보게 되어서 넘 아쉽네여ㅠㅠ 집도 가까운데 이제 갈 수 있을때마다 가야겠어요ㅠㅠㅠ 진짜 김치까지 맛있는 찐맛집... 이거 먹은 날에도 넘 맛있어서 자려고 누웠을때 또 생각나는 맛이에영... ㅠㅠㅠ 이게 점심시간 피해서 가도 사람이 많아서 회전율이 엄청 높아 시키자마자 그냥 뚝 딱! 국밥마냥 나와요.. 닭칼 시켰는데 국물도 너무 맛있고 면도 쫄깃한데다가 안에 만두 두개까지ㅠㅠㅠ!!! 너무나 제 취향이었어요ㅠㅠ 간지 오래됐는데 아직도 생각날 정도ㅠㅠㅠ 흑흑 꼭 가세여 여러분        }{23:2020-03-26 :           *재방문의사100%여의도 진주집. 내 기준 콩국수 그리고 그와 어울리는 김치거기에 곁들일수 있는 만두의 조화가 가장 최강인 집. 여의도 진주집.감히 재방문 의사 100%를 준다.멍때리고 있다가 한 겨울에도 급 생각나 콩국수 한 그릇 하러 갈 수 있는그런 곳 여의도 집주집. 좋은 국내산콩으로 잘 갈아 만들고맛있는 양념을 한 보쌈 김치 비슷한 김치 칭찬함.콩국수는 고소함의 끝을 볼 수 있고 그 고소함과 면발의 조화가 참 좋다.그렇게 고소하기에 23개월 우리 아가도 잘먹는 그런 콩국수.콩국수를 좋아하지 않는 분들이 콩국수를 먹어봐야 한다면 이집의 콩국수를 추천.만두는 당면과 야채 그리고 돼지고기가 조화롭게 섞여진 소.거기에 정성껏 만든 수제 만두이기에 맛없으면 반칙. 만두만 시켜먹어도 좋을정도. 살짝 단점은 고기만두라 느끼할 수 있음.김치와 먹어주면 느끼한 잡아줌.얇은 무채가 많이 들어간 보쌈김치 스타일의 배추김치.콩국수와 닭칼국수와 참 잘어울리는 그런 김치.이 모든것이 조화롭게 어우러진 그런집 여의도진주집.         }{24:2020-03-23 :           말해뭐해요 진짜 맛잇어요 저희 엄마는 아마 땅콩이 들어간거 같다는데 모르죠  어찌 이런맛을 내는지  가의 크림파스타 늬낌 그리고 김치 너무 맛있구여 만두도 맛있구요 닭칼국수야 만두 들어서 어무 좋고 육개장칼국수 존맛탱구리에요  여름메뉴 겨울메뉴 따로 있으니까 가서 보셔요 이제 곧 여름 또 콩국수의 계죨 ㅎ         }{25:2020-03-20 :           콩국수 찐맛집. 김치도 진짜 맛있어서 같이 먹으면 완전 최고~! 만두는 그냥그냥 육개장칼국수는 짝꿍이가 시킨건데 저는 콩국수가 제일 맛있었어요 :-)         }{26:2020-03-17 :           오랫동안 즐겨찾는 여름엔 꼭 오는 집        }{27:2020-02-24 :           여의도의 오래된 전통이 있는 칼국수 집 진주집.수요미식회에 초창기에 방영되면서 위세를 떨쳤지만 사실은 여의도에서는 원래부터 유명했던 터주대감이다. 닭칼국수가 메인 음식인 곳인데 콩국수도 계절메뉴로 상당히 유명하다.닭칼국수의 애정이 있어 방문하였지만, 오랜만에 와서 그런지 맛에 대한 기억이 잘 나지 않은듯했다(아니면 내 컨디션이 좋지 않아 그런것일 수도 있다)예전에 맛있던 기억보다는 조금 덜하고 코로나의 영향인지 손님도 많지 않았지만 꼭 한번씩 여의도의 점심에서 찾게되는 곳이다.적어도 이 곳은 실패하지는 않다는 생각이 있다. 누구의 입맛에도 적당히 맞출 수 있는 장점이 있는 듯 하다.육칼도 괜찮은 느낌이었는데 곧 여의도의 점심이 선택지가 많지 않기 때문에 올 것 같다는 생각이 든다.#아무리뷰        }{28:2020-02-19 :           여름이면 콩국수 먹으러 가는 곳. 진한 콩국수에 새콤매콤한 비빔국수는 긴 웨이팅도 잊게하는 맛이다. 옆에서 만두를 빚고있는 직원들을 보면 만두를 안시킬수없는데 양도 많고 갓 만들어져 나와서 비빔국수와 굉장히 잘 어울린다. 함께먹는 김치 또한 이 집의 별미인데 김치가 콩국수의 맛을 2배이상 끌어올리는 느낌이다.        }{29:2020-02-18 :           음.....콩국수 맛있긴한데 여름에 줄서서먹는다는 말에 좀 의아... 콩국수보다는 김치맛집 ㅎㅎㅎ개인적으로 닭칼국수는 무슨 맛인지 모르겠다...        }{30:2020-02-11 :           #아무리뷰한달에 한번 여의도에 있는 치과 갈 때 마다 갔어요여의도에 갈 때 마다 진주집 갈 생각에 설렜어요개인적으로 콩국수 같은 건강한 맛 나는 음식을 별로선호하지 않아서 제 입맛엔 닭칼국수가 제일 맛있었어요근데 콩국수 좋아하시는 분들이면 좋아할 것 같아요콩 국물이 엄청 진하고 꾸덕하고 고소하더라구요포장도 많이 해가던데 다음에 포장해가봐야겠어요그래서 저는 항상 닭칼국수를 먹는데 정말 맛있어요!!!국물이 시원하면서 담백하고 안에 들어있는 만두 두개가약간 양이 모자란 듯한 느낌을 꽉 채워줘요특히 김치랑 무말랭이가 정말정말 환상..칼국수랑도 너무 잘 어울리지만 김치 자체가 맛있어요여기 비빔국수도 맛있다던데 먹으러 또 가야겠어요        }{31:2020-02-10 :           여름 여의도 직장인의 성지겨울이라 그런지 웨이팅 없이 바로 입장!콩국수랑 육개장 칼국수, 만두 주문맛이며 양이며 뭐하나 빠지는게 없는 것 같다.근처에서 근무하시는 분들은 지금이 기횝니다.        }{32:2020-01-24 :           *재방문의사100%특이하게 겨울에도 맛볼 수 있는어마어마한 진함과 고소함을 자랑하는 여의도진주집의 콩국수.진하고 걸죽한 콩국수.고명은 따로 없음.깔끔해서 더욱 좋습니다. 그냥 콩국물로 승부.보쌈김치 스타일의 무채가득 김치가 매혹적임.콩국수와도 비빔국수 닭칼국수와도매우 잘 어울리는 김치.비빔국수는 맛있긴하지만 그래도 난 콩국수를 선택할것임고기와 당면 부추와의 조화가 좋은 만두 또한 칭찬함주차는 건물지하에 가능. 식사 후 현금500원 내고 1시간 주차권 구매해야함.         }{33:2020-01-20 :           다들 콩국수하고 비빔국수 얘기만 있는데 이집은 닭칼국수도 정말 맛있음...육수도 진하면서 조미료맛 심하지 않고 맛있고, 닭고기랑 오이채 김치 고명 같은게 올라가는데 잘 뒤섞어서 한 입 먹으면 jmt...콩국수하고 비빔 말구 닭칼국수도 꼭 드셔보시길... 뜨끈~한 육수맛이 정말 일품!        }{34:2020-01-04 :           오랜만에 다시 방문한 진주집..오늘은 겨울이라 간단하게 비빔국수에 만두..만두는 피가 두꺼운 고기 손 만두.. 평범한 맛.. 만두국에 넣어 먹으면 좋은 맛..비빔국수는 비빔밀면 같음. 면발은 쫄깃하고 맛있음.. 둘어간 오이가 참기름 맛과 깨 맛 그리고 잘 섞인 맛.. 담에 여름에는 다시 콩국수 먹으려 함..김치도 괘안음...        }{35:2019-12-30 :           고소한 콩국수억 아삭 매콤한 김치 곁들이면 두세그릇 뚝딱        }{36:2019-12-15 :           인생 콩국수맛집이에요~!! 콩국수는 여기서만 먹어요ㅎㅎ 갈때마다 콩국수는 무조건 시키고 닭칼국수 or 비빔국수를 시켜요 닭칼국수냐 비빔국수냐가 항상 고민이에요ㅋㅋㅋ 둘다 맛있으니 땡기는거 드세요둘이서 만두까지 시키면 양이 많아요 닭칼국수에 만두가 두개 들어있으니 닭칼국수시키면 만두는 따로 안시켜도 될듯해요콩국수는 먹어본것중 가장 진하고 꾸덕해요 시청 진주회관도 비슷한데 거기보다 진주집이 조금 더 진한 느낌이에요 콩국수를 좋아하는 편이 아닌데도 여기만오면 김치랑 같이 너무 잘먹어요ㅋㅋㅋ 김치도 맛있어요 콩국수랑 찰떡입니당닭칼국수도 수준급이에요 닭고기 찢은거 꽤많이 들어있고 만두까지있어서 푸짐한느낌!! 추울때 먹으면 든든해요 국물도 진하고 해장에도 좋아용ㅋㅋㅋ점심때 가면 미어터지고 저녁때 가면 수월하게 먹을수 있습니당 언제나 맛있게 먹고오는집!!        }{37:2019-11-29 :           여기는 진짜다.콩국수, 만두는 꿀맛!!        }{38:2019-11-12 :           음식 아주 맛있습니다. 여러 호점이 있던데 그 중 하나 들어갔는데도 맛있게 먹었어요!        }{39:2019-10-21 :           진주집하면 콩국수콩국수하면 진주집겉절이 챡 올려서 콩국수 후루룩 먹으면흐읍..........        }{40:2019-10-17 :           남자친구가 좋아하는 콩국수집저는 비빔국수먹었어여접시만두도밑반찬 겉절이와 김치도 맛있어여비빔국수는 약간 단편!유퀴즈에 나왔지만그전부터도 유명했던 이곳은근 몇안되는 여의도 맛집        }{41:2019-10-16 :           규모가 엄청나거 사람이 많은데도 웨이팅 없이 들어가 먹을 수 있었네요~이곳의 특징은 맛이 셉니다~! 자극적인 맛은 아니어도 양념이 뭐든 듬뿍듬뿍 들어간 아끼지 않는 맛이에요 ㅋㅋ콩국수가 생각보다 걸쭉하더라구요. 딱 제 스탈입니다^^김치가 맛있다고 소문 났던데 콩국수를 위한 김치인듯 합니다.아무래도 겉절이는 좀 짜니 비빔국수까지 먹을땐 조심해야 하겠더라구요. 그런데 만두가 공산품을 쓰시는건지 수제만두는 아닌듯 보이고 분식집에서 파는 만두맛이 났는데 국수가 모두 간편식이다 보니 조합이 나쁘지 않았어요 ㅋ 후추맛 강한 만두..집만 가까우면 자주 갈텐데 아쉽네요.}{42:2019-10-08 :           강렬한 msg 맛ㅋ그래도 맛있다.        }{43:2019-09-28 :           콩국수가 먹고싶을때 가는곳 줄서서 먹는곳 줄은 빨리줄긴해요 찐한국물에 호불호가 나뉨        }{44:2019-09-24 :           인생 콩국수이긴 하나 비빔이 더 맛있음        }{45:2019-09-20 :           여름마다 방문하는 콩국수 맛집!원래 콩국수를 좋아하지 않았는데, 진주집 다녀오고 콩국수의 맛을 알게되었어요☺️ 진한 콩국물에 쫄깃한 면이 들어가서 맛있어요! 같이 나오는 김치와 무말랭이 양념도 최고✨        }{46:2019-09-18 :           고소한 아몬드 맛이 난다. 취향 탈듯? 김치도 괜찮고        }{47:2019-09-18 :           부모님들이 좋아하셔서 종종 포장해가다 직접가서도먹었는데 여전히 맛있네요.         }{48:2019-09-11 :           콩국물이 어마무시하게 진하고 맛있음. 국물이 스프같아서 한사발 마시면 정말 든든함. 한가지 단점은 면 먹는 속도가 느린 사람들은 면이 양이 많은건지 쉽게 불어터지는지 모르겠지만 먹어도먹어도 줄지않아 중도 포기하게 됨.ㅋㅋ 만두피는 딱 중간 두께고 다진고기 질이 좋은편.        }{49:2019-09-07 :           진정 콩국수 맛집입니다 ㅋㅋ광화문의 진주회관?과 형제집이라고 하는데 제가 보기엔 여기가 훨씬 나아요..ㅋㅋ특히 곁들여먹는 김치가 예술입니다단점이라면 가격을 계속올리고 있지만.. 그래도 제가 가본 콩국수집중엔 최고인듯요가끔 생각나는 집이에요        }{50:2019-09-06 :           닭칽국수와 콩국수와 만두를 주문했습니다.닭칼국수의 경우 진한 육수맛과 칼칼함?이 가미된시원한 맛이었습니다.면발도 입에 착 달라 붙고 무엇보다 질리지 않는 맛이었습니다.콩국수의 경우 고소한맛과 약간의 짭조름한 맛이 가미된기본에 충실한 콩국수였습니다.콩국수를 그중독 좋아하지 않는 저도 한입 먹고 또 먹고 싶은 생각이 드는 중독성 있는 맛입니다.만두의 경우 이 식당에 Best of Best 라는 생각이 드는 음식입니다. 메인음식 만큼이나 맛있고 이 식당이 오면 꼭 한 접시는 시켜서 드시길 적극 추천합니다.밑반찬으로 제공된 김치와 겉절이도 신선하고 맵지않게 음식과 곁들여 먹기 좋은 반찬이었습니다.}{51:2019-08-30 :           제발 머리카락좀 어떻게 했으면연속으로 두번 머리카락 나왔어요처음엔 그냥 새걸로 교환해줬는데 이미 다먹어서 배불렀고..두번째 말하니 그땐 가격 빼주더라고요 밥맛 뚝떨종업원들은 자주있는일인지 앗 또나왔네 이런 느낌으로 숙덕이더라구요 계산대 사장에게 왤케 머리카락 많이나오냐 제조과정문제로 보인다 하니 그럴리 없다며 부인해요. 콩국물은 여러단계의 정밀한 과정을 거친다며.  외부에서 납품할때인거같다고 핑계를.근데 진짜로 2연속 제거에 머리카락 나왔어요제가 잘 발견하는 편이니 나머지 그냥 드신 분들도 있을듯        }{52:2019-08-28 :           콩국수로 유명해서 일부러 평일에 쉬는 날3시쯤 애매한 시간에 갔는데 그때도 사람이 바글바글!다행히 웨이팅은 안했구 음식은 나름 빠르게 나오는 편인것같아요원래 콩국수를 좋아하는데 콩의 비릿함이 심하면잘 못먹는데 비린내가 좀 났구요ㅠㅠ고명이 하나도 없어서 조금 실망했어용맛있던건 비빔국수!매콤달달하니 야채고명이랑 맛있게 먹었어요좀 더 추워지면 닭칼국수먹으러 갈고에요        }{53:2019-08-25 :           소문난 콩국수 맛집.줄이 엄청 길게 서 있었는데 회전율이 좋다. 금방금방 빠짐.나는 콩국수를 별로 좋아하지 않아서 비빔국수를 시켰는데 그냥저냥 먹을 만 했다. 세상에 이런 맛이!! 정도는 아님.같이간 사람은 콩국수를 좋아해서 콩국수를 시켰는데이마저 그냥저냥이라고 했다.구수한 콩국수 보다는 조금 간이 되어있는 콩국수를 좋아하는 사람이라 그런 듯.반찬으로 나온 김치는 진짜 맛있었다.밥 값과 별개로 주차권은 별도로 500원을 주고 사야한다.  밥 값과 함께 결재는 안되고 현금으로 계산해야 함.다시 갈 것 같지는 않다.        }{54:2019-08-13 :           칼국수 비빔국수 접시만두 9000원 콩국수 11000원콩국수는 비리지 않고 고소하다. 정말 콩 육수랑 면만 들었다칼국수는 만두랑 약간의 김치, 대파 등등의 야채가 올라간다콩국수를 좋아하는 사람이라면 꼭 콩국수를 먹어봐야할 맛집이지만 나는 콩국수를 그닥 즐기지 않는 사람이라 칼국수가 더 맛있었다. 그렇지만 가장 맛있는 건 김치. 한번 더 리필해서 먹었다! 보쌈김치 꿀맛음식 빨리 나오고 우리가 자리에서 일어나자마자 테이블 정리하셨다. 회전율이 왕 빠르다        }{55:2019-08-13 :           **확실히 맛있는 면을 먹으려면 진주집으로! 여의도 근처 직장인이라 자주 들리는 진주집메뉴는 몇개 없지만 맛은 다 확실하다그날 땡기는 메뉴만 선택하면됨여름에는 줄이 어마어마하지만, 회전률이 좋기 때문에 맥시멈 30분정도면 먹을 수 있다. 단순히 한끼를 위해서 기다리기엔 힘들 수 있으나 점심메뉴로 힐링을 꾀하는 직장인이라면 견딜만하다. 면을 사랑하시는 분들, 가보시길 :)         }{56:2019-08-10 :           아직까지 제 마음속 1위 콩국수 집입니다.다만 성수기 때에는 가지 않는 걸 추천드려요^^;        }{57:2019-08-09 :           너어무 바쁘지만 그래두 여름맞이 콩국수는 먹고 싶어서 여의도까지 가봤어요! 콩국수 국물 증말 진하구 고소해서 멀리 간 보람 있더라구요맛있는 두유를 엄청 농축시킨 맛이었어요!! 사실 당연히 자극적이진 않아서 비빔국수에 밀리는 맛이긴 했지만, 달달하고 약간은 자극적인 비빔국수랑 번갈아서 먹으면 궁합 좋은 것 같아요! 그리구 김치...에 있는 무말랭이!!가 콩국수랑 같이 먹었을 때 너무 맛있었어요, 배추보다 무가 훠얼씬 존맛        }{58:2019-08-01 :           언제가도 오래 기다리니까...콩국수 잘 모르지만지인들은 맛있는거라고 하더라!!여름에는 진짜 대기는 무조건 필수....ㅎㅎ사장님 부럽슴니다.        }{59:2019-07-30 :           시끄러운 매미 소리가 여름을 알리는 소리라면 시원한 콩국수 한그릇은 여름을 알리는 맛이라고 본다. 여름이 왔으니 어김없이 콩국수를 맛보러 왔다. 노란빛의 콩 국물이 인상적이다. 식탁에 설탕이나 소금은 보이지 않던데 따로 간을 하지 않아도 충분히 좋았다. 되직하고 진한 국물은 마치 까르보나라 크림과도 같았다. 걸쭉한 국물의 식감은 굉장히 좋았는데 내 입맛에 콩 맛이 조금 부족하다고 느껴지긴 했다. 대신 콩비린내는 찾아볼 수 없었으니 진하면서도 깔끔한 콩국수인 것 같다. 콩국수도 좋았는데 김치가 와따다. 보쌈김치 같은 김치가 무말랭이와 함께 나오는데 사실 나는 콩국수보다 김치가 더 맛있었다. 달달하면서 너무 무르지 않은 식감도 좋았다. 고명 하나 없는 콩국수라도 이 김치와 함께 먹다보면 어느새 빈 그릇 싹싹 긁게 된다. 근본있는 맛집답게 열시부터 문을 열어서 두번째 점심 먹기에도 부담이 없는 것도 좋다.        }{60:2019-07-30 :           - 엄마가 야식으로 비빔국수 해줬는데 진짜 겁나 맛있게 비벼진 그날 같은 맛- 콩국수로 유명한집이지만 비빔국수 택함- 사실 친숙한 비빔국수 맛이었고, 새콤달콤해서 간이 있는 편이라 간 싫어하는 사람에겐 맛이 강할 수 있음- 그치만 한여름에 입맛을 확 돋우는 맛- 게다가 면발도 밀가루로 만든 소면같은데 뭔가 쫄면같은 탱탱함이 있음 최고- 사실 나는 국수가 끈적한 식감인것이 별로라 콩국수 자체를 별로 안 좋아하지만, 이집 국물은 인정,, 걸쭉한 냉국처럼 계속 퍼먹게됨- 만두는 뭐 걍 맛있는 만두(살짝퍼져서 아쉬움)- 가족피셜에 따르면 매해 가격이 올라가고 있다고 함$_$- 결론: 우리집 식구들이 좋아하는 집이고 가깝기때문에 사람없는 시간 눈치게임에 성공하여 또 오겠다!         }{61:2019-07-30 :           그 유명하다는 진주집.콩국수를 그렇게 좋아하지 않지만 너무 궁금해서 굳이 주문. 절묘하다는 느낌을 받았다. 콩국수의 이데아라는 다른 리뷰의 표현이 그렇게 와닿을 수가. 텁텁하지도 밍밍하지도 않은 적절한 밀도에, 딱 맞는 면의 탱탱함이 어디에도 흠잡을 데 없는 수준. 닭칼국수도 맛있다고 한다.문제는 이 콩국수를 위해 1.1만원의 비용과 여의도까지 방문하여 어마어마한 웨이팅을 지불할 것인데, 이건 스스로 생각해보도록 하자.        }{62:2019-07-28 :           여의도역에 위치한 콩국수집 "진주집". 서울 3대 콩국수집으로 꼽힐 정도로 유명한 곳이지요. 유키즈온더블락에 나온 거 보고 다녀옴!! 여름되면 콩국수부터 생각나는 거 보면 진짜 나이를 먹었구나 싶네요.. 추천 : )'콩국수'. 크~ 크리미한 콩국물을 보자마자 이건 맛없을 수가 없구나!! 걸쭉해보이지만 막상 먹어보면 부드러운 콩국물은 진짜 최고ㅠㅠ 적당한 굵기의 면발도 아주 마음에 들어요ㅋㅋ 콩국수에 설탕을 넣어 먹냐/ 소금을 넣어먹냐 가지고 논쟁이 많던데.. 나의 선택은 아무것도 안 넣어먹..ㅋㅋ 왜냐.. 여기 김치가 맛있기 때문이지!! 간이 상당한 김치여서 콩국수랑 잘 어울려요. '만두'. 여기 만두 마음에 든다ㅎㅎ 크기가 약간 애매하게 커서 입 안에 한 번에 넣기는 살짝 큰데 베어 먹기는 또 약간 작다ㅋㅋ 우겨우겨 한 입에 넣고 먹으니 뭔가 풍성한 느낌이 좋았다ㅋㅋ  분위기는 보통ㅋㅋ 상가 지하에 있는 콩국수 집이니까요ㅋㅋ 주말 점심에 가니 웨이팅이 정말 엄청 길었는데 회전이 빨라서인지 줄이 또 금방 빠져요ㅋㅋ 겁먹지말고 기다려보시길!!ㅋㅋ        }{63:2019-07-26 :           평일 오후 2시쯤가니 웨이팅 거의 없이 들어갔어요! 조금 비싼 가격이지만 국물이 진하도 걸죽하답니다. 콩국물 맛을 느껴보면 된장? 메주? 맛이 살짝 느껴지는 듯 해요. 그리고 비빔국수도 또한 맛있고, 김치는 방금 김장한 듯한 맛이었어요 :-)        }{64:2019-07-22 :           개인적으로 좋아하는 음식 중 하나지만 은근 맛있는집은 많지 않아 아쉬운 콩국수 벼르고 벼르다 드디어 방문한 진주집 종종 가는 곳이 상당한 맛집인 맛자랑인데 그곳과는 다른 스타일로 굉장히 맛있게 먹었다국물이 굉장히 꾸덕, 진하면서 맛깔나는 간이 아주 인상적이다  국물도 김치도 첫맛은 생각보다 간이 상당히 세서 당황했는데 먹다보니 둘의 밸러스가 의외로 꿀조합..! 김치는 조미료? 맛이 좀 나는거 같긴 하지만 밥이나 칼국수 먹을때 아니면 김치 많이 안먹는데 둘이 저 많은 김치 한그릇을 다 비울줄은...자주 올 수 있는 곳에 있으면 한달에 두번은 올거 같은 내취향 국수집        }{65:2019-07-22 :           여름이 기다려지는 이유, 꾸덕한 콩국수! 너어무 유명한 진주집 여의도 직장인들 쉬는 주말에 가면 사람이 없답니다 ㅎㅎ 오늘은 월요일이지만 저녁에 갔어요. 지난번 방문때보다 면이 쭬깃하게 잘 삶겼고 국물이 진짜 부드럽고 꾸덕해서 아 역시 진주집이다 싶은 콩국수. 비빔국수 드시는 분들도 많은데 진짜 안맵구 단짠의 맛있는 비빔국수에요. 안에들은 오이랑 무생채도 케미가 좋구요. 여기 콩국수가 양이많아두 계속 다 긁어먹게 되는 이유는 진짜 너무 맛있는 배추김치와 꼬들꼬들한 무말랭이입니다 ㅠㅠㅠㅠ 짜도 계속 먹게되어요 접시만두는 특별한 맛은 아니지만 없으면 아쉬운 그런맛 ㅎㅎ 한가지아쉬운건 정말 유명세 때문인건지 다른 콩국수 집들 비해 콩국수 값이 11,000원으로 너무 비싸다는점^^ 여름에 한 두번 특별히 먹는 음식이니 기꺼이 지불은 하지만 조금만 더 합리적이면 좋을 것 같아요! 괜찮다인 이유는 맛있지만 가격때문입니다~~ 만천원이면 당근 맛있어야죠         }{66:2019-07-12 :           가격이 너무 비쌈 콩국수 11000원 비빔국수 9000????? 얼마나 맛있길래 이 가격인가 했는데비빔국수는 너무 달았고 찬으로 나온 김치는 더 달아서 내가 디저트를 먹고 있나 착각함 콩국수는 맛있긴했는데 11000원이면 맛있는게당연^^절대 안감        }{67:2019-07-08 :           여의도 직장인 중에 여기 모르는 분 있나요? 모르시면 이번 여름에는 꼭 가세요. 두번 가세요.점심시간이면 여기 대기줄이 여백 지하1층을 한바퀴 돈다는 존맛 콩국수집입니다. 진주집 콩국수는 콩국수? 맹맹해서 별로야~ 라고 생각했던 저의 생각을 180도 바꿔주었습니다... 대기시간이 길어서 한시간 컷이 어려워서 자주 못가지만 그것만 아니었음 여름에 출근도장 찍었을듯요..사진에서부터 느껴지듯이 콩국이 매우 꾸덕하지만 전혀 느끼하거나 콩비린내가 느껴지지 않아요. 그냥 고소하기만 할 뿐... 맨 콩국수 맛을 즐기다 배가 적당히 불러오면 꼬독하면서 알맞게 매콤달콤한 무말랭이를 곁들여 먹으면 위장이 리셋되고요~여기는 닭칼국수도 맛있으니 겨울에는 닭칼국수에 김치 올려서 먹으면 끝장납니다 끝장나요~~ 재방문의사o        }{68:2019-07-08 :           인생 콩국수를 맛보다..!콩국수를 좋아해서 여기저기 많이 먹으러 다닌 것 같은데, 역시 맛집은 다른가 봅니다.진하고 부드러운 콩국물이 일품❤함께 시킨 만두도 별 기대 없었는데너무 맛있는 것..❤다만, 콩국수 먹을 때마다 느끼는 거지만안 그래도 콩 국물이 진해서 배부른데,면이 너무 많아서 남기고 온 게 너무 아까웠어요ㅜㅜ        }{69:2019-07-06 :           토요일 11:20 도착. 앞에 두팀 줄서있어서 금방 들어감. 콩국수,비빔국수 시킴. 3분내로 나옴. 아침도 안먹고 간터라 배고픈 상태였음. 사진도 못찍고 바로 먹음. 근데 맛이..??? 콩국수가 고소하거나 진한느낌이 그렇게 들지않았고 비빔국수는 MSG맛이 강해서 반정도만 먹다가 못먹음. 콩국수는 가격대비 아쉽고 비빔국수는 아쉽고 또 아쉬움. 주차권도 500원주고 사서 나옴. 나왔는데 줄이 엄청 길게... 저정도로 줄서서 먹었으면 억울했을것같음... 근처에 와도 오지않을것같음.        }{70:2019-06-26 :           남편이 여의도에서 일할때지하에서부터 건물 밖을 빙둘러 줄서서 먹는 집이라며자긴 콩국수 안먹는데 여기꺼는 먹는다며여름이라 덥고 콩국수가 먹고싶어 갔어요.11시 조금 넘어 도착했는데.. 이미 줄이 ㄷ자 모양그래도 넓어서 금방 빠져요.콩 국물은 굉장히 부드럽고 크리미한 느낌까지 들어요은근히 면발이 맛있는데 꽤나 쫄깃하고요.같이 나오는 김치와 무채가 맛있네요만두랑 비빔국수도 먹었는데만두가 완전 쬘깃쬘깃하면서 내용물이 아주 옹골차요.간도 적당하고 만두도 맛있었어요.넥타이 부대에 둘러싸여 공장 분위기긴 하지만깨끗하고 맛있어요.좀 시끄럽긴 합니다        }{71:2019-06-22 :           광화문의 진주회관이라고 이름이 비슷한 집이 있다. 여기랑 이름이 비슷한 집인데 콩국수 맛도 참 비슷하다.사장님끼리 형제란 말도 있는데 사실인지는 모르겠다.두 곳 다 진한 국물과 비싼 가격 많은 사람이 특징이다.다만 김치에서 좀 차이가 있는데 개인적으로는 여의도 진주집 김치가 취향에 맞는다.콩국수 가격이 11000원이라 결코 싸다고는 할 수 없지만 양도 많고 맛이 좋아서 '창렬'하다는 생각이 들지는 않는다.        }{72:2019-06-11 :           콩국수 국물이 이렇게 부드러울 수가 있다니.        }{73:2019-05-18 :           맛있어요.비빔국수 양이 곱빼기에요냉콩국수가 11,000원나머지는 9,000원이에요        }{74:2019-05-01 :           별로이자 괜찮다이자 맛있다,,..이렇게나 애매한 집은 처음토요일 한 시 쯤 웨이팅 거의 없이 착석콩국수 마니아로서 기대하고 갔는데 콩국수 엄청믱믱해여. 누군가는 그 ‘슴슴’ 한 맛에 먹는다 할 수 있겠지만 ..개인차니까여 콩은 정말 곱다? 입자가 곱다? 는 느낌이 있었는데 맛은 뭐 쏘쏘만두 쫀맛그리고 이 모든 걸 김치(에 잇는 무채(?))가 캐리        }{75:2019-05-01 :           0. 콩이란 무엇인가. 예로부터 이것만 먹으면 인생 망했다고 여기는 작물 아니던가. 1. 콩을 갈아넣겠다는 집념이 느껴지는 콩국수. 근데 콩이 그럴만한 가치가 있는 것일까. 과연 콩 함유량이 많다고 좋은 것일까. 2. 만두는 북한 느낌 나는거 같은데 그냥 남한 만두에요. 북한향 남한만두?3. 자를까요? 라고 요 자 끝나기도 전에 가위는 면을 잘라버렸습니다.         }{76:2019-03-30 :           겨울에 가서 콩국수가 없어서 닭칼국수 먹었었다 흑흑 괜찮았지만 내가 먹고싶은건 콩국수였다고......        }{77:2019-03-30 :           맛있긴 맛있었지만 개인적으로는 그냥 먹을만 하다...?근처에 갈 일이 있으면 다시 갈 수도 있겠지만구욷이 멀리서 찾아갈 맛은 아닌 것 같아요...ㅎ아 만두국은 엄청 맛있었어요!!육개장칼국수는 살짝 시큼(?)한 맛이 났던 것 같구...10점 만점에 한 7.5점 정도....?        }{78:2019-03-22 :           콩국수가 트레이드 마크입니다. 여자가 먹기에 양이 많았어요. 김치도 일품이에요. 평일 11:30쯤 갔더니 거의 비어있었습니다. 앉자마자 그 큰 공간이 회사원들로 가득 차더라구요.        }{79:2019-03-13 :           콩국수는 그냥 매년 여름에 한두번 먹는 정도인데, 유명한 집의 맛은 어떨까 궁금해서 가본 진주집. 그래서 먹고 나서 궁금했다. 여기가 콩국수 맛집으로 꼽히는 이유가 뭘까? 진하긴한데 그렇다고 일반 콩국수는 비교도 안 될 정도로 고소하다던가 이런 점은 못 느끼겠다. 간이 심심한 탓인가 싶어 소금이나 설탕이 테이블에 있는지 둘러봤지만 없는걸 보니 그냥 먹는게 맞는거 같아서 김치를 곁들여 다 먹긴 했는데, 지금 생각해도 차라리 소금이라도 따로 달라하는 게 나았을듯. 접시만두는 그냥 괜찮다 정도. 문제는 비싸다. 장사가 잘 돼서 올린 건지, 여의도라는 위치의 특성 때문에 그런지 메뉴가 다 비싸다.  그래도 다행히 칼국수는 무척 맛있다. 차라리 첨부터 칼국수 맛집으로만 알고 갔다면 꽤 만족했을듯. 주변에 누군가가 진주집을 가본다 한다면.. 칼국수만 추천해야겠다.        }{80:2019-02-16 :           콩국수는 못 먹었지만 뜨듯한 떡만두국이 맛있었다.알찬 만두와 쫄깃한 떡 짜지 않은 국물이 좋았다.먹는 내내 떡의 쫄깃한 식감을 즐겼다.소소한 맛집이었다.        }{81:2019-02-05 :           여의도 콩국수는 진주집이지        }{82:2019-01-31 :           시장판 같음        }{83:2019-01-11 :           무조건 가는집. 말이 필요없다.        }{84:2018-12-02 :           주말 오후 애매한 시간에 갔는데도 꽉차있었어요. 웨이팅을 하긴했는데 회전율이 빨라 금방 들어갔어요. 콩국수는 찐하긴한데 약간 비릿하긴했어요. 옆테이블에선 닭칼국수를 드시던데 그게 더 맛있어 보였어요ㅋㅋㅋ... 담엔 닭칼국수로.. 만두피는 두껍지않고 속이 알차요. 다닥다닥 사람들과 붙어서 정신없이 먹어야했던건 좀 불편했어요        }{85:2018-12-01 :           콩국수 (10000) 이날씨에 콩국수를 먹는 사람도있습니다! 콩국수를 좋아하는 제가 그렇습니다!!진주회관과 진주집을 둘 다 다녀와서 생각해보니 진한 콩국물을 좋아하는 저는 진주회관(시청역)이 더 제 취향이었습니다! 그런데 진주집의 김치는 맛있어서 못잊을거같아요.. 진주집 김치에 콩국수는 완전 환상궁합입니다... 친구랑 김치 리필 받아서 더 먹었어요..❣️        }{86:2018-11-11 :           토요일아침이라 웨이팅이 엄청났지만 생각보다 줄이 금방 줄어든다. 콩국수, 비빔국수, 닭칼국수, 접시만두 하나씩 먹어봤는데 콩국수가 진하고 맛있고 비빔, 닭칼국수는 맛있긴한데 무난함. 만두도 너무 맛있음        }{87:2018-10-30 :           훌-륭 콩국수가 10000원에 육박해서 좀 비싸지만 맛있습니다.매년 가격이 오르긴 하는데 콩국수 특유의 콩비린내가 많이없고 꾸덕함이 아주 적절해서 후루룩넘어갑니다같이나오는 김치도 달짝지근해서 콩국수랑 같이먹으면 좋아요사장님이 미국 mba 다녀와서 진주집 회전율을 극대화시켰다는 소문이 있습니다        }{88:2018-10-14 :           콩국수에 콩국물이 엄청 진하고 달다. 묽은콩국 정말 싫어하는데 진주집꺼는 후루룩뚞딲 해치움!!!        }{89:2018-10-08 :           식사 때면 사람으로 바글바글한 집.근데 맛집으로 동의 못하지 못하는 이유는트릭으로 장난질을 치기 때문이다.유명한 콩국수를 먹으면 본연의 맛이 아니라땅콩 맛이 강하게 올라온다.이건 콩국수가 아니라 숫제 땅콩국수라 불러야 한다.혹시나 잘못 먹었나 싶어 두번째 가보기도 했지만역시 판단이 틀리지 않았다.비빔국수는 그냥 달디 달다.고추장 베이스라 입안에 도는 여운이 텁텁하다.음식 퀄리티로 보면 동네 흔한 국수집 수준인데가격은 기대 수준 이상이다.땅콩국수의 유분 때문인지, 설탕범벅 비빔국수 때문인지먹고 나서 속이 가히 좋지 못했다.        }{90:2018-09-21 :           값이 싸진않잖아요~남편이랑 아까워서 먹었어요~좀 특별한 맛을 기대하시진 마시길!!저희신랑은 콩국수에 팥넣은 느낌이라고해요.고소한맛도 전혀없고.. 닭칼국수도 실망입니다.        }{91:2018-09-18 :           비빔 좋네        }{92:2018-09-16 :           맛있다        }{93:2018-09-10 :           저 콩국수 못먹어요. 하는 과장님이 마지막 국물까지 숟가락을 놓지 못하며 맛있다고 하셨다. 비빔국수는 조금 단 편인데 다른 사람이 시킨 콩국수나 칼국수를 나눠먹으면 조화롭게 먹을 수 있다.         }{94:2018-09-02 :           진하기가 생각보다 조금은 묽은 콩국수. 무말랭이 김치와 따로 접시만두을 시켜 곁들어 먹으니 조합이 좋아요. 다만 개인적으로는 진주회관의 전분면발이 아닌 평범한 국수 맛이 아쉽습니다.        }{95:2018-09-01 :           주차비 오백원을 현금으로 따로 받는데..  좀 놀랐고, 콩국수는..        }{96:2018-08-25 :           김치 아삭아삭 완젼 점성쩌는 고소하고 보드라운 콩국물 .. 정말깨끗하게 먹고옴 가족생각나게하는맛 .. 담에 가족이랑 재방문예정        }{97:2018-08-22 :           줄이 어마어마. 그시간의 가성비의 맛인줄은 모르겠으나 별미        }{98:2018-08-21 :           ⭐️⭐️⭐️⭐️ (4/5)닭칼국수8000비빔국수 8000냉콩국수 10000접시만두 8000가게가 굉장히 넓어서 웨이팅걱정은 없을 것 같다(는 아니란다). 닭칼국수 시켰는데 깔끔하게 맛있다!! 다음엔 냉콩국수를 먹어보고싶당 다음에 또오고싶다 추천추천        }{99:2018-08-19 :           소문난 콩국수 맛집! 이지만 콩국수를 별로 안좋아하는 이유로 닭칼국수를 시킴. 아니 근데 이게 웬걸... 콩국수 맛집이라는게 생각도 안 날 정도로 너무나 맛있어서순식간에 국물까지 흡입했습니다. 깔끔하고 담백한 육수에 쫄깃한 면발아삭하고 맛있는 김치까지 너무 좋았어요        }{100:2018-08-18 :           만두 빼고 국수 세가지 다 먹어봤는데 맛있었어요.그중에 제일은 콩국수랑 비빔국수!콩국수야 워낙 유명해서 두 말할 것 없이 진한 국물을 맛있게 즐겼는데 비빔국수가 의외로 꼭 먹어봐야할 음식인 것 같아요.소스가 말그대로 새콤달콤한게 콩국수를 잠시 잊을 정도로 먹었고 지금도 솔직히 비빔국수 먹으러 다시 가고싶어요ㅋㅋㅋ그런데 아쉬운건 부모님 모시고 가서 시켰을땐 비빔국수가 좀 짜게 조리돼서 부모님은 맛있게 못즐겼다는 점이에요. ㅠㅠ 제가 거의 끌고가다시피 해서 갔는데 좀 머쓱했네요.그리고 가격도 계속 오르고 있으니 언젠간 비합리적이다 싶어 못갈 수도 있을 것 같아요.        }{101:2018-08-04 :           진주집 콩국수는 진리예요.콩 비린내 안 나고 묽지 않고.맛만큼은 베스트.괜찮다인 이유는, 오이 알러지 때문에 비빔국수의 오이를 빼달라고 하니 개인적인 주문은 안된다고 하셨어요. ㅠ토핑으로 올려지기만 하는 정도이니 걷어서 먹으라고 하셨는데,버무려진 수준이라 도저히 못 먹겠더라구요.서너젓가락 먹다 안되겠어서 나머진 남겼습니다.그리고 주문을 깜빡하셨어요....20분이 지나도 안 나오길래, 주문 들어갔다고 하더니 그 뒤로도 늦게 들어온 팀 먼저 나가더라구요...재차 확인하니 콩국수 1, 비빔국수 1 이었는데 콩국수 둘이냐며,처음 여쭤봤을 때라도 오더 확인 제대로 해주셨으면 좋았을 텐데....오이야 개인 특성이니 그렇다쳐도 주문 누락 됐을 때 응대가 특히 아쉬웠네요. ㅠ_ㅠ        }{102:2018-08-02 :           콩국수 맛집! 하면 항상 진주집은 랭크되는 듯. 여의도백화점 지하에 위치해있고, 좌석이 점포 두 곳에 나뉘어있을 정도로 많다. 그만큼 인기가 많다는 뜻!콩국수와 비빔국수 주문. 잘라드릴까요 하셔서 네! 했더니 네 등분 해주심. 콩국수는 하얗디 하얀 비주얼부터 맛까지, 심플함이 최고라는 걸 다시 한 번 실감. 콩물이 스프처럼 꾸덕하고 매우 고소하다. 김치는 굵은 무말랭이가 들어가 보쌈김치 같기도, 갓 무친 겉절이 같기도. 달달한 편이라 콩국수와 좋은 궁합임!비빔국수는 예상보다 더 맛있었다! 잘 삶아져 쪼오올깃한 면발을 보다 더 느낄 수 있었던 메뉴. 과하게 새콤하지도, 매콤하지도 않다. 밸런스가 완벽하게 맞춰져 있음. 오이와 무채도 넉넉히 들어가있어 좋다! 평일 식사시간 아닐 때 갔는데도 손님들로 문전성시. 재방문 할 땐 칼국수도 만두도 먹어봐야지!        }{103:2018-08-01 :           맛있다-!! 콩국수는 보통 먹다보면 맛이 단조로워서 물리는데 여기는 그런 것 없이 맛있게 먹었다. 김치가 맛이 좋은 이유도 있고 같이 시킨 비빔국수가 맛이 좋은 이유도 있다.  다시 또 생각날 듯한 맛이다. 비빔국수랑 같이 나오는 국물이 맛이 좀 별로인데, 무슨 상관일까 메인 요리랑 김치가 이렇게 맛있는데. 왜 줄을 서서 먹는지 충분히 납득이 간다.         }{104:2018-07-30 :           콩국수 귀신인 내가 드디어 와본 진주집. 고소하고 깊은 맛이  인상 깊었다. 면도 쫄깃하고 양도 풍성. 일반 콩국수에 비해 가격이 좀 있지만 아깝지 않았다. 비빔국수도 자극적이지 않았으며 만두도 먹을만 하다. 식사시간대를 피해가면 웨이팅도 없어서 바로 먹을 수 있다.        }{105:2018-07-29 :           이제는 콩국수 만원김치 맛있다콩국수 간이 덜 된것 같이 밍밍했는데 김치가 답이었어 김치 김치 김치만 더 먹고 싶다콩국수는 패스하고 김치만 더 먹고 싶다재방문의사는 닭칼국수 그거 먹으러 간김에 김치 먹고 싶다.         }{106:2018-07-22 :           비빔에 콩국수랑 접시하나!! 둘이가서 완벽한 콤비네이션으로 시켜서 너무 잘먹고왔어요.콩국수의 부드러움과 보쌈김치의 오독한 식감이 너무 잘어울림.웨이팅 줄은 길지만 회전률이 빨라서 10분이면 들어감여름엔 꼭 가야할 맛집        }{107:2018-07-22 :           콩국수 구성은 의외로 심심하다  지인한 콩국물에 국수면이 담겨있는데 콩국물의 농도가 가히 압도적이다,같이 나오는 김치도 대박이다.평일 점심때 갔는데 줄은 길지만 가게가 넓어서 금방 빠지는 편.        }{108:2018-07-16 :            날씨도 덥고 유명세에 콩국수 먹으러 왔는데 줄 선 사람들이 어마어마했다. 어림잡아봐도 80명 정도? 그래도 회전율은 빨라서 30분 정도 기다리고 들어갔음. 앉기도 전에 바로 주문한 탓인지 앉아서 물한잔 하고 식기세팅하고 나니 만두가 먼저 나오고 그리고 3분 정도 만에 음식이 나옴. 주문이 끊임없이 비슷한 메뉴가 들어오니깐 그냥 계속 만들어서 빨리 나오는듯.. 암튼 우선 접시 만두.. 여느 냉동만두랑 크게 다를바는 없이 맛은 무난했으나 처음에 두개 먹고 나머지 콩국수 먹고 먹으려니 그새 선풍이 바람에 식어서 피가 딱딱해짐 ㅠ 그리고 콩국수.. 하도 사람들이 맛있다고 찬양하길래 기대했는데 보쌈김치같은 김칫소에 무말랭이는 좋았지만 콩국수는.. 콩비린맛만 안날뿐 콩국수 고유의 고소한 맛이 거의 느껴지지 않았다.. 다른 식당 7천원 짜리도 더 맛있는데 많은데 좀 아쉽다 ㅠ 비빔국수는 첫 한입은 오 새콤하고 맛있다였는데 먹을수록 양념이 많아져서 그럴까 짜서 다 못먹음.. 이건 양념양 배합만 잘되면 맛있게 한그릇 다 먹을 수 있을듯 하다        }{109:2018-07-14 :           국물도 진하고 함께 나오는 김치도 맛있고 ㅠㅠㅠㅠ 진짜 맛있어서 언제든 다시 가고싶은 집        }{110:2018-07-13 :           와 그간 내가 먹은 콩국수는 뭐였나...평소에 콩국수 즐겨먹지 않지만 이건 아주 맛있게 먹었다. 소금간도 없이 후루룩 먹어 치움.걸쭉한 콩국에 쫄깃한 면발. 그리고 하이라이트는 김치!색감에서 추정되는 바로 그 맛인데, 아삭하고 신선하다. 무 말랭이(?)도 함께 있어서 정말 맛있게 먹었음! 만두는 쏘쏘.장사가 잘되어 두 점포를 터서 쓰시는 듯.듣기로 닭칼국수와 비빔면도 맛있다던데, 담에 먹어봐야겠다. 추천!        }{111:2018-07-07 :           여름에는 콩국수! 겨울에는 칼국수!        }{112:2018-07-07 :           굵은 면을 싫어하는 사람으로서 중면을 쓴 콩국수가 너무 무거웠다. 사실대로 말하자면, 체했다. 콩국물이 아주아주 진해서 더욱 무겁다.콩만 갈아서 이정도로 진하고 무거운 국물이 만들어질 수 있는지 놀랍다. 면만 좀 가볍게 소면을 썼으면 좋았을 것을.        }{113:2018-07-06 :           콩국수는 당연하고 비빔국수도 맛있어요!점심에 줄도 체계저??으로 세워주심        }{114:2018-07-01 :           김치가 다하는 집콩국물 얼음없이 진득한건 맘에들지만생각한것만큼 고소한 느낌은 못받음..진짜 콩물은 다 이런가?어디서 보니 이미 간이 되서 나온다고했는데그것도 잘 모르겠음다만 김치가.. 김치가 무말랭이 느낌의 달달한 김치라서 이거랑 먹으면 꿀떡꿀떡 잘넘어감김치덕에 먹은 콩국수 ㅋㅋㅋㅋ닭칼국수는 쏘쏘함옆에 따로있는 고추장아찌? 같은거에 먹으면 좋음        }{115:2018-07-01 :           여의도 맛집이라해서 예전(10여년전 여의도 근무시절) 다녀오고 다시 어제 다녀온 집.. 많은 콩국수집을 다녀 봤고 다양하게 먹어 봤는데 여기는 난리 칠 만큼의 맛은 아닌 듯..콩국물: 다른 곳에 비하여 조금 진하고 구수하다.국수: 다른 잘 한다는 콩국수 집과 비슷하다..가겨은 너무 비싸다 11000원.. 가성비는 아니라고 생각한다..단, 여기 김치가 이 집을 유명하게 만든 듯하다.. 보쌈 김치같은 맛.. 그러나, 배추는 그저 그렇지만 속재료(무 양념) 은 진짜 맛있다..이 집 배추 속이 이집의 대표인 듯...진주집 가게되면 무 속재료만 막어보기 바람..        }{116:2018-06-30 :           콩비린네 없이 고소하게 먹을 수 있어서 좋았어요. 함께 나오는 김치도 달큰한게 콩국수와 잘 어울립니다.         }{117:2018-06-30 :           여름이 왔다는 증거인 지 부쩍 사람이 많은 진주집. 진주회관 가고 3일 뒤에 방문! 진주회관의 콩국수와 비교하면 땅콩맛이 덜 나고 면이 조금 더 얇으며 국물이 더 묽다. 김치가 달달한 편인데 콩국수랑 잘 어울린다. 여기는 여러명이 가면 꼭 만두를 시켜야 할 거 같은 기분이 드는데 매번 시키지만 한 번도 우와 맛있다라고 생각한 적은 없다. 그냥 평범하고 피가 두꺼운 만두랄까! 콩국수만 시키기에 너무 심심할 거 같다 싶으면 주문하는 것도 나쁘지 않을 것 같다.내 입에는 진주회관이 더 맛있는 것 같지만 땅콩향을 싫어하는 사람에게는 진주집이 나을 거 같다.        }{118:2018-06-28 :           전메뉴 다 먹었어요!!콩국수 국물이 진해서 다는 개인적으로 너무 좋았는데호불호가 많이 갈리더라고요.. 같이간 동생과 어머니는 생각보다 뱔로라고.... 회전율아 좋아서 주문하자마자 3분만에 나오고 여기 보쌈김치가 ㄹㅇ 핵존맛탱!!!! 김치만 리필 세번해서 먹었어여 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ앗! 만두도 맛있오요닭칼국수는 비추랍니다 (찡긋)        }{119:2018-06-26 :           진짜 가성비 최고,,여의도 맛집 중 하나인 곳!!!!비빔국수+만두는 최고의 조합이다        }{120:2018-06-21 :           그리도 유명한 콩국수 맛집!! 밖에서 사먹는 콩국물은 너무연해서 여름되면 집에서 엄마가 한번씩은 꼭 만들어주시거든요~ 하도 맛집이다해서 비싼 가격에도 불구하고 줄서서 먹어봤어용 ㅎ맛은있어요! 특히 보쌈처럼 무채김치도있는데 궁합이 최고입니다!!ㅋㅋ 하지만 가격은 비싼감이 있긴해요~        }{121:2018-06-16 :           한줄평 : NASA가 사실이 아니더라도 이곳 콩국수는 우주최강!삼세번 도전 끝에 점심시간 피크타임에 진주집 입성 성공!! (지난 번에 혼밥하려고 갔더니 앞에 줄이 100명은 있는 것 같아서 포기...OTL)1974년부터니까 벌써 45년째 콩국수를 꾸준히 판매하고 있는 진주집. 시청 쪽 진주회관 이랑 친인척관계라고 알려져있다. 원래 콩국수는 위에 오이 같은 고명이 올라가는 법인데 여기는 면과 콩국물로만 승부한다. 콩은 강원도산 황태콩만 사용한다고 한다. 콩국물이 고운 이유는 NASA에서 사용하는 부품을 사용해 콩을 갈아서 입자가 고운 거라는 이야기가 있다(망플에서 후기 읽은듯!)진하고 곱게 갈린 콩국물이 매력적이다. 마치 미숫가루를 진하게 탄 것처럼 걸쭉한데, 면에 착 감겨 입안으로 들어올 때 그 고소함은 먹어본 사람은 다 알거다.여기에 포인트가 되는게 매콤아삭한 배추겉절이. 적당히 매콤해서 자칫 지루할 수 있는 콩국수를 완벽하게 어시스트한다. 팍팍 뿌려진 MSG맛이 매력적이다...☆함께 판매하는 만두는 콩국수만큼 특별하지는 않지만, 여럿이서 와서 같이 나눠먹기에 제격. 만두용 간장을 같이 서빙해주지만 개인적으로는 콩국수랑 같이 나오는 배추겉절이랑 먹는게 더 맛있다.결론은 콩국수 사랑합니다...♡ 자주 올게요♡        }{122:2018-06-13 :           콩국수 진하고 김치랑 비빔국수는 정말정말맛있음        }{123:2018-06-13 :           콩국수 먹고싶어서 갔는데 비빔국수랑 접시만두, 그리고 보쌈김치에 반하고 왔어요!! 콩국수는 생각보다는 밍밍..? 하고 국물이 많이 없어서 아쉬웠지만 그래도 역시 맛있긴 해용!         }{124:2018-06-07 :           콩국수 킬러인 저에게 너무도 궁금했던 진주집 콩국수.되게 조그맣고 복작이는 곳일 줄 알았는데 지하 양 옆으로 이렇게나 큰 홀인지 몰랐어요.! 오픈때 오니 큰 웨이팅 없이 바로 먹었는데 3-40 분 지나니까 웨이팅이 점점 길어지더라구요콩국수는 조금 되직하고 입자가 정말 고와서 약간 차가운 콩스프 같은 느낌이었어요. 약간 노란빛이 돌면서 은은한 콩맛이 나서 고소하고 부담없이 먹을 수 있었어요. 이런 노란콩은 잘못하면 비린내도 심한데 전혀 그런게 없어서 좋았습니다. 조금은 밍밍하게 느낄 수 있다는 생각이 들었는데 함께 나오는 김치가 보쌈김치처럼 달짝지근해서 함께 먹으니 정말 잘 어울렸어요~!만두는 되게 양이 많더라구요 ㅎㅎ 양 좀 줄이고 가격도 낮추면 좀더 좋을텐데 하는 생각이 ..! 여튼 간간하고 만두도 맛있었습니다 :-)!        }{125:2018-06-04 :           이때까지 먹어본 콩국수중 가장 부드럽고 비린내가 정말 하나~~~도 안난다!!!국내산 좋은 콩 이상의 비결이 있을 것 같다.국수한그릇인데 정말 배부르고 영양가 듬뿍!!그리고 김치가 깜짝 놀랄정도로 맛있어서 수육을 팔아도좋겠다는 생각이 들었다.         }{126:2018-05-16 :           그릇을 싹싹 긁게 되는 맛있는 콩국수!또 먹고싶네요        }{127:2018-05-16 :           무김치가 압권!!!콩국수 원래 안좋아해서 몇년만에 처음 먹었어요콩국수가 유명하다 해서 왔는데 콩국물 한숟가락 먹고 육성으로 "오오"라고 했어요국물이 되고 고소해요! 설탕넣어먹는 느낌아니라 고소하고 진한 그 콩 순수의 짭조름하고 단맛이에요콩국수먹고 으음 이정도였는데 김치먹고 충격먹었어요 김치너무 맛있어요겉절이 같은 느낌인데 무슨 고기에서 느껴지는 고소하고 깊은 맛이 느껴져요콩국수만 먹으면 금방 질릴텐데 김치때문에 한 그릇 다먹을 수 있어요 진짜 김치 대존맛진주집 사장님 김치 사업 하셨으면 좋겠다        }{128:2018-05-15 :           원래 콩국수 별로 안좋아하는데 여긴 대체 왜 이렇게 맛있지..? 포슬한 면발에 꼬소하고 부드러운 국물... 정말 술술 빨려들어간다. 되직한 스타일이 아니고 좀더 스프 같은 느낌의 콩국물이 예술이다. 콩냄새가 비리거니 느끼하지 않고 정말 고소해서 잘 넘어간다. 얼마나 맛있냐하면 국수는 남겨도 국물은 다 먹을정도! 김치도 맛있어서 먹고나면 입이 참 깔끔해진다. 쌀쌀한 날 방문해서 닭칼국수와 육개장칼국수도 같이 주문했는데 역시 베스트는 콩국수였다. 그런데 칼국수도 맛있는게 함정. 비빔국수도 먹고 싶었는데 일행이 3명이어서 슬펐다. 얼른 또가고 싶다.        }{129:2018-05-10 :           아 ㅠ 먹어본 콩국수중에 제일 맛있었어요        }{130:2018-05-03 :           콩국수를 많이 다양하게 먹어본 건 아니지만 정말 진한 콩국수라는건 알수 있었다.김치도 맛있고. 여러번 갔다.        }{131:2018-05-01 :           완전 어이상실 주문하고 20분다되서야 재료없다고 나가라고함 화내니 그제서야 죄송하다고하고 조금도 미안해하지도 않고 당당하심 어이 상실 마지못해 그럼 이거라고 먹으라는식으로 말함 진짜 불친절함 유명하다고 이러는지 정말 황담함 시간만 버리고 어이없음        }{132:2018-04-29 :           맛있습니다. 안 가면 서운한 집 입니다.평범한 메뉴인데 다 맛있습니다        }{133:2018-04-20 :           전체적으로 특별나지 않고 담담하니 좋은 집고기만두 소가 꽉차서 좋았는데 꼬다리부분 피 뭉침은 아쉬움 간장도 그냥 파 송송 썰어준 평범한 집간장느낌물도 주전자에 주니 괜히 정겨움너무 배부른데 물주전자부터 음식의 분위기가 꼭 할머니가 차려준 밥상같아 남길수가 없어 입으로 꾸역꾸역 넣다가 체할 뻔 했다국물은 진득하긴한데 나는 더 우유같은 느낌 나는걸 좋아하는 편이고 집에선 거리가 꽤 있는 편이라 찾아올지는 모르겠지만 회사 근처에 이런집이 있다는건 축복이아닌가 하는 생각이다 그리고 김치는 정말 너무 맛있는데 맛이 굉장히 강해서 맛있다고 계속 집어먹다보니 어느새 콩국수 맛이 안느껴지더랬다... 흑 꼬소한 맛이 느껴지지 않는 슬픔..... ㅠㅠ육칼은 쏘쏘육개장 자체는 맛있는데 칼국수 면이 두껍고 그냥..조화로운 맛이 아니었음         }{134:2018-04-10 :           육개장칼국수랑 냉콩국수를 먹었다. 콩국수는 시청역의 진주회관처럼 역시 진하고 고소한 콩국에 면이 뭉텅 들어있다. 다만 다른 분 후기처럼 면이 약간 더 적은 듯 했다. 그렇지만 아무튼 맛있다!육개장 칼국수 역시 얼큰하니 건더기도 많고 아주 맛있었다! 양도 넉넉했다. 완전 만족!        }{135:2018-04-09 :           완전 공장형 콩국수집시키자마자 일분도 안되서 나오고 두개지점에 자리는 수백개콩국물은 국물이 아니라 스푸수준김치는 이렇게 맛있는 김치처음먹음콩국수랑 같이 먹으니 완전 궁합여의도백화점 바이브        }{136:2018-02-28 :           짜고 조미료 맛... 심지어 뜨겁지도 않게 나왔어요. 김치가 그나마 맛있는 편!        }{137:2018-01-25 :           맛나유 가격 괜춘        }{138:2017-12-11 :           닭칼국수 8천원. 닭고기 고명이 올라가있고 칼국수면은 두꺼운 편임. 처음엔 너무 밀가루 맛이 나서 면 거의 못먹었는데 지금은 적응돼서 먹음. 김치는 언제나처럼 달고 자극적이지만 자극적인 맛 좋아하는 아재들을 따라 종종 먹으러 옴.         }{139:2017-11-30 :           집이 판교만 아니었어도 season 2입니다... 인생콩국수예요ㅠ 양이 좀 많긴해도 진하고 고소하고 깔끔하고 짭짤하고 정말 혼자서 다하는 콩국수집입니다. 개인적으로 마늘맛이 강한걸 못먹고 겉절이도 별로 안좋아하지만 김치가 단짠의 진수이고 마늘이 그렇게 많이들어가진않아서 명동교자st 김치를 못먹는 저에겐 정말 절묘하게 괜찮았어요. 그리고 콩국수와 정말 환상의 궁합입니다. 또 가고 싶은데 너무 멀어요ㅠ 사람들이 살인적으로 많으니 식사시간대는 피해서 가시는걸 추천해요.        }{140:2017-11-29 :           닭칼국수 맛있다        }{141:2017-11-16 :           콩국수를 즐기지못한다 다른종류를먹었다감히 평가불가할거같다        }{142:2017-10-05 :           김치도 맛있고 뷰드러운 콩국수        }{143:2017-10-02 :           근 몇 년만에 먹은 진주집의 콩국수(9,5)여름동안 못 먹어서 아쉬웠는데 방문한 날이 충분히 더워서 딱 먹기 좋았어요.첫입 했을 땐 전보다 맹맹해졌나?싶었는데 또 먹다보면 역시 맛있다..싶어요,ㅋㅋ 꾸덕한 콩물이 두꺼운 면에 착착 달라붙어 면만 먹어도 맛있긴 하지만, 면이 너무 많아서 차라리 면 양 줄이고 가격을 좀 낮추는 게 낫지 않을까란 생각이 늘 듭니다.(하지만 남김없이 싹싹 먹은 돼지1인)집에서 직접 만든 콩국수보다야 못 하겠지만 그래도 파는 콩국수 중에 이만한 퀄리티 자랑하는 데는 흔치 않다고 생각해요. 특히 함께 나오는 김치도 꿀맛,ㅋㅋ내년 여름에 또 만나요, 진주집!        }{144:2017-09-14 :           몇년만에 먹었던 인생콩국수♡내 인생에서 콩국수가 맛있다는걸 알게해준집김치랑 어울리</t>
   </si>
   <si>
     <t>{1:2020-05-30 :           깔끔하고 건강한맛        }{2:2020-04-19 :           자극적이지 않고 건강하게 맛있어서 가족 모임하기 좋은 곳!         }{3:2020-03-17 :           건강한 느낌이 좋더라구요        }{4:2020-02-02 :           아담과 이브가 천둥벌거숭이처럼 뛰어놀던 에덴동산 아시죠...그 에덴동산에서 5가지 산나물 얻어왔것든...에구... 가짜뉴스...여의도 에덴식당을 자신있게 소개합니다... 산나물에는 항암효과가 있는거 아시죠...남자는 에너지 보강에... 여자는 피부 미용에...우리 아이는 성장기 영양소...어르신들에게는 활기를...만능이어가주구... 못살아 증말... 도심 한복판에서 만나는 산나물 정식인데도 구성이 아쉽지 않았서요...적당히 슴슴하게 간이 되어 있는게 나물만 먹어도 느낌 좋아가주구...임꺽정 형아야 아니면 홍길동 형아야 되는 기분...밑반찬으로 나오는 김치는 무적권 먹어야 하는거 아시죠...사스도 예방하고 메르스도 김치로 이겨낸 민족이에요...두유 노우 김치... 츄라이... 츄라이...도토리묵 포함해서 모든 반찬이 건강해지는 느낌이요... 청매실 안심구이도 세트에 함께 구성되어 있서요...연육제로 매실을 쓴 모양이죠...주부님들의 만능 아이템 매실을 꼭 기억하시세...그래서 그런지 새콤달콤한 맛이 안심구이를 씹으면 씹을수록 배어나와요...육즙과 함께 어우러지는 산뜻한 매실의 향...어르신들 모시고 와도 괜찮을 것 같아가주구... 근처 직장인 형아야 누나야들은 점심에 여기서 식사 많이 하실거 같아요...회사밥은 사실 그다지 땡기지 않는거 아시죠...고추장에 5가지 나물 넣고 슥삭두둥탁 드르륵칵칵 트랩비트에 맞춰 비비면...에구 매콤달콤쌉싸름한게 별미것든...5가지 산나물로 만드는 웰빙식단... 꼭 이루어내겠습니다... 에구... 세줄 요약...1. 아담 형아야 5가지 산나물 안 먹어가주구 선악과 먹은거 모르시죠...2. 5가지 산나물에 맛있는 고추장 슥삭 밥에다 비벼 먹으면 속이 편안해요...3. 청매실 안심구이도 무시할 수 없는 명품조연이것든...        }{5:2019-12-22 :           여의도 한식 맛집인 에덴식당! 지리산 산나물 비빔밥을 먹을 수 있는 곳이에요. 전라도 분이신 부모님과 방문했는데 한식 입맛 까다로우신 분들인데도 만족스럽게 식사하셨어요.3인세트메뉴에 더덕전 구성으로 먹었는데, 산나물 비빔밥 정식은 청국장이랑 같이 제공돼요.기본적으로 나물들의 맛이 하나하나 느껴질정도로 향이 강하고 신선함이 느껴졌어요.들기름은 2대로 이어오고 있는 장인의 손길을 거쳤다고 하네요. 저희 집 식구들은 할머니로부터 직접 짜서 만드신 들기름에 익숙해서 기대를 안했는데, 서울에서 이런 퀄리티를 맛 볼 수 있어서 좋았어요.청국장은 특유의 냄새나 쿰쿰함? 같은 게 약한 편이고 고소하고 건더기도 많이 들어있어서 부담없이 먹을 수 있었어요.더덕전은 부추전 위에 더덕이 올라가있는건데, 더덕이 단호박처럼 느껴지던 맛,.? 개인적으론 더덕전보다는 다른 메뉴를 추천하고 싶네요!!전반적으로 훌륭한 식사지만 막 엄청 맛있는 그런 느낌은 아닌지라 괜찮다로..!        }{6:2019-10-05 :           전체적으로 간 세지 않고 건강한 한 끼 먹을 수 있는 곳. 청국장 냄새가 많이 나지 않아서 좋았음. 양은 적은 편.         }{7:2019-08-29 :           '에덴식당' 식당명만 들었을 때에는 어떤 종류의 음식을 파는 곳인지 상상하기 힘들었는데, 막상 와보면 나물비빔밥과 청국장이 주 점심메뉴라는 것이 식당명과 참 안어울린다는 생각을 들게한 식당. 단백질이 아닌 말린 풀떼기들을 올린 비빔밥과 청국장 세트를 생각보다 비싸게 파네??라는 생각을 했지만(처음에는 5종류 나물밥...1.5만원에 먹었죠.) 먹고 뒤돌아서면 고슬하게 잘지어진 밥과 우적우적향긋하게 씹히는 나물, 고소한 들기름의 향의 여운이 생각보다 길게 남는 집입니다. 그리고 먹고나면 부담없이 속이 편안한 것도 큰 장점이구요. 얼마전에 처남이 놀러와서 점심을 함께 먹을때에는 청매실 안심구이도 함께 주문해서 먹었는데, 매실의 새콤함이 살짝 베어있고 함께 나오는 야채들도 고기와 잘 어울려 왠만한 고깃집에서 먹는 것보다 맛있었습니다. 나오면서 사장님께서 해주신 말씀은 안심의 근막과 지방들을 손질해내느라 들여온 30% 정도는 버린다고 하시네요. (물론 가격에는 반영되어 있겠지)5가지 산나물정식: 1.1만원8가지 산나물정식: 1.6만원2인세트: 5가지 산나물정식+청매실안심구이(소): 4.5만원        }{8:2019-04-24 :           한줄평: 5가지 지리산 산나물에 건강해지는 한끼건강한 한끼가 먹고싶어 검색하다 발견했다. 여의도에 이런 건강한 한식을 파는 곳이 있다는 걸 이제서야 알았다곤드레 참취 깻순 등 5가지 지리산 산나물 정식에 와인으로 맛을 낸 청매실 소고기 안심구이. 이름만 들어도 건강해지는 기분이다. 나물들이 종류도 많고 향도 진한 녀석들이라 보리가 섞인 잡곡밥과 비벼먹어도 향긋하고 맛있다. 고기도 안심이라 부드럽고 질기지 않고 맛있었다. 매실맛이 느껴지는 건 아니었지만 양념이 맛있긴했다 ㅋㅋㅋ된장국이나 묵 깍두기 등 다른 기본찬도 맛있어서 매우 만족스러웠던 식사 :) 점심시간에 사람 겁내 많으니 예약하고 가면 좋을 것 같다고 합니다        }{9:2019-04-05 :           먹어보진않았는덕 나쁘지않아보였다 목요일저녁 그건물에서 사람많았고 맛있어들 하는것같았다여자분들이나 모임 인원분들이 많은걸로 보아 맛집맞는거 아닌갓싶었다룸은 하나있으나 여섯개테이블 단체드가는 방이였다나머진 홀로 트여있고 밥집분위기 사장님은 친절        }{10:2019-02-25 :           정성이 느껴진다        }{11:2019-01-06 :           맛있었어요,밥한공기 웬만하면 다 못먹는데 한공기 더 추가도 했어요콩비지찌개정식?이랑 산나물정식 시켰는데 느무느무 만족스러워요옆테이블보니 팬을 이용한 고기요리도 드시던데 다음에는 고기도 같이나오는걸로 시켜먹어볼라구요        }{12:2018-12-18 :           산나물 맛있어요 김치마 청국장도 맛있고 더덕전도 맜있어요        }{13:2018-04-27 :           여의도에서 건강한 한끼를 먹을 수 있는 에덴식당. 안심스테이크는 양식메뉴 산채비빔밥은 한식메뉴라 상이 나왔을 때 둘이 같이 있는 비주얼이 왠지 모를 묘한 이질감이 있었다.나는 비빔밥에 국을 몇술 넣어 촉촉하게 먹는 걸 좋아하는 편인데 청국장과 각종 나물을 비벼 먹으니 꽤 맛있었다. 나물에서 들기름향?이 좀 많이 나긴 했는데 거슬리는 정도는 아니었다. 안심은 그냥 저냥 안심 그렇게 질기지 않아서 좋았다.영양 측면에서 봤을 때도 탄단지 골고루 먹을 수 있고 건강한 한상느낌 물씬 난다. 대존맛은 아니고 적당히 맛있! 추천!        }{14:2018-03-26 :           여의도에서 건강한 식단을 찾는다면 에덴식당으로!! 주말 점심 이른시간에 갔더니 붐비지 않아 예약필요없이 바로 앉을 수 있었다. 세트메뉴중 5가지 산나물 정식+메인요리 보쌈 시켰는데 쌈으로 나온 야채도 신선했고 나물도 밥비벼먹기 좋게 적당한 양으로 나와서 좋았지만 무엇보다 괜찮았던 건 청국장!! 짜지 않아서 청국장만 먹어도 맛났던 한끼ㅋㅋ 반찬들중에서는 도토리묵이 최고였다ㅋㅋ묵가루 함량이 높은지 뭔가 엄청 쫀득하면서 찐한 도토리묵이어서 넘 맛있었다ㅋㅋ 보쌈도 비린내 안나고 부드러워서 순식간에 뚝딱ㅋㅋ 부모님 모시고 와도 칭찬받을만한 곳이다!!         }{15:2018-03-20 :           더덕전(17000₩?) 나물정식(10000₩)정갈하게 나물 먹고 싶을때 추천.        }{16:2017-09-11 :           음식 정갈하고 건강한 맛이에요풀종류(?) 반찬들 많구요그런데 채식위주(?) 식사 싫어하면 안 좋아하실수도요        }{17:2017-04-11 :           깨끗한 재료들로 정성껏 만들어낸 산채나물이 메인인 식당이에요. 온갖 조미료 범벅이 된 메뉴들이 넘쳐나는 여의도에서 마음껏 건강하게 먹을 수 있는 아주 희소한 식당 중 하나라고 할 수 있어요. 개인적으로 청국장은 잘 못 먹는 편이라 먹어보진 않았지만(그냥 밥과 같이 줍니다) 향이 강하지 않아서 다들 부담없이 드시는 것 같아요. 안심구이는 양념이 잘 된 그리고 먹기 좋게 잘 썰어둔 스테이크 먹는 느낌이고 보쌈은 그냥 보쌈이지만 이 집의 감성이 살아있는 깔끔한 맛이에요 :)이 집은 음식도 음식이지만 술을 놓치고 가서는 안 되는 집이에요. 우선 자희향 브랜드의 국화주, 탁주가 있어요. 이 국화주가 절대 놓쳐서는 안 되는 술이랍니다. 가격이 2만원인데 옛날에 제가 직접 사러 문의했을 때 유통가로 1.5만원에 팔던 술이에요. 아주 좋은 술인데 마진 거의 안 붙여서 파시더라고요. 유통기한도 짧아서 취급하는 곳들이 거의 없기 때문에 꼭 시켜보시길 추천해요. 국화주 설명을 드리자면 조금 달콤한 맛이 기본으로 깔려있는데 달지 않고 딱 귀엽게 달콤해서 기분 좋은 당도에요. 과일과 꽃향이 강하게 밀어 붙이기 보다는 그윽하게 입안에 퍼져 나가는데 드실 때 원샷은 절대 하지 마시고 입에 펴바른다는 느낌으로 천천히 즐겨보세요. 가끔 없는 날도 있어서 문의 먼저 해보고 가시면 더 좋아요. 그리고 편하게 먹기 좋은 수제망고막걸리도 추천해요!건강하지만 맛도 있는 음식+수준 높은 술의 훌륭한 조합이에요 :)        }{18:2017-03-04 :           여기가면 늘 과식깔끔하고 집밥같은 산채정식 먹고싶을때마다 가는데 진짜 여기때문에 산채정식빠져서 되게자주감 청국장 라이트해서 내입엔 오히려너무맛있음 나물이 비벼먹기 부족한 양은 아닌데 나물 플레이팅이 새모이같이 주면서 추가는 돈내야하는점은 좀 별로다른 여의도 내 산채정식집과 달리 깔끔하고 현대적인 깨끗한분위기도 장점        }{19:2017-01-05 :           안심이 부드럽고 맛잇네요.  가격도 착하고.         }{20:2017-01-03 :           정갈한 산나물 정식 한식 식당인데요깔끔한 맛에 정성이 느껴지는 음식들이라 정말 좋아요고추장부터 들기름 밑반찬 하나하나 까지 다 직접  남원에서 공수해서 만드신다 하시는데 진짜 맛있음다 강추        }</t>
@@ -368,6 +365,26 @@
   </si>
   <si>
     <t>prices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신원</t>
+  </si>
+  <si>
+    <t>한정식 / 백반 / 정통 한식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:2020-04-15 :           예상 했던 생각했던 맛...!        }{2:2019-09-17 :           점심 때 혼자 방문했는데 사람들로 만원이었는데,운이 좋아서 자리를 바로 안내 받았다. 고등어 조림 1인분과 라면 사리를 시킴. 우거지의 깊은 우러난 맛이 아닌 조미료의 가벼운 맛과 중국산으로 추정되는 김치  반찬이  조금 아쉬웠으나,큰 냄비에 우거지와 고등어 몸통 2개가 9천원으로 가성비가 높고 직원들의 친절함에 만족스러웠음.        }{3:2019-09-07 :           맛있는 집입니다..단점은 가게가 넓진 않고 옆자리와도 간격이 짧아요그래도 조림먹고싶으면 가고 싶은 집입니다        }{4:2019-06-12 :           특별하다고할 맛은 아니지만 익숙한 맛을 맛있게 만들어내는 집.찬 하나하나가 의외로 맛있다.우거지 고등어에 밥한공기 뚝딱하고 나오면 만족감이 뿜뿜...}{5:2019-01-31 :           고등어가 실함        }{6:2020-04-15 :           예상 했던 생각했던 맛...!        }{7:2019-09-17 :           점심 때 혼자 방문했는데 사람들로 만원이었는데,운이 좋아서 자리를 바로 안내 받았다. 고등어 조림 1인분과 라면 사리를 시킴. 우거지의 깊은 우러난 맛이 아닌 조미료의 가벼운 맛과 중국산으로 추정되는 김치  반찬이  조금 아쉬웠으나,큰 냄비에 우거지와 고등어 몸통 2개가 9천원으로 가성비가 높고 직원들의 친절함에 만족스러웠음.        }{8:2019-09-07 :           맛있는 집입니다..단점은 가게가 넓진 않고 옆자리와도 간격이 짧아요그래도 조림먹고싶으면 가고 싶은 집입니다        }{9:2019-06-12 :           특별하다고할 맛은 아니지만 익숙한 맛을 맛있게 만들어내는 집.찬 하나하나가 의외로 맛있다.우거지 고등어에 밥한공기 뚝딱하고 나오면 만족감이 뿜뿜...}{10:2019-01-31 :           고등어가 실함        }</t>
+  </si>
+  <si>
+    <t>{1:2020-08-20 :           20200609◇ 콩 국 수*. 인생 첫 콩국수...너무너무 대성공. 이럴수가. 저는 마카롱이나 콩국수나 처음 먹어보는 것들을 거의 &lt;진수&gt;라고 불리는 곳에서만 접해서 어쩐대요... 눈높이 너무 높아져서 이제 아무 콩국수나 못먹어벌여ㅠ*. 진짜 고소하고 꾸덕한 콩국수의 끝판왕이 아닐까요.. 콩을 워낙 좋아해도 신문지맛이 난다는 소문 탓에 쉽사리 도전하지 못했는데... 역시 인간은 도전해야 경험하고 경험해야 진리를 찾을 수 있다는 말을 또 되새기게 됩니다...*. 그리고 여기 무슨 보쌈집인가요??? 김치 왜케 맛있어~!!~!! 김치 잘 안 먹는 저같은 어린이도 싹 비우게 하는 맛입니다.. 이 김치 하나만 있으면 쌀밥 한 그릇도 뚝딱 비워내겠는걸요. 물론 전 쌀밥은 안 먹긴 하지만요..        },{2:2020-08-17 :           한 건물 지하 식당가에 위치한 국수집. 흔하디 흔해 보이는 음식점 외관과 달리 음식의 퀄리티는 흔하지 않다.내부는 넓디 넓고 테이블도 정말 많다. 사람들이 아주 많아서 점심시간대만 되면 손님들로 가득 차 있다. 피크타임보다 늦게 가서인지 테이블이 많아서인지 음식이 나오는 속도가 빨라서인지 줄은 길지만 금방금방 자리가 났다.날도 덥고 사진으로 본 콩국수의 비쥬얼 덕에 이미 메뉴를 정하고 들어왔었다.메뉴는 콩국수 11000원홀릭 리뷰로 볼 때는 9500원 정도의 가격이었지만 아무래도 몇 년 전에 비해 가격이 꽤 올랐다.하긴 냉면 한 그릇 12000원 하는 요즘이니 콩국수 11000원 맛만 있다면 놀랄 거 없다.음식은 생각보다 금방 나왔다. 아무래도 국물은 이미 준비되어 있을테고 면만 삶아서 콩국물을 넣어서 내어줄 터이니 시간이 많이 걸리지는 않았을 것이다. 하지만 손님들이 굉장히 많았는데?콩국수는 딱 봐도 너무 진하게 생겼다. 고명은 없다. 진하고 곱게 갈려서 부드럽기도 하다. 테이블에 소금이 따로 비치되어 있지 않아서 의외였는데 먹어보니 소금은 필요 치 않았다. 국물은 굉장히 진하고 고소하다. 농도가 높지만 걸쭉함과는 조금 다른 느낌. 너무 곱게 갈려서 부드러웠다. 콩 향은 조금 약한 편이긴 하다.면발은 굉장히 쫄깃하다. 식감까지도 상당히 훌륭한 국수이다. 먹다보면 고명이 없는 이유를 알 것 같다. 고명은 이 맛에 방해가 된다.나는 콩국수를 원래 좋아해 본적이 딱히 없다. 가장 최근에 콩국수를 맛있게 먹었던 건 예전에 갔던 답십리 별미. 거기랑은 또 다른 매력을 보여주는 듯.김치도 아삭거림이 괜찮았는데 사실 김치보다 마음에 든 건 무말랭이다. 개인적으로 부피가 조금 더 작아서인지 콩국수와의 합이 배추김치보다 조금 더 마음에 들었다. 배추김치도 좋지만 왠지 콩국수를 먹을 때는 좋아하는 배추김치보다 별로 안 좋아하는 파김치랑 부추김치가 조금 더 생각이 난다. 유명 맛집일 것 같은 느낌이 아니었지만 콩국수만큼은 웬만한 유명식당들보다 뛰어난 듯 하다. 가까우니까 또 와볼 생각은 있다. 비빔국수가 궁금해졌다.        },{3:2020-08-07 :           콩국수가 땡겨서 검색해서 찾아갔는데~여의도 백화점 지하 1층에 아주 넓게 자리하고 있었다.줄을 선다해서 느지막히~오후 2시반쯤 갔는데~우와~유명하긴한가 보네 ㅎ그때도 2/3쯤 차 있었다.일단 콩국수 하나 닭칼국수 하나 주문했는데~양이 딥다 많았다.닭칼국수 맛이 좋았고 또 만두가 2개 들어 있어서 만두도 맛보고 ㅋ무엇보다도 진~한 콩국수 국물과 쫄깃한 국수 맛은 무척 인상적이었다.500원내면 주차도 1시간 되고~더운 여름날 시원한 콩국수 생각날때~일부러 찾아올만 하다는 생각이 든다.#냠냠        },{4:2020-08-05 :           냉콩국수여름엔 콩국수~~  김치랑 먹으면 더 맛있어요! 테이블에는 후추밖에 없어서 소금 넣어드시려면 이모님께 말씀드려야합니닷        },{5:2020-08-01 :           ㅇㅕㄹㅡㅁ ㅋㅗㅇㄱㅜㄱㅅㅜㅇㅘ ㅂㅗㅆㅏㅁㄱㅣㅁㅊㅣㅇㅢ ㅈㅓㅇㅅㅓㄱ\ㅇㅕㅇㅢㄷㅗ ㅈㅣㄱㅈㅏㅇㅇㅣㄴㅇㅢ ㅍㅣㅅㅓㅈㅣ\"&lt;U+2800&gt;#ㅈㅣㄴㅈㅜㅈㅣㅂ&lt;U+200B&gt;&lt;U+2800&gt;ㅍㅕㅇㅇㅣㄹ ㅈㅓㅁㅅㅣㅁㅅㅣㄱㅏㄴ ㅇㅕㄹㅡㅁㅇㅔㄴㄱㅡㄴㅊㅓ ㅈㅣㄱㅈㅏㅇㅇㅣㄴㄷㅡㄹㅇㅣ ㅂㅏㄱㅡㄹㅂㅏㄱㅡㄹ&lt;U+2800&gt;ㅈㅜㅁㅜㄴ ㅎㅏㅈㅏㅁㅏㅈㅏ ㅅㅔㅌㅣㅇㄷㅚㄴㅡㄴ ㅅㅏㅇㅊㅏㄹㅣㅁㅇㅔㅅㅓㅇㅗㄹㅐㄴ ㄴㅐㄱㅗㅇㅇㅣ ㄴㅡㄲㅕㅈㅣㄴㄷㅏ.&lt;U+2800&gt;ㄴㅐㅇㅋㅗㅇㄱㅜㄱㅅㅜㄴㅡㄴ ㅎㅡㅁㅈㅏㅂㅇㅡㄹ ㄷㅔ ㅇㅓㅄㅇㅣ ㄲㅏㄹㄲㅡㅁㅎㅏㄷㅏ.ㄱㅓㄹㅉㅜㄱㅎㅏㄱㅗ ㄱㅜㅅㅜㅎㅏㄴ 'ㅋㅗㅇㄱㅜㄱㅅㅜㅇㅢ ㅈㅓㅇㅅㅓㄱ'ㅋㅗㅇㅂㅣㄹㅣㄴㄴㅐ ㅇㅓㅄㅇㅣ ㅅㅡㅁㅅㅡㅁ ㄷㅏㄹㄷㅏㄹㅎㅏㄷㅏ.ㅇㅑㅇㅇㅣ ㄱㅗㅂㅃㅐㄱㅣ ㅅㅜㅈㅜㄴㅇㅣㄴㄷㅔㄷㅗ ㅅㅗㅁㅕㄴㅇㅡㄴ ㅅㅏㄹㅇㅏㅇㅣㅆㄷㅏ.ㅂㅣㅂㅣㅁㄱㅜㄱㅅㅜ ㄷㅏㄺㅋㅏㄹㄱㅜㄱㅅㅜㄷㅗ ㅁㅏㅅㅇㅣㅆㅈㅣㅁㅏㄴ ㅋㅗㅇㄱㅜㄱㅅㅜㄱㅏ ㅈㅣㄴㄹㅣ!!&lt;U+2800&gt;ㅇㅣ ㅈㅣㅂㅇㅢ ㅋㅣㄱㅇㅡㄴ ㅇㅓㄹㅡㄴ ㅈㅜㅁㅓㄱㅁㅏㄴㅎㅏㄴㅂㅗㅆㅏㅁㄱㅣㅁㅊㅣ ㅎㅏㄴ ㄷㅓㅇㅇㅣㄷㅏ.ㅇㅏㅅㅏㄱㅇㅏㅅㅏㄱ ㅅㅣㅇㅝㄴㅎㅏㄱㅗ ㅁㅐㅂㅆㅏㅎㅏㄷㅏ.ㅋㅡㄹㅣㅁㅍㅏㅅㅡㅌㅏㅇㅘ ㄱㅣㅁㅊㅣ ㅈㅗㅎㅏㅂ ㄱㅏㅌㄱㅣㄷㅗ ㅎㅏㄱㅗ..ㄱㅗㅅㅗㅎㅏㅁㄱㅘ ㅉㅏㄴㅁㅏㅅㅇㅢ ㅈㅗㅎㅘㄱㅏ ㅎㅘㄴㅅㅏㅇㅇㅣㄷㅏ.&lt;U+2800&gt;&lt;U+200B&gt;#ㅇㅕㄹㅡㅁㅁㅏㅅㅈㅣㅂ #ㄱㅖㅈㅓㄹㅎㅏㄴㅇㅣㅂ #ㄱㅖㅈㅓㄹㅁㅏㅅㅈㅣㅂ #ㅈㅔㅊㅓㄹㅁㅏㅅㅈㅣㅂ #ㅇㅕㅇㅢㄷㅗㅁㅏㅅㅈㅣㅂ #ㅋㅗㅇㄱㅜㄱㅅㅜ #ㅂㅣㄱㅓㄴ #vegan#ㄱㅖㅈㅓㄹㄱㅏㅇㅈㅓㅇ #ㅂㅗㅆㅏㅁㄱㅣㅁㅊㅣ #ㅁㅣㅅㅣㄱ #ㅅㅓㅇㅜㄹㅁㅏㅅㅈㅣㅂ #ㅎㅏㄴㅅㅣㄱ #koreanfoods #ㅉㅣㄴㅁㅏㅅㅈㅣㅂ ----------------------------------------------------&lt;U+2800&gt;&lt;U+2714&gt;&lt;U+FE0F&gt;ㅅㅓㅇㅜㄹ ㅇㅕㅇㅢㄷㅗㅇㅕㄱ ㅇㅕㅇㄷㅡㅇㅍㅗㄱㅜ ㄱㅜㄱㅈㅔㄱㅡㅁㅇㅠㅇㄹㅗ6ㄱㅣㄹ 33&lt;U+2714&gt;&lt;U+FE0F&gt; 10:00~20:00 ㅌㅗ 10:00~19:00 ㅇㅣㄹ ㅎㅠㅁㅜ&lt;U+2714&gt;&lt;U+FE0F&gt;ㄴㅐㅇㅋㅗㅇㄱㅜㄱㅅㅜ 11000ㅇㅝㄴ ㄷㅏㄺㅋㅏㄹㄱㅜㄱㅅㅜ ㅂㅣㅂㅣㅁㄱㅜㄱㅅㅜ ㅈㅓㅂㅅㅣㅁㅏㄴㄷㅜ 9000&lt;U+2795&gt;ㅍㅕㅇㅇㅣㄹ ㅈㅓㅁㅅㅣㅁㅇㅡㄴ ㅈㅣㄱㅈㅏㅇㅇㅣㄴ Party ㅈㅗㅅㅣㅁ&lt;U+2800&gt;&lt;U+200B&gt;        },{6:2020-07-29 :           와 여기 진짜 맛있다.인생 콩국수!!! ㅠㅡㅠ 내가 생각한 딱 이상적인 콩국수에요.#콩국수에서 국물 진한건 디폴트고맛있는 콩국수라면 면이 중요하다고 생각해요.여긴 면이 너무 얇지않고 쫄깃해서 콩국수랑 잘어울리는 것 같습니다.그리고 #만두.. 만두 꼭 시키세요 ㅠㅡㅠ 만두가 짱이네여속이 매우 부드럽고 간이 딱 좋아서 ㅠㅠ끊임없이 들어가요..같이 간 지인은 #비빔국수가 젤 맛있데요!뜨끈한 국물이 땡긴다면 #닭칼국수도 좋아요.이것도 너무 맛있었어요. 만두도 들어가 있고 국물이 부담없이 깔끔해요!콩국수 싫어하는 사람도 맛있게 먹을 만한 맛이고다른 국수도 훌륭해서 그날그날 기호에 따라 골라 먹어도 다 만족스러울듯해여!주말이면 텅텅비는 여의도인데 놀랐어요..여의도 사람들 전부 다 진주집에 모여있는게 아닐까 생각할정도로 사람이 많았어요..좌석도 많고 회전율도 높아서 오래 기다리진 않을 듯 합니다.계산할때보니 포장도 받는 듯하더라구요어른들 모시고 오기도 좋고 남녀노소 모두 즐길 수 있는 맛집이네여실제로도 손님 구성이 너무 다양했어요 ㅋㅋ        },{7:2020-07-20 :           내가 콩국수를 맛있다고 생각하게 될 줄이야.콩국수는 밍밍하고 맛없다고 생각하다가 워낙 주변에서 이야기하길래 너무 궁금해서 가봤다우선 국수로 건물 세우셨겠다는 확신이 드는 엄청난 줄에 놀라고이렇게 바쁜 와중에도 친절하신 이모님들에 두 번 놀람 여튼 콩국수도 맛있지만 비빔국수 무슨 일..? 너무 맛있다! 만두도 맛있었지만 크게 특별한 맛은 아니었음진주집에서 콩국수랑 비빔국수는 무조건 세트로 주문 필수        },{8:2020-07-15 :           머리말) 저는 콩국수를 처음 먹어본 사람임을 밝힙니다.1년 중 여의도에 딱 나흘을 머물게 되었는데 하필 여름이네. 진주집에 가보라는 신의 계시가 아니었을까! 콩국수가 무슨 맛인지 몰라서 콩국수 땡기는 게 뭔지 몰랐다. 그렇다고 딱히 궁금해해본 적도 없지만 자타공인 아재입맛으로서 왠지 먹어야만 할 것 같았다. 묘하게 왠지 끌려;; 내가 컨셉을 만드는 건지 컨셉이 나를 만드는 것인지..아무튼 리틀아재 혼자서 진주집 착석.11시 10분쯤 도착했을 땐 홀 하나만 꽉 차고 하나는 거의 비어있었다. 11시반에 만석. ‘조금만 늦게 왔으면 ‘하는 생각이 절로 들었다. 거의 출퇴근 시간 지하철을 방불케하는 타임어택이었다. 평일이라 그런지 나올 때는 줄도 장난이 아니었다. 헉 소리 절로 나는 직장인 체험기... 콩국수는 반드시 잘라달라고 해야 한다. 나는 원래 냉면도 십자모양으로 잘라먹는 사람이라 당연히 잘랐는데 여긴 후루룩 면치기 좋아하는 사람도 무조건 잘라야 한다. 왜냐하면 국물은 너무 걸쭉하고 면은 단단히 엉겨있어 면이랑 국이 잘 안 섞이기 때문이다. 사진을 보면 아시다시피 잘라도 면 사이사이로 콩국물이 안 들어온다. 가만히 놔두면 아마 영원히 안 섞일듯. 진주집 콩국수 한줄평은 “명품조연 콩국수”다. 이집 김치가 진짜 맛있는데 콩국물이 입에 들어가는 순간 김치맛이 싹 리셋되어 김치가 또 땡긴다. 그래서 또 먹으면 짜니까 또 콩국수에 손이 간다. 콩국수 한입 김치 한입 무한반복. 이집 김치는 보쌈김치처럼 양념이 많이 묻어있고 양념과 무가 잔뜩 올라가있는데 보기보다 안 텁텁하고 시원했다. 담음새도 마음에 들고:) 김치가 별로였으면 콩국수 왜 먹어 하고 나왔을텐데 나는 콩국수를 먹는 이유를 김치에서 찾았다. 정말 콩국수는 김치를 더 맛있게 먹기 위한 수단이 아닐까? 콩국수만 먹으면 국물 포만감이 대단해서 위가 철컹하고 문 닫는 순간이 온다. 배불러도 맛있으면 바닥 비우는 편인데 콩국수는 어느 순간 되니 더이상 들어가지 않았다. 옆테이블에서 스뎅그릇 바닥을 숟가락으로 싹싹 긁는 소리가 나는 것을 들어보니 콩국수도 국물까지 완탕할 수 있는 음식이기는 한가본데 내 입맛에는 원앤온리 콩국수를 먹기에는 심심했다. 비빔국수 등 콩국수를 빛나게 해줄 다른 메뉴랑 같이 주문해서 나눠먹음 좋을 것 같다. 내가 만약 비건이었으면 크림파스타가 먹고 싶을 때 진주집에 올 것이다. 진짜 걸&lt;U+2014&gt;쭉하면서도 곱고 부드러웠고 풋내 하나도 안 났다. 나는 콩을 원래 좋아하지만 콩을 안 좋아해도 거부감 없이 맛볼 정도는 될 것 같다. 첫 콩국수라 비교 대상이 없는 것이 아쉽지만 아마 다른 집에 가서 먹어보면 그제서야 깨닫겠지 진주집이 맛집이었다는 것을. 콩국물은 간이 엄청 살살 되어있어서 싱거웠고 스프처럼 국물만 떠먹어도 든든한 한 그릇이 될 것 같았다. 이건 콩국수라는 음식에 대한 본질적인 의문이지만 크림스프에 굳이 밥 안 말아 먹는 것처럼 국물만 먹어도 배부를 것 같은데 왜 면이랑 같이 먹는지 궁금했다. 암튼 은근히 손이 가는 콩국물만으로도 먹어볼 가치는 충분한 진주집 콩국수!         },{9:2020-07-11 :           레전드        },{10:2020-07-09 :           냉콩국수(11000)/ 접시만두(9000)을 먹었습니다진주집은 재재재방문한 곳이었어요!! 항상 여름이 된다면 가게 되는 것 같습니다 맨날 다음에 오면 콩국수 말고 다른거 먹을거라고 다짐하지만 결국 또 콩국수를 먹게 되었습니다 콩국수의 국물이 굉장히 걸쭉하고 고소해요!! 그래서 정말 여기 콩국수를 꼭 먹어보셔야 합니다 그리고 같이 나오는 김치가 ㄹㅇ 미친놈입니다 진짜 너무 맛있어요!! 이번에는 접시만두도 먹어봤는데 다른 만두에 비해 피가 두껍고 맛있었어요!! 하지만 그렇게 특별한 맛은 아닌거 같아요. 이번에 갔을때에는 딱 밥먹을 시간대여서 좀 기다렸는데 그래도 식당이 넓기 때문에 회전율은 빠른편이에요!! 꼭 한번쯤은 가봐야할 식당이라구 생각합니다        },{11:2020-07-03 :           너무 맛있어서 매일 매일 먹고 싶네요. 여기보다 맛있는 콩국수집을 아직 못 찾아서...        },{12:2020-06-23 :           여지껏 할머니표 콩국수가 최고인줄 알았는데..이제 여름마다 생각날것 같은 진주집 칼국수는 먹어본 맛이지만 안에 만두가 진짜 맛있어요 ! 콩국수는 진하고 ㅠㅜㅜ 간 되어있어서 그냥 먹어도 맛있고 먹다가 중간에 설탕 달라고해서 설탕 넣어먹어도 별미입니다다음에 간다면 콩국수만 각 1그릇 할것 같아요 !!+ 김치 찐 맛 집.저는 평일 5:40 정도에 갔는데 아슬하게 기다리지 않았습니다 !        },{13:2020-06-21 :           콩국수+비빔국수+만두 이러케 머그면 조합 끝판왕  평일 점심엔 줄이 길어서 저녁에 가야지 줄 안서고 먹을수있는집 ! ㅎㅎ         },{14:2020-06-19 :           모든 근심걱정 사라지고 세계평화를 이룩할맛.. 콩1 김치1의 무한루프.. 한입마다 입맛 리셋되는 신비한경험..한국의 유산.. 단연으뜸.. 그어떤 말로도 표현불가이네요...비교불가최고의콩국수....: 배가찢어질것같음에도 그릇의바닥을보지않고는 일어날수가없다...인류는 이러한 경지에 이를수있다...:        },{15:2020-06-17 :           완콩하게끔 만드는 맛 ㅎㅎ 너무 맛있어서 두번이나 갔어요 음식(김치만두)이 전체적으로 달아서 단거 안좋아하시는 분들은 그다지..? 일것같아요 여름엔 콩국수!        },{16:2020-06-10 :           맛 : ★★★★☆양 : ★★★★☆위생 : ★★★☆☆서비스 : ★★★☆☆분위기 : ★★☆☆☆가격 : ★★☆☆☆        },{17:2020-06-10 :           정말맛있다 김치는 무말랭이와 무쳐져있는데 무말랭이는 달고 김치는 시원하다 콩물국수는 매우진하고 맛있다 콩물만 1.8L에 28000원 비싸서 11000원짜리 콩국수를 먹는걸 추천 매일매일가고싶다!        },{18:2020-06-05 :           아 이젠 멀어서 못가겟지...?콩국수 닭칼국수 만두 다 짱짱인데 작년 비오는날 택시타고 남친이였던 신랑이랑 존맛탱으로 먹고 비그쳐서 따릉이타고 다리건너 집에왓능데ㅠㅠ행복했던 추억과 맛집 이당ㅋㅋㅋㅋㅋㅋㅋ아 시워어언한 진주집 콩국수에 김치 촥 먹고싶네 만두고 함냐 하고싶고        },{19:2020-05-30 :           진짜 콩국수. (무말랭이)김치 맛집        },{20:2020-05-13 :           총평: 4.0/5.0 비릿한 맛때문에 콩국수 딱히 좋아하지는 않는데 여의도에 올일이 있어 망플보고 한번 방문해본 곳. 그런데 왠걸? 콩비린맛이 전혀 없는 콩국수. 콩국수 맛이 이렇게 깔끔하기는  처음이다. },{21:2020-05-02 :           회사 근처라그런지 평일저녁은 확실히 사람이 없었다. 점심때 직장인들 먹기엔 괜찮을 곳.찾아가서 먹을정도의 맛인지는 모르겠음.        },{22:2020-04-02 :           제가 알아주는 면킬러인데 이 집을 이제야 가보게 되어서 넘 아쉽네여ㅠㅠ 집도 가까운데 이제 갈 수 있을때마다 가야겠어요ㅠㅠㅠ 진짜 김치까지 맛있는 찐맛집... 이거 먹은 날에도 넘 맛있어서 자려고 누웠을때 또 생각나는 맛이에영... ㅠㅠㅠ 이게 점심시간 피해서 가도 사람이 많아서 회전율이 엄청 높아 시키자마자 그냥 뚝 딱! 국밥마냥 나와요.. 닭칼 시켰는데 국물도 너무 맛있고 면도 쫄깃한데다가 안에 만두 두개까지ㅠㅠㅠ!!! 너무나 제 취향이었어요ㅠㅠ 간지 오래됐는데 아직도 생각날 정도ㅠㅠㅠ 흑흑 꼭 가세여 여러분        },{23:2020-03-26 :           *재방문의사100%여의도 진주집. 내 기준 콩국수 그리고 그와 어울리는 김치거기에 곁들일수 있는 만두의 조화가 가장 최강인 집. 여의도 진주집.감히 재방문 의사 100%를 준다.멍때리고 있다가 한 겨울에도 급 생각나 콩국수 한 그릇 하러 갈 수 있는그런 곳 여의도 집주집. 좋은 국내산콩으로 잘 갈아 만들고맛있는 양념을 한 보쌈 김치 비슷한 김치 칭찬함.콩국수는 고소함의 끝을 볼 수 있고 그 고소함과 면발의 조화가 참 좋다.그렇게 고소하기에 23개월 우리 아가도 잘먹는 그런 콩국수.콩국수를 좋아하지 않는 분들이 콩국수를 먹어봐야 한다면 이집의 콩국수를 추천.만두는 당면과 야채 그리고 돼지고기가 조화롭게 섞여진 소.거기에 정성껏 만든 수제 만두이기에 맛없으면 반칙. 만두만 시켜먹어도 좋을정도. 살짝 단점은 고기만두라 느끼할 수 있음.김치와 먹어주면 느끼한 잡아줌.얇은 무채가 많이 들어간 보쌈김치 스타일의 배추김치.콩국수와 닭칼국수와 참 잘어울리는 그런 김치.이 모든것이 조화롭게 어우러진 그런집 여의도진주집.         },{24:2020-03-23 :           말해뭐해요 진짜 맛잇어요 저희 엄마는 아마 땅콩이 들어간거 같다는데 모르죠  어찌 이런맛을 내는지  가의 크림파스타 늬낌 그리고 김치 너무 맛있구여 만두도 맛있구요 닭칼국수야 만두 들어서 어무 좋고 육개장칼국수 존맛탱구리에요  여름메뉴 겨울메뉴 따로 있으니까 가서 보셔요 이제 곧 여름 또 콩국수의 계죨 ㅎ         },{25:2020-03-20 :           콩국수 찐맛집. 김치도 진짜 맛있어서 같이 먹으면 완전 최고~! 만두는 그냥그냥 육개장칼국수는 짝꿍이가 시킨건데 저는 콩국수가 제일 맛있었어요 :-)         },{26:2020-03-17 :           오랫동안 즐겨찾는 여름엔 꼭 오는 집        },{27:2020-02-24 :           여의도의 오래된 전통이 있는 칼국수 집 진주집.수요미식회에 초창기에 방영되면서 위세를 떨쳤지만 사실은 여의도에서는 원래부터 유명했던 터주대감이다. 닭칼국수가 메인 음식인 곳인데 콩국수도 계절메뉴로 상당히 유명하다.닭칼국수의 애정이 있어 방문하였지만 오랜만에 와서 그런지 맛에 대한 기억이 잘 나지 않은듯했다(아니면 내 컨디션이 좋지 않아 그런것일 수도 있다)예전에 맛있던 기억보다는 조금 덜하고 코로나의 영향인지 손님도 많지 않았지만 꼭 한번씩 여의도의 점심에서 찾게되는 곳이다.적어도 이 곳은 실패하지는 않다는 생각이 있다. 누구의 입맛에도 적당히 맞출 수 있는 장점이 있는 듯 하다.육칼도 괜찮은 느낌이었는데 곧 여의도의 점심이 선택지가 많지 않기 때문에 올 것 같다는 생각이 든다.#아무리뷰        },{28:2020-02-19 :           여름이면 콩국수 먹으러 가는 곳. 진한 콩국수에 새콤매콤한 비빔국수는 긴 웨이팅도 잊게하는 맛이다. 옆에서 만두를 빚고있는 직원들을 보면 만두를 안시킬수없는데 양도 많고 갓 만들어져 나와서 비빔국수와 굉장히 잘 어울린다. 함께먹는 김치 또한 이 집의 별미인데 김치가 콩국수의 맛을 2배이상 끌어올리는 느낌이다.        },{29:2020-02-18 :           음.....콩국수 맛있긴한데 여름에 줄서서먹는다는 말에 좀 의아... 콩국수보다는 김치맛집 ㅎㅎㅎ개인적으로 닭칼국수는 무슨 맛인지 모르겠다...        },{30:2020-02-11 :           #아무리뷰한달에 한번 여의도에 있는 치과 갈 때 마다 갔어요여의도에 갈 때 마다 진주집 갈 생각에 설렜어요개인적으로 콩국수 같은 건강한 맛 나는 음식을 별로선호하지 않아서 제 입맛엔 닭칼국수가 제일 맛있었어요근데 콩국수 좋아하시는 분들이면 좋아할 것 같아요콩 국물이 엄청 진하고 꾸덕하고 고소하더라구요포장도 많이 해가던데 다음에 포장해가봐야겠어요그래서 저는 항상 닭칼국수를 먹는데 정말 맛있어요!!!국물이 시원하면서 담백하고 안에 들어있는 만두 두개가약간 양이 모자란 듯한 느낌을 꽉 채워줘요특히 김치랑 무말랭이가 정말정말 환상..칼국수랑도 너무 잘 어울리지만 김치 자체가 맛있어요여기 비빔국수도 맛있다던데 먹으러 또 가야겠어요        },{31:2020-02-10 :           여름 여의도 직장인의 성지겨울이라 그런지 웨이팅 없이 바로 입장!콩국수랑 육개장 칼국수 만두 주문맛이며 양이며 뭐하나 빠지는게 없는 것 같다.근처에서 근무하시는 분들은 지금이 기횝니다.        },{32:2020-01-24 :           *재방문의사100%특이하게 겨울에도 맛볼 수 있는어마어마한 진함과 고소함을 자랑하는 여의도진주집의 콩국수.진하고 걸죽한 콩국수.고명은 따로 없음.깔끔해서 더욱 좋습니다. 그냥 콩국물로 승부.보쌈김치 스타일의 무채가득 김치가 매혹적임.콩국수와도 비빔국수 닭칼국수와도매우 잘 어울리는 김치.비빔국수는 맛있긴하지만 그래도 난 콩국수를 선택할것임고기와 당면 부추와의 조화가 좋은 만두 또한 칭찬함주차는 건물지하에 가능. 식사 후 현금500원 내고 1시간 주차권 구매해야함.         },{33:2020-01-20 :           다들 콩국수하고 비빔국수 얘기만 있는데 이집은 닭칼국수도 정말 맛있음...육수도 진하면서 조미료맛 심하지 않고 맛있고 닭고기랑 오이채 김치 고명 같은게 올라가는데 잘 뒤섞어서 한 입 먹으면 jmt...콩국수하고 비빔 말구 닭칼국수도 꼭 드셔보시길... 뜨끈~한 육수맛이 정말 일품!        },{34:2020-01-04 :           오랜만에 다시 방문한 진주집..오늘은 겨울이라 간단하게 비빔국수에 만두..만두는 피가 두꺼운 고기 손 만두.. 평범한 맛.. 만두국에 넣어 먹으면 좋은 맛..비빔국수는 비빔밀면 같음. 면발은 쫄깃하고 맛있음.. 둘어간 오이가 참기름 맛과 깨 맛 그리고 잘 섞인 맛.. 담에 여름에는 다시 콩국수 먹으려 함..김치도 괘안음...        },{35:2019-12-30 :           고소한 콩국수억 아삭 매콤한 김치 곁들이면 두세그릇 뚝딱        },{36:2019-12-15 :           인생 콩국수맛집이에요~!! 콩국수는 여기서만 먹어요ㅎㅎ 갈때마다 콩국수는 무조건 시키고 닭칼국수 or 비빔국수를 시켜요 닭칼국수냐 비빔국수냐가 항상 고민이에요ㅋㅋㅋ 둘다 맛있으니 땡기는거 드세요둘이서 만두까지 시키면 양이 많아요 닭칼국수에 만두가 두개 들어있으니 닭칼국수시키면 만두는 따로 안시켜도 될듯해요콩국수는 먹어본것중 가장 진하고 꾸덕해요 시청 진주회관도 비슷한데 거기보다 진주집이 조금 더 진한 느낌이에요 콩국수를 좋아하는 편이 아닌데도 여기만오면 김치랑 같이 너무 잘먹어요ㅋㅋㅋ 김치도 맛있어요 콩국수랑 찰떡입니당닭칼국수도 수준급이에요 닭고기 찢은거 꽤많이 들어있고 만두까지있어서 푸짐한느낌!! 추울때 먹으면 든든해요 국물도 진하고 해장에도 좋아용ㅋㅋㅋ점심때 가면 미어터지고 저녁때 가면 수월하게 먹을수 있습니당 언제나 맛있게 먹고오는집!!        },{37:2019-11-29 :           여기는 진짜다.콩국수 만두는 꿀맛!!        },{38:2019-11-12 :           음식 아주 맛있습니다. 여러 호점이 있던데 그 중 하나 들어갔는데도 맛있게 먹었어요!        },{39:2019-10-21 :           진주집하면 콩국수콩국수하면 진주집겉절이 챡 올려서 콩국수 후루룩 먹으면흐읍..........        },{40:2019-10-17 :           남자친구가 좋아하는 콩국수집저는 비빔국수먹었어여접시만두도밑반찬 겉절이와 김치도 맛있어여비빔국수는 약간 단편!유퀴즈에 나왔지만그전부터도 유명했던 이곳은근 몇안되는 여의도 맛집        },{41:2019-10-16 :           규모가 엄청나거 사람이 많은데도 웨이팅 없이 들어가 먹을 수 있었네요~이곳의 특징은 맛이 셉니다~! 자극적인 맛은 아니어도 양념이 뭐든 듬뿍듬뿍 들어간 아끼지 않는 맛이에요 ㅋㅋ콩국수가 생각보다 걸쭉하더라구요. 딱 제 스탈입니다^^김치가 맛있다고 소문 났던데 콩국수를 위한 김치인듯 합니다.아무래도 겉절이는 좀 짜니 비빔국수까지 먹을땐 조심해야 하겠더라구요. 그런데 만두가 공산품을 쓰시는건지 수제만두는 아닌듯 보이고 분식집에서 파는 만두맛이 났는데 국수가 모두 간편식이다 보니 조합이 나쁘지 않았어요 ㅋ 후추맛 강한 만두..집만 가까우면 자주 갈텐데 아쉽네요.},{42:2019-10-08 :           강렬한 msg 맛ㅋ그래도 맛있다.        },{43:2019-09-28 :           콩국수가 먹고싶을때 가는곳 줄서서 먹는곳 줄은 빨리줄긴해요 찐한국물에 호불호가 나뉨        },{44:2019-09-24 :           인생 콩국수이긴 하나 비빔이 더 맛있음        },{45:2019-09-20 :           여름마다 방문하는 콩국수 맛집!원래 콩국수를 좋아하지 않았는데 진주집 다녀오고 콩국수의 맛을 알게되었어요&lt;U+263A&gt;&lt;U+FE0F&gt; 진한 콩국물에 쫄깃한 면이 들어가서 맛있어요! 같이 나오는 김치와 무말랭이 양념도 최고&lt;U+2728&gt;        },{46:2019-09-18 :           고소한 아몬드 맛이 난다. 취향 탈듯? 김치도 괜찮고        },{47:2019-09-18 :           부모님들이 좋아하셔서 종종 포장해가다 직접가서도먹었는데 여전히 맛있네요.         },{48:2019-09-11 :           콩국물이 어마무시하게 진하고 맛있음. 국물이 스프같아서 한사발 마시면 정말 든든함. 한가지 단점은 면 먹는 속도가 느린 사람들은 면이 양이 많은건지 쉽게 불어터지는지 모르겠지만 먹어도먹어도 줄지않아 중도 포기하게 됨.ㅋㅋ 만두피는 딱 중간 두께고 다진고기 질이 좋은편.        },{49:2019-09-07 :           진정 콩국수 맛집입니다 ㅋㅋ광화문의 진주회관?과 형제집이라고 하는데 제가 보기엔 여기가 훨씬 나아요..ㅋㅋ특히 곁들여먹는 김치가 예술입니다단점이라면 가격을 계속올리고 있지만.. 그래도 제가 가본 콩국수집중엔 최고인듯요가끔 생각나는 집이에요        },{50:2019-09-06 :           닭칽국수와 콩국수와 만두를 주문했습니다.닭칼국수의 경우 진한 육수맛과 칼칼함?이 가미된시원한 맛이었습니다.면발도 입에 착 달라 붙고 무엇보다 질리지 않는 맛이었습니다.콩국수의 경우 고소한맛과 약간의 짭조름한 맛이 가미된기본에 충실한 콩국수였습니다.콩국수를 그중독 좋아하지 않는 저도 한입 먹고 또 먹고 싶은 생각이 드는 중독성 있는 맛입니다.만두의 경우 이 식당에 Best of Best 라는 생각이 드는 음식입니다. 메인음식 만큼이나 맛있고 이 식당이 오면 꼭 한 접시는 시켜서 드시길 적극 추천합니다.밑반찬으로 제공된 김치와 겉절이도 신선하고 맵지않게 음식과 곁들여 먹기 좋은 반찬이었습니다.},{51:2019-08-30 :           제발 머리카락좀 어떻게 했으면연속으로 두번 머리카락 나왔어요처음엔 그냥 새걸로 교환해줬는데 이미 다먹어서 배불렀고..두번째 말하니 그땐 가격 빼주더라고요 밥맛 뚝떨종업원들은 자주있는일인지 앗 또나왔네 이런 느낌으로 숙덕이더라구요 계산대 사장에게 왤케 머리카락 많이나오냐 제조과정문제로 보인다 하니 그럴리 없다며 부인해요. 콩국물은 여러단계의 정밀한 과정을 거친다며.  외부에서 납품할때인거같다고 핑계를.근데 진짜로 2연속 제거에 머리카락 나왔어요제가 잘 발견하는 편이니 나머지 그냥 드신 분들도 있을듯        },{52:2019-08-28 :           콩국수로 유명해서 일부러 평일에 쉬는 날3시쯤 애매한 시간에 갔는데 그때도 사람이 바글바글!다행히 웨이팅은 안했구 음식은 나름 빠르게 나오는 편인것같아요원래 콩국수를 좋아하는데 콩의 비릿함이 심하면잘 못먹는데 비린내가 좀 났구요ㅠㅠ고명이 하나도 없어서 조금 실망했어용맛있던건 비빔국수!매콤달달하니 야채고명이랑 맛있게 먹었어요좀 더 추워지면 닭칼국수먹으러 갈고에요        },{53:2019-08-25 :           소문난 콩국수 맛집.줄이 엄청 길게 서 있었는데 회전율이 좋다. 금방금방 빠짐.나는 콩국수를 별로 좋아하지 않아서 비빔국수를 시켰는데 그냥저냥 먹을 만 했다. 세상에 이런 맛이!! 정도는 아님.같이간 사람은 콩국수를 좋아해서 콩국수를 시켰는데이마저 그냥저냥이라고 했다.구수한 콩국수 보다는 조금 간이 되어있는 콩국수를 좋아하는 사람이라 그런 듯.반찬으로 나온 김치는 진짜 맛있었다.밥 값과 별개로 주차권은 별도로 500원을 주고 사야한다.  밥 값과 함께 결재는 안되고 현금으로 계산해야 함.다시 갈 것 같지는 않다.        },{54:2019-08-13 :           칼국수 비빔국수 접시만두 9000원 콩국수 11000원콩국수는 비리지 않고 고소하다. 정말 콩 육수랑 면만 들었다칼국수는 만두랑 약간의 김치 대파 등등의 야채가 올라간다콩국수를 좋아하는 사람이라면 꼭 콩국수를 먹어봐야할 맛집이지만 나는 콩국수를 그닥 즐기지 않는 사람이라 칼국수가 더 맛있었다. 그렇지만 가장 맛있는 건 김치. 한번 더 리필해서 먹었다! 보쌈김치 꿀맛음식 빨리 나오고 우리가 자리에서 일어나자마자 테이블 정리하셨다. 회전율이 왕 빠르다        },{55:2019-08-13 :           **확실히 맛있는 면을 먹으려면 진주집으로! 여의도 근처 직장인이라 자주 들리는 진주집메뉴는 몇개 없지만 맛은 다 확실하다그날 땡기는 메뉴만 선택하면됨여름에는 줄이 어마어마하지만 회전률이 좋기 때문에 맥시멈 30분정도면 먹을 수 있다. 단순히 한끼를 위해서 기다리기엔 힘들 수 있으나 점심메뉴로 힐링을 꾀하는 직장인이라면 견딜만하다. 면을 사랑하시는 분들 가보시길 :)         },{56:2019-08-10 :           아직까지 제 마음속 1위 콩국수 집입니다.다만 성수기 때에는 가지 않는 걸 추천드려요^^;        },{57:2019-08-09 :           너어무 바쁘지만 그래두 여름맞이 콩국수는 먹고 싶어서 여의도까지 가봤어요! 콩국수 국물 증말 진하구 고소해서 멀리 간 보람 있더라구요맛있는 두유를 엄청 농축시킨 맛이었어요!! 사실 당연히 자극적이진 않아서 비빔국수에 밀리는 맛이긴 했지만 달달하고 약간은 자극적인 비빔국수랑 번갈아서 먹으면 궁합 좋은 것 같아요! 그리구 김치...에 있는 무말랭이!!가 콩국수랑 같이 먹었을 때 너무 맛있었어요 배추보다 무가 훠얼씬 존맛        },{58:2019-08-01 :           언제가도 오래 기다리니까...콩국수 잘 모르지만지인들은 맛있는거라고 하더라!!여름에는 진짜 대기는 무조건 필수....ㅎㅎ사장님 부럽슴니다.        },{59:2019-07-30 :           시끄러운 매미 소리가 여름을 알리는 소리라면 시원한 콩국수 한그릇은 여름을 알리는 맛이라고 본다. 여름이 왔으니 어김없이 콩국수를 맛보러 왔다. 노란빛의 콩 국물이 인상적이다. 식탁에 설탕이나 소금은 보이지 않던데 따로 간을 하지 않아도 충분히 좋았다. 되직하고 진한 국물은 마치 까르보나라 크림과도 같았다. 걸쭉한 국물의 식감은 굉장히 좋았는데 내 입맛에 콩 맛이 조금 부족하다고 느껴지긴 했다. 대신 콩비린내는 찾아볼 수 없었으니 진하면서도 깔끔한 콩국수인 것 같다. 콩국수도 좋았는데 김치가 와따다. 보쌈김치 같은 김치가 무말랭이와 함께 나오는데 사실 나는 콩국수보다 김치가 더 맛있었다. 달달하면서 너무 무르지 않은 식감도 좋았다. 고명 하나 없는 콩국수라도 이 김치와 함께 먹다보면 어느새 빈 그릇 싹싹 긁게 된다. 근본있는 맛집답게 열시부터 문을 열어서 두번째 점심 먹기에도 부담이 없는 것도 좋다.        },{60:2019-07-30 :           - 엄마가 야식으로 비빔국수 해줬는데 진짜 겁나 맛있게 비벼진 그날 같은 맛- 콩국수로 유명한집이지만 비빔국수 택함- 사실 친숙한 비빔국수 맛이었고 새콤달콤해서 간이 있는 편이라 간 싫어하는 사람에겐 맛이 강할 수 있음- 그치만 한여름에 입맛을 확 돋우는 맛- 게다가 면발도 밀가루로 만든 소면같은데 뭔가 쫄면같은 탱탱함이 있음 최고- 사실 나는 국수가 끈적한 식감인것이 별로라 콩국수 자체를 별로 안 좋아하지만 이집 국물은 인정 걸쭉한 냉국처럼 계속 퍼먹게됨- 만두는 뭐 걍 맛있는 만두(살짝퍼져서 아쉬움)- 가족피셜에 따르면 매해 가격이 올라가고 있다고 함$_$- 결론: 우리집 식구들이 좋아하는 집이고 가깝기때문에 사람없는 시간 눈치게임에 성공하여 또 오겠다!         },{61:2019-07-30 :           그 유명하다는 진주집.콩국수를 그렇게 좋아하지 않지만 너무 궁금해서 굳이 주문. 절묘하다는 느낌을 받았다. 콩국수의 이데아라는 다른 리뷰의 표현이 그렇게 와닿을 수가. 텁텁하지도 밍밍하지도 않은 적절한 밀도에 딱 맞는 면의 탱탱함이 어디에도 흠잡을 데 없는 수준. 닭칼국수도 맛있다고 한다.문제는 이 콩국수를 위해 1.1만원의 비용과 여의도까지 방문하여 어마어마한 웨이팅을 지불할 것인데 이건 스스로 생각해보도록 하자.        },{62:2019-07-28 :           여의도역에 위치한 콩국수집 \"진주집\". 서울 3대 콩국수집으로 꼽힐 정도로 유명한 곳이지요. 유키즈온더블락에 나온 거 보고 다녀옴!! 여름되면 콩국수부터 생각나는 거 보면 진짜 나이를 먹었구나 싶네요.. 추천 : )'콩국수'. 크~ 크리미한 콩국물을 보자마자 이건 맛없을 수가 없구나!! 걸쭉해보이지만 막상 먹어보면 부드러운 콩국물은 진짜 최고ㅠㅠ 적당한 굵기의 면발도 아주 마음에 들어요ㅋㅋ 콩국수에 설탕을 넣어 먹냐/ 소금을 넣어먹냐 가지고 논쟁이 많던데.. 나의 선택은 아무것도 안 넣어먹..ㅋㅋ 왜냐.. 여기 김치가 맛있기 때문이지!! 간이 상당한 김치여서 콩국수랑 잘 어울려요. '만두'. 여기 만두 마음에 든다ㅎㅎ 크기가 약간 애매하게 커서 입 안에 한 번에 넣기는 살짝 큰데 베어 먹기는 또 약간 작다ㅋㅋ 우겨우겨 한 입에 넣고 먹으니 뭔가 풍성한 느낌이 좋았다ㅋㅋ  분위기는 보통ㅋㅋ 상가 지하에 있는 콩국수 집이니까요ㅋㅋ 주말 점심에 가니 웨이팅이 정말 엄청 길었는데 회전이 빨라서인지 줄이 또 금방 빠져요ㅋㅋ 겁먹지말고 기다려보시길!!ㅋㅋ        },{63:2019-07-26 :           평일 오후 2시쯤가니 웨이팅 거의 없이 들어갔어요! 조금 비싼 가격이지만 국물이 진하도 걸죽하답니다. 콩국물 맛을 느껴보면 된장? 메주? 맛이 살짝 느껴지는 듯 해요. 그리고 비빔국수도 또한 맛있고 김치는 방금 김장한 듯한 맛이었어요 :-)        },{64:2019-07-22 :           개인적으로 좋아하는 음식 중 하나지만 은근 맛있는집은 많지 않아 아쉬운 콩국수 벼르고 벼르다 드디어 방문한 진주집 종종 가는 곳이 상당한 맛집인 맛자랑인데 그곳과는 다른 스타일로 굉장히 맛있게 먹었다국물이 굉장히 꾸덕 진하면서 맛깔나는 간이 아주 인상적이다  국물도 김치도 첫맛은 생각보다 간이 상당히 세서 당황했는데 먹다보니 둘의 밸러스가 의외로 꿀조합..! 김치는 조미료? 맛이 좀 나는거 같긴 하지만 밥이나 칼국수 먹을때 아니면 김치 많이 안먹는데 둘이 저 많은 김치 한그릇을 다 비울줄은...자주 올 수 있는 곳에 있으면 한달에 두번은 올거 같은 내취향 국수집        },{65:2019-07-22 :           여름이 기다려지는 이유 꾸덕한 콩국수! 너어무 유명한 진주집 여의도 직장인들 쉬는 주말에 가면 사람이 없답니다 ㅎㅎ 오늘은 월요일이지만 저녁에 갔어요. 지난번 방문때보다 면이 쭬깃하게 잘 삶겼고 국물이 진짜 부드럽고 꾸덕해서 아 역시 진주집이다 싶은 콩국수. 비빔국수 드시는 분들도 많은데 진짜 안맵구 단짠의 맛있는 비빔국수에요. 안에들은 오이랑 무생채도 케미가 좋구요. 여기 콩국수가 양이많아두 계속 다 긁어먹게 되는 이유는 진짜 너무 맛있는 배추김치와 꼬들꼬들한 무말랭이입니다 ㅠㅠㅠㅠ 짜도 계속 먹게되어요 접시만두는 특별한 맛은 아니지만 없으면 아쉬운 그런맛 ㅎㅎ 한가지아쉬운건 정말 유명세 때문인건지 다른 콩국수 집들 비해 콩국수 값이 11000원으로 너무 비싸다는점^^ 여름에 한 두번 특별히 먹는 음식이니 기꺼이 지불은 하지만 조금만 더 합리적이면 좋을 것 같아요! 괜찮다인 이유는 맛있지만 가격때문입니다~~ 만천원이면 당근 맛있어야죠         },{66:2019-07-12 :           가격이 너무 비쌈 콩국수 11000원 비빔국수 9000????? 얼마나 맛있길래 이 가격인가 했는데비빔국수는 너무 달았고 찬으로 나온 김치는 더 달아서 내가 디저트를 먹고 있나 착각함 콩국수는 맛있긴했는데 11000원이면 맛있는게당연^^절대 안감        },{67:2019-07-08 :           여의도 직장인 중에 여기 모르는 분 있나요? 모르시면 이번 여름에는 꼭 가세요. 두번 가세요.점심시간이면 여기 대기줄이 여백 지하1층을 한바퀴 돈다는 존맛 콩국수집입니다. 진주집 콩국수는 콩국수? 맹맹해서 별로야~ 라고 생각했던 저의 생각을 180도 바꿔주었습니다... 대기시간이 길어서 한시간 컷이 어려워서 자주 못가지만 그것만 아니었음 여름에 출근도장 찍었을듯요..사진에서부터 느껴지듯이 콩국이 매우 꾸덕하지만 전혀 느끼하거나 콩비린내가 느껴지지 않아요. 그냥 고소하기만 할 뿐... 맨 콩국수 맛을 즐기다 배가 적당히 불러오면 꼬독하면서 알맞게 매콤달콤한 무말랭이를 곁들여 먹으면 위장이 리셋되고요~여기는 닭칼국수도 맛있으니 겨울에는 닭칼국수에 김치 올려서 먹으면 끝장납니다 끝장나요~~ 재방문의사o        },{68:2019-07-08 :           인생 콩국수를 맛보다..!콩국수를 좋아해서 여기저기 많이 먹으러 다닌 것 같은데 역시 맛집은 다른가 봅니다.진하고 부드러운 콩국물이 일품&lt;U+2764&gt;함께 시킨 만두도 별 기대 없었는데너무 맛있는 것..&lt;U+2764&gt;다만 콩국수 먹을 때마다 느끼는 거지만안 그래도 콩 국물이 진해서 배부른데면이 너무 많아서 남기고 온 게 너무 아까웠어요ㅜㅜ        },{69:2019-07-06 :           토요일 11:20 도착. 앞에 두팀 줄서있어서 금방 들어감. 콩국수비빔국수 시킴. 3분내로 나옴. 아침도 안먹고 간터라 배고픈 상태였음. 사진도 못찍고 바로 먹음. 근데 맛이..??? 콩국수가 고소하거나 진한느낌이 그렇게 들지않았고 비빔국수는 MSG맛이 강해서 반정도만 먹다가 못먹음. 콩국수는 가격대비 아쉽고 비빔국수는 아쉽고 또 아쉬움. 주차권도 500원주고 사서 나옴. 나왔는데 줄이 엄청 길게... 저정도로 줄서서 먹었으면 억울했을것같음... 근처에 와도 오지않을것같음.        },{70:2019-06-26 :           남편이 여의도에서 일할때지하에서부터 건물 밖을 빙둘러 줄서서 먹는 집이라며자긴 콩국수 안먹는데 여기꺼는 먹는다며여름이라 덥고 콩국수가 먹고싶어 갔어요.11시 조금 넘어 도착했는데.. 이미 줄이 ㄷ자 모양그래도 넓어서 금방 빠져요.콩 국물은 굉장히 부드럽고 크리미한 느낌까지 들어요은근히 면발이 맛있는데 꽤나 쫄깃하고요.같이 나오는 김치와 무채가 맛있네요만두랑 비빔국수도 먹었는데만두가 완전 쬘깃쬘깃하면서 내용물이 아주 옹골차요.간도 적당하고 만두도 맛있었어요.넥타이 부대에 둘러싸여 공장 분위기긴 하지만깨끗하고 맛있어요.좀 시끄럽긴 합니다        },{71:2019-06-22 :           광화문의 진주회관이라고 이름이 비슷한 집이 있다. 여기랑 이름이 비슷한 집인데 콩국수 맛도 참 비슷하다.사장님끼리 형제란 말도 있는데 사실인지는 모르겠다.두 곳 다 진한 국물과 비싼 가격 많은 사람이 특징이다.다만 김치에서 좀 차이가 있는데 개인적으로는 여의도 진주집 김치가 취향에 맞는다.콩국수 가격이 11000원이라 결코 싸다고는 할 수 없지만 양도 많고 맛이 좋아서 '창렬'하다는 생각이 들지는 않는다.        },{72:2019-06-11 :           콩국수 국물이 이렇게 부드러울 수가 있다니.        },{73:2019-05-18 :           맛있어요.비빔국수 양이 곱빼기에요냉콩국수가 11000원나머지는 9000원이에요        },{74:2019-05-01 :           별로이자 괜찮다이자 맛있다..이렇게나 애매한 집은 처음토요일 한 시 쯤 웨이팅 거의 없이 착석콩국수 마니아로서 기대하고 갔는데 콩국수 엄청믱믱해여. 누군가는 그 ‘슴슴’ 한 맛에 먹는다 할 수 있겠지만 ..개인차니까여 콩은 정말 곱다? 입자가 곱다? 는 느낌이 있었는데 맛은 뭐 쏘쏘만두 쫀맛그리고 이 모든 걸 김치(에 잇는 무채(?))가 캐리        },{75:2019-05-01 :           0. 콩이란 무엇인가. 예로부터 이것만 먹으면 인생 망했다고 여기는 작물 아니던가. 1. 콩을 갈아넣겠다는 집념이 느껴지는 콩국수. 근데 콩이 그럴만한 가치가 있는 것일까. 과연 콩 함유량이 많다고 좋은 것일까. 2. 만두는 북한 느낌 나는거 같은데 그냥 남한 만두에요. 북한향 남한만두?3. 자를까요? 라고 요 자 끝나기도 전에 가위는 면을 잘라버렸습니다.         },{76:2019-03-30 :           겨울에 가서 콩국수가 없어서 닭칼국수 먹었었다 흑흑 괜찮았지만 내가 먹고싶은건 콩국수였다고......        },{77:2019-03-30 :           맛있긴 맛있었지만 개인적으로는 그냥 먹을만 하다...?근처에 갈 일이 있으면 다시 갈 수도 있겠지만구욷이 멀리서 찾아갈 맛은 아닌 것 같아요...ㅎ아 만두국은 엄청 맛있었어요!!육개장칼국수는 살짝 시큼(?)한 맛이 났던 것 같구...10점 만점에 한 7.5점 정도....?        },{78:2019-03-22 :           콩국수가 트레이드 마크입니다. 여자가 먹기에 양이 많았어요. 김치도 일품이에요. 평일 11:30쯤 갔더니 거의 비어있었습니다. 앉자마자 그 큰 공간이 회사원들로 가득 차더라구요.        },{79:2019-03-13 :           콩국수는 그냥 매년 여름에 한두번 먹는 정도인데 유명한 집의 맛은 어떨까 궁금해서 가본 진주집. 그래서 먹고 나서 궁금했다. 여기가 콩국수 맛집으로 꼽히는 이유가 뭘까? 진하긴한데 그렇다고 일반 콩국수는 비교도 안 될 정도로 고소하다던가 이런 점은 못 느끼겠다. 간이 심심한 탓인가 싶어 소금이나 설탕이 테이블에 있는지 둘러봤지만 없는걸 보니 그냥 먹는게 맞는거 같아서 김치를 곁들여 다 먹긴 했는데 지금 생각해도 차라리 소금이라도 따로 달라하는 게 나았을듯. 접시만두는 그냥 괜찮다 정도. 문제는 비싸다. 장사가 잘 돼서 올린 건지 여의도라는 위치의 특성 때문에 그런지 메뉴가 다 비싸다.  그래도 다행히 칼국수는 무척 맛있다. 차라리 첨부터 칼국수 맛집으로만 알고 갔다면 꽤 만족했을듯. 주변에 누군가가 진주집을 가본다 한다면.. 칼국수만 추천해야겠다.        },{80:2019-02-16 :           콩국수는 못 먹었지만 뜨듯한 떡만두국이 맛있었다.알찬 만두와 쫄깃한 떡 짜지 않은 국물이 좋았다.먹는 내내 떡의 쫄깃한 식감을 즐겼다.소소한 맛집이었다.        },{81:2019-02-05 :           여의도 콩국수는 진주집이지        },{82:2019-01-31 :           시장판 같음        },{83:2019-01-11 :           무조건 가는집. 말이 필요없다.        },{84:2018-12-02 :           주말 오후 애매한 시간에 갔는데도 꽉차있었어요. 웨이팅을 하긴했는데 회전율이 빨라 금방 들어갔어요. 콩국수는 찐하긴한데 약간 비릿하긴했어요. 옆테이블에선 닭칼국수를 드시던데 그게 더 맛있어 보였어요ㅋㅋㅋ... 담엔 닭칼국수로.. 만두피는 두껍지않고 속이 알차요. 다닥다닥 사람들과 붙어서 정신없이 먹어야했던건 좀 불편했어요        },{85:2018-12-01 :           콩국수 (10000) 이날씨에 콩국수를 먹는 사람도있습니다! 콩국수를 좋아하는 제가 그렇습니다!!진주회관과 진주집을 둘 다 다녀와서 생각해보니 진한 콩국물을 좋아하는 저는 진주회관(시청역)이 더 제 취향이었습니다! 그런데 진주집의 김치는 맛있어서 못잊을거같아요.. 진주집 김치에 콩국수는 완전 환상궁합입니다... 친구랑 김치 리필 받아서 더 먹었어요..&lt;U+2763&gt;&lt;U+FE0F&gt;        },{86:2018-11-11 :           토요일아침이라 웨이팅이 엄청났지만 생각보다 줄이 금방 줄어든다. 콩국수 비빔국수 닭칼국수 접시만두 하나씩 먹어봤는데 콩국수가 진하고 맛있고 비빔 닭칼국수는 맛있긴한데 무난함. 만두도 너무 맛있음        },{87:2018-10-30 :           훌-륭 콩국수가 10000원에 육박해서 좀 비싸지만 맛있습니다.매년 가격이 오르긴 하는데 콩국수 특유의 콩비린내가 많이없고 꾸덕함이 아주 적절해서 후루룩넘어갑니다같이나오는 김치도 달짝지근해서 콩국수랑 같이먹으면 좋아요사장님이 미국 mba 다녀와서 진주집 회전율을 극대화시켰다는 소문이 있습니다        },{88:2018-10-14 :           콩국수에 콩국물이 엄청 진하고 달다. 묽은콩국 정말 싫어하는데 진주집꺼는 후루룩뚞딲 해치움!!!        },{89:2018-10-08 :           식사 때면 사람으로 바글바글한 집.근데 맛집으로 동의 못하지 못하는 이유는트릭으로 장난질을 치기 때문이다.유명한 콩국수를 먹으면 본연의 맛이 아니라땅콩 맛이 강하게 올라온다.이건 콩국수가 아니라 숫제 땅콩국수라 불러야 한다.혹시나 잘못 먹었나 싶어 두번째 가보기도 했지만역시 판단이 틀리지 않았다.비빔국수는 그냥 달디 달다.고추장 베이스라 입안에 도는 여운이 텁텁하다.음식 퀄리티로 보면 동네 흔한 국수집 수준인데가격은 기대 수준 이상이다.땅콩국수의 유분 때문인지 설탕범벅 비빔국수 때문인지먹고 나서 속이 가히 좋지 못했다.        },{90:2018-09-21 :           값이 싸진않잖아요~남편이랑 아까워서 먹었어요~좀 특별한 맛을 기대하시진 마시길!!저희신랑은 콩국수에 팥넣은 느낌이라고해요.고소한맛도 전혀없고.. 닭칼국수도 실망입니다.        },{91:2018-09-18 :           비빔 좋네        },{92:2018-09-16 :           맛있다        },{93:2018-09-10 :           저 콩국수 못먹어요. 하는 과장님이 마지막 국물까지 숟가락을 놓지 못하며 맛있다고 하셨다. 비빔국수는 조금 단 편인데 다른 사람이 시킨 콩국수나 칼국수를 나눠먹으면 조화롭게 먹을 수 있다.         },{94:2018-09-02 :           진하기가 생각보다 조금은 묽은 콩국수. 무말랭이 김치와 따로 접시만두을 시켜 곁들어 먹으니 조합이 좋아요. 다만 개인적으로는 진주회관의 전분면발이 아닌 평범한 국수 맛이 아쉽습니다.        },{95:2018-09-01 :           주차비 오백원을 현금으로 따로 받는데..  좀 놀랐고 콩국수는..        },{96:2018-08-25 :           김치 아삭아삭 완젼 점성쩌는 고소하고 보드라운 콩국물 .. 정말깨끗하게 먹고옴 가족생각나게하는맛 .. 담에 가족이랑 재방문예정        },{97:2018-08-22 :           줄이 어마어마. 그시간의 가성비의 맛인줄은 모르겠으나 별미        },{98:2018-08-21 :           &lt;U+2B50&gt;&lt;U+FE0F&gt;&lt;U+2B50&gt;&lt;U+FE0F&gt;&lt;U+2B50&gt;&lt;U+FE0F&gt;&lt;U+2B50&gt;&lt;U+FE0F&gt; (4/5)닭칼국수8000비빔국수 8000냉콩국수 10000접시만두 8000가게가 굉장히 넓어서 웨이팅걱정은 없을 것 같다(는 아니란다). 닭칼국수 시켰는데 깔끔하게 맛있다!! 다음엔 냉콩국수를 먹어보고싶당 다음에 또오고싶다 추천추천        },{99:2018-08-19 :           소문난 콩국수 맛집! 이지만 콩국수를 별로 안좋아하는 이유로 닭칼국수를 시킴. 아니 근데 이게 웬걸... 콩국수 맛집이라는게 생각도 안 날 정도로 너무나 맛있어서순식간에 국물까지 흡입했습니다. 깔끔하고 담백한 육수에 쫄깃한 면발아삭하고 맛있는 김치까지 너무 좋았어요        },{100:2018-08-18 :           만두 빼고 국수 세가지 다 먹어봤는데 맛있었어요.그중에 제일은 콩국수랑 비빔국수!콩국수야 워낙 유명해서 두 말할 것 없이 진한 국물을 맛있게 즐겼는데 비빔국수가 의외로 꼭 먹어봐야할 음식인 것 같아요.소스가 말그대로 새콤달콤한게 콩국수를 잠시 잊을 정도로 먹었고 지금도 솔직히 비빔국수 먹으러 다시 가고싶어요ㅋㅋㅋ그런데 아쉬운건 부모님 모시고 가서 시켰을땐 비빔국수가 좀 짜게 조리돼서 부모님은 맛있게 못즐겼다는 점이에요. ㅠㅠ 제가 거의 끌고가다시피 해서 갔는데 좀 머쓱했네요.그리고 가격도 계속 오르고 있으니 언젠간 비합리적이다 싶어 못갈 수도 있을 것 같아요.        },{101:2018-08-04 :           진주집 콩국수는 진리예요.콩 비린내 안 나고 묽지 않고.맛만큼은 베스트.괜찮다인 이유는 오이 알러지 때문에 비빔국수의 오이를 빼달라고 하니 개인적인 주문은 안된다고 하셨어요. ㅠ토핑으로 올려지기만 하는 정도이니 걷어서 먹으라고 하셨는데버무려진 수준이라 도저히 못 먹겠더라구요.서너젓가락 먹다 안되겠어서 나머진 남겼습니다.그리고 주문을 깜빡하셨어요....20분이 지나도 안 나오길래 주문 들어갔다고 하더니 그 뒤로도 늦게 들어온 팀 먼저 나가더라구요...재차 확인하니 콩국수 1 비빔국수 1 이었는데 콩국수 둘이냐며처음 여쭤봤을 때라도 오더 확인 제대로 해주셨으면 좋았을 텐데....오이야 개인 특성이니 그렇다쳐도 주문 누락 됐을 때 응대가 특히 아쉬웠네요. ㅠ_ㅠ        },{102:2018-08-02 :           콩국수 맛집! 하면 항상 진주집은 랭크되는 듯. 여의도백화점 지하에 위치해있고 좌석이 점포 두 곳에 나뉘어있을 정도로 많다. 그만큼 인기가 많다는 뜻!콩국수와 비빔국수 주문. 잘라드릴까요 하셔서 네! 했더니 네 등분 해주심. 콩국수는 하얗디 하얀 비주얼부터 맛까지 심플함이 최고라는 걸 다시 한 번 실감. 콩물이 스프처럼 꾸덕하고 매우 고소하다. 김치는 굵은 무말랭이가 들어가 보쌈김치 같기도 갓 무친 겉절이 같기도. 달달한 편이라 콩국수와 좋은 궁합임!비빔국수는 예상보다 더 맛있었다! 잘 삶아져 쪼오올깃한 면발을 보다 더 느낄 수 있었던 메뉴. 과하게 새콤하지도 매콤하지도 않다. 밸런스가 완벽하게 맞춰져 있음. 오이와 무채도 넉넉히 들어가있어 좋다! 평일 식사시간 아닐 때 갔는데도 손님들로 문전성시. 재방문 할 땐 칼국수도 만두도 먹어봐야지!        },{103:2018-08-01 :           맛있다-!! 콩국수는 보통 먹다보면 맛이 단조로워서 물리는데 여기는 그런 것 없이 맛있게 먹었다. 김치가 맛이 좋은 이유도 있고 같이 시킨 비빔국수가 맛이 좋은 이유도 있다.  다시 또 생각날 듯한 맛이다. 비빔국수랑 같이 나오는 국물이 맛이 좀 별로인데 무슨 상관일까 메인 요리랑 김치가 이렇게 맛있는데. 왜 줄을 서서 먹는지 충분히 납득이 간다.         },{104:2018-07-30 :           콩국수 귀신인 내가 드디어 와본 진주집. 고소하고 깊은 맛이  인상 깊었다. 면도 쫄깃하고 양도 풍성. 일반 콩국수에 비해 가격이 좀 있지만 아깝지 않았다. 비빔국수도 자극적이지 않았으며 만두도 먹을만 하다. 식사시간대를 피해가면 웨이팅도 없어서 바로 먹을 수 있다.        },{105:2018-07-29 :           이제는 콩국수 만원김치 맛있다콩국수 간이 덜 된것 같이 밍밍했는데 김치가 답이었어 김치 김치 김치만 더 먹고 싶다콩국수는 패스하고 김치만 더 먹고 싶다재방문의사는 닭칼국수 그거 먹으러 간김에 김치 먹고 싶다.         },{106:2018-07-22 :           비빔에 콩국수랑 접시하나!! 둘이가서 완벽한 콤비네이션으로 시켜서 너무 잘먹고왔어요.콩국수의 부드러움과 보쌈김치의 오독한 식감이 너무 잘어울림.웨이팅 줄은 길지만 회전률이 빨라서 10분이면 들어감여름엔 꼭 가야할 맛집        },{107:2018-07-22 :           콩국수 구성은 의외로 심심하다  지인한 콩국물에 국수면이 담겨있는데 콩국물의 농도가 가히 압도적이다같이 나오는 김치도 대박이다.평일 점심때 갔는데 줄은 길지만 가게가 넓어서 금방 빠지는 편.        },{108:2018-07-16 :            날씨도 덥고 유명세에 콩국수 먹으러 왔는데 줄 선 사람들이 어마어마했다. 어림잡아봐도 80명 정도? 그래도 회전율은 빨라서 30분 정도 기다리고 들어갔음. 앉기도 전에 바로 주문한 탓인지 앉아서 물한잔 하고 식기세팅하고 나니 만두가 먼저 나오고 그리고 3분 정도 만에 음식이 나옴. 주문이 끊임없이 비슷한 메뉴가 들어오니깐 그냥 계속 만들어서 빨리 나오는듯.. 암튼 우선 접시 만두.. 여느 냉동만두랑 크게 다를바는 없이 맛은 무난했으나 처음에 두개 먹고 나머지 콩국수 먹고 먹으려니 그새 선풍이 바람에 식어서 피가 딱딱해짐 ㅠ 그리고 콩국수.. 하도 사람들이 맛있다고 찬양하길래 기대했는데 보쌈김치같은 김칫소에 무말랭이는 좋았지만 콩국수는.. 콩비린맛만 안날뿐 콩국수 고유의 고소한 맛이 거의 느껴지지 않았다.. 다른 식당 7천원 짜리도 더 맛있는데 많은데 좀 아쉽다 ㅠ 비빔국수는 첫 한입은 오 새콤하고 맛있다였는데 먹을수록 양념이 많아져서 그럴까 짜서 다 못먹음.. 이건 양념양 배합만 잘되면 맛있게 한그릇 다 먹을 수 있을듯 하다        },{109:2018-07-14 :           국물도 진하고 함께 나오는 김치도 맛있고 ㅠㅠㅠㅠ 진짜 맛있어서 언제든 다시 가고싶은 집        },{110:2018-07-13 :           와 그간 내가 먹은 콩국수는 뭐였나...평소에 콩국수 즐겨먹지 않지만 이건 아주 맛있게 먹었다. 소금간도 없이 후루룩 먹어 치움.걸쭉한 콩국에 쫄깃한 면발. 그리고 하이라이트는 김치!색감에서 추정되는 바로 그 맛인데 아삭하고 신선하다. 무 말랭이(?)도 함께 있어서 정말 맛있게 먹었음! 만두는 쏘쏘.장사가 잘되어 두 점포를 터서 쓰시는 듯.듣기로 닭칼국수와 비빔면도 맛있다던데 담에 먹어봐야겠다. 추천!        },{111:2018-07-07 :           여름에는 콩국수! 겨울에는 칼국수!        },{112:2018-07-07 :           굵은 면을 싫어하는 사람으로서 중면을 쓴 콩국수가 너무 무거웠다. 사실대로 말하자면 체했다. 콩국물이 아주아주 진해서 더욱 무겁다.콩만 갈아서 이정도로 진하고 무거운 국물이 만들어질 수 있는지 놀랍다. 면만 좀 가볍게 소면을 썼으면 좋았을 것을.        },{113:2018-07-06 :           콩국수는 당연하고 비빔국수도 맛있어요!점심에 줄도 체계저??으로 세워주심        },{114:2018-07-01 :           김치가 다하는 집콩국물 얼음없이 진득한건 맘에들지만생각한것만큼 고소한 느낌은 못받음..진짜 콩물은 다 이런가?어디서 보니 이미 간이 되서 나온다고했는데그것도 잘 모르겠음다만 김치가.. 김치가 무말랭이 느낌의 달달한 김치라서 이거랑 먹으면 꿀떡꿀떡 잘넘어감김치덕에 먹은 콩국수 ㅋㅋㅋㅋ닭칼국수는 쏘쏘함옆에 따로있는 고추장아찌? 같은거에 먹으면 좋음        },{115:2018-07-01 :           여의도 맛집이라해서 예전(10여년전 여의도 근무시절) 다녀오고 다시 어제 다녀온 집.. 많은 콩국수집을 다녀 봤고 다양하게 먹어 봤는데 여기는 난리 칠 만큼의 맛은 아닌 듯..콩국물: 다른 곳에 비하여 조금 진하고 구수하다.국수: 다른 잘 한다는 콩국수 집과 비슷하다..가겨은 너무 비싸다 11000원.. 가성비는 아니라고 생각한다..단 여기 김치가 이 집을 유명하게 만든 듯하다.. 보쌈 김치같은 맛.. 그러나 배추는 그저 그렇지만 속재료(무 양념) 은 진짜 맛있다..이 집 배추 속이 이집의 대표인 듯...진주집 가게되면 무 속재료만 막어보기 바람..        },{116:2018-06-30 :           콩비린네 없이 고소하게 먹을 수 있어서 좋았어요. 함께 나오는 김치도 달큰한게 콩국수와 잘 어울립니다.         },{117:2018-06-30 :           여름이 왔다는 증거인 지 부쩍 사람이 많은 진주집. 진주회관 가고 3일 뒤에 방문! 진주회관의 콩국수와 비교하면 땅콩맛이 덜 나고 면이 조금 더 얇으며 국물이 더 묽다. 김치가 달달한 편인데 콩국수랑 잘 어울린다. 여기는 여러명이 가면 꼭 만두를 시켜야 할 거 같은 기분이 드는데 매번 시키지만 한 번도 우와 맛있다라고 생각한 적은 없다. 그냥 평범하고 피가 두꺼운 만두랄까! 콩국수만 시키기에 너무 심심할 거 같다 싶으면 주문하는 것도 나쁘지 않을 것 같다.내 입에는 진주회관이 더 맛있는 것 같지만 땅콩향을 싫어하는 사람에게는 진주집이 나을 거 같다.        },{118:2018-06-28 :           전메뉴 다 먹었어요!!콩국수 국물이 진해서 다는 개인적으로 너무 좋았는데호불호가 많이 갈리더라고요.. 같이간 동생과 어머니는 생각보다 뱔로라고.... 회전율아 좋아서 주문하자마자 3분만에 나오고 여기 보쌈김치가 ㄹㅇ 핵존맛탱!!!! 김치만 리필 세번해서 먹었어여 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ앗! 만두도 맛있오요닭칼국수는 비추랍니다 (찡긋)        },{119:2018-06-26 :           진짜 가성비 최고여의도 맛집 중 하나인 곳!!!!비빔국수+만두는 최고의 조합이다        },{120:2018-06-21 :           그리도 유명한 콩국수 맛집!! 밖에서 사먹는 콩국물은 너무연해서 여름되면 집에서 엄마가 한번씩은 꼭 만들어주시거든요~ 하도 맛집이다해서 비싼 가격에도 불구하고 줄서서 먹어봤어용 ㅎ맛은있어요! 특히 보쌈처럼 무채김치도있는데 궁합이 최고입니다!!ㅋㅋ 하지만 가격은 비싼감이 있긴해요~        },{121:2018-06-16 :           한줄평 : NASA가 사실이 아니더라도 이곳 콩국수는 우주최강!삼세번 도전 끝에 점심시간 피크타임에 진주집 입성 성공!! (지난 번에 혼밥하려고 갔더니 앞에 줄이 100명은 있는 것 같아서 포기...OTL)1974년부터니까 벌써 45년째 콩국수를 꾸준히 판매하고 있는 진주집. 시청 쪽 진주회관 이랑 친인척관계라고 알려져있다. 원래 콩국수는 위에 오이 같은 고명이 올라가는 법인데 여기는 면과 콩국물로만 승부한다. 콩은 강원도산 황태콩만 사용한다고 한다. 콩국물이 고운 이유는 NASA에서 사용하는 부품을 사용해 콩을 갈아서 입자가 고운 거라는 이야기가 있다(망플에서 후기 읽은듯!)진하고 곱게 갈린 콩국물이 매력적이다. 마치 미숫가루를 진하게 탄 것처럼 걸쭉한데 면에 착 감겨 입안으로 들어올 때 그 고소함은 먹어본 사람은 다 알거다.여기에 포인트가 되는게 매콤아삭한 배추겉절이. 적당히 매콤해서 자칫 지루할 수 있는 콩국수를 완벽하게 어시스트한다. 팍팍 뿌려진 MSG맛이 매력적이다...☆함께 판매하는 만두는 콩국수만큼 특별하지는 않지만 여럿이서 와서 같이 나눠먹기에 제격. 만두용 간장을 같이 서빙해주지만 개인적으로는 콩국수랑 같이 나오는 배추겉절이랑 먹는게 더 맛있다.결론은 콩국수 사랑합니다...♡ 자주 올게요♡        },{122:2018-06-13 :           콩국수 진하고 김치랑 비빔국수는 정말정말맛있음        },{123:2018-06-13 :           콩국수 먹고싶어서 갔는데 비빔국수랑 접시만두 그리고 보쌈김치에 반하고 왔어요!! 콩국수는 생각보다는 밍밍..? 하고 국물이 많이 없어서 아쉬웠지만 그래도 역시 맛있긴 해용!         },{124:2018-06-07 :           콩국수 킬러인 저에게 너무도 궁금했던 진주집 콩국수.되게 조그맣고 복작이는 곳일 줄 알았는데 지하 양 옆으로 이렇게나 큰 홀인지 몰랐어요.! 오픈때 오니 큰 웨이팅 없이 바로 먹었는데 3-40 분 지나니까 웨이팅이 점점 길어지더라구요콩국수는 조금 되직하고 입자가 정말 고와서 약간 차가운 콩스프 같은 느낌이었어요. 약간 노란빛이 돌면서 은은한 콩맛이 나서 고소하고 부담없이 먹을 수 있었어요. 이런 노란콩은 잘못하면 비린내도 심한데 전혀 그런게 없어서 좋았습니다. 조금은 밍밍하게 느낄 수 있다는 생각이 들었는데 함께 나오는 김치가 보쌈김치처럼 달짝지근해서 함께 먹으니 정말 잘 어울렸어요~!만두는 되게 양이 많더라구요 ㅎㅎ 양 좀 줄이고 가격도 낮추면 좀더 좋을텐데 하는 생각이 ..! 여튼 간간하고 만두도 맛있었습니다 :-)!        },{125:2018-06-04 :           이때까지 먹어본 콩국수중 가장 부드럽고 비린내가 정말 하나~~~도 안난다!!!국내산 좋은 콩 이상의 비결이 있을 것 같다.국수한그릇인데 정말 배부르고 영양가 듬뿍!!그리고 김치가 깜짝 놀랄정도로 맛있어서 수육을 팔아도좋겠다는 생각이 들었다.         },{126:2018-05-16 :           그릇을 싹싹 긁게 되는 맛있는 콩국수!또 먹고싶네요        },{127:2018-05-16 :           무김치가 압권!!!콩국수 원래 안좋아해서 몇년만에 처음 먹었어요콩국수가 유명하다 해서 왔는데 콩국물 한숟가락 먹고 육성으로 \"오오\"라고 했어요국물이 되고 고소해요! 설탕넣어먹는 느낌아니라 고소하고 진한 그 콩 순수의 짭조름하고 단맛이에요콩국수먹고 으음 이정도였는데 김치먹고 충격먹었어요 김치너무 맛있어요겉절이 같은 느낌인데 무슨 고기에서 느껴지는 고소하고 깊은 맛이 느껴져요콩국수만 먹으면 금방 질릴텐데 김치때문에 한 그릇 다먹을 수 있어요 진짜 김치 대존맛진주집 사장님 김치 사업 하셨으면 좋겠다        },{128:2018-05-15 :           원래 콩국수 별로 안좋아하는데 여긴 대체 왜 이렇게 맛있지..? 포슬한 면발에 꼬소하고 부드러운 국물... 정말 술술 빨려들어간다. 되직한 스타일이 아니고 좀더 스프 같은 느낌의 콩국물이 예술이다. 콩냄새가 비리거니 느끼하지 않고 정말 고소해서 잘 넘어간다. 얼마나 맛있냐하면 국수는 남겨도 국물은 다 먹을정도! 김치도 맛있어서 먹고나면 입이 참 깔끔해진다. 쌀쌀한 날 방문해서 닭칼국수와 육개장칼국수도 같이 주문했는데 역시 베스트는 콩국수였다. 그런데 칼국수도 맛있는게 함정. 비빔국수도 먹고 싶었는데 일행이 3명이어서 슬펐다. 얼른 또가고 싶다.        },{129:2018-05-10 :           아 ㅠ 먹어본 콩국수중에 제일 맛있었어요        },{130:2018-05-03 :           콩국수를 많이 다양하게 먹어본 건 아니지만 정말 진한 콩국수라는건 알수 있었다.김치도 맛있고. 여러번 갔다.        },{131:2018-05-01 :           완전 어이상실 주문하고 20분다되서야 재료없다고 나가라고함 화내니 그제서야 죄송하다고하고 조금도 미안해하지도 않고 당당하심 어이 상실 마지못해 그럼 이거라고 먹으라는식으로 말함 진짜 불친절함 유명하다고 이러는지 정말 황담함 시간만 버리고 어이없음        },{132:2018-04-29 :           맛있습니다. 안 가면 서운한 집 입니다.평범한 메뉴인데 다 맛있습니다        },{133:2018-04-20 :           전체적으로 특별나지 않고 담담하니 좋은 집고기만두 소가 꽉차서 좋았는데 꼬다리부분 피 뭉침은 아쉬움 간장도 그냥 파 송송 썰어준 평범한 집간장느낌물도 주전자에 주니 괜히 정겨움너무 배부른데 물주전자부터 음식의 분위기가 꼭 할머니가 차려준 밥상같아 남길수가 없어 입으로 꾸역꾸역 넣다가 체할 뻔 했다국물은 진득하긴한데 나는 더 우유같은 느낌 나는걸 좋아하는 편이고 집에선 거리가 꽤 있는 편이라 찾아올지는 모르겠지만 회사 근처에 이런집이 있다는건 축복이아닌가 하는 생각이다 그리고 김치는 정말 너무 맛있는데 맛이 굉장히 강해서 맛있다고 계속 집어먹다보니 어느새 콩국수 맛이 안느껴지더랬다... 흑 꼬소한 맛이 느껴지지 않는 슬픔..... ㅠㅠ육칼은 쏘쏘육개장 자체는 맛있는데 칼국수 면이 두껍고 그냥..조화로운 맛이 아니었음         },{134:2018-04-10 :           육개장칼국수랑 냉콩국수를 먹었다. 콩국수는 시청역의 진주회관처럼 역시 진하고 고소한 콩국에 면이 뭉텅 들어있다. 다만 다른 분 후기처럼 면이 약간 더 적은 듯 했다. 그렇지만 아무튼 맛있다!육개장 칼국수 역시 얼큰하니 건더기도 많고 아주 맛있었다! 양도 넉넉했다. 완전 만족!        },{135:2018-04-09 :           완전 공장형 콩국수집시키자마자 일분도 안되서 나오고 두개지점에 자리는 수백개콩국물은 국물이 아니라 스푸수준김치는 이렇게 맛있는 김치처음먹음콩국수랑 같이 먹으니 완전 궁합여의도백화점 바이브        },{136:2018-02-28 :           짜고 조미료 맛... 심지어 뜨겁지도 않게 나왔어요. 김치가 그나마 맛있는 편!        },{137:2018-01-25 :           맛나유 가격 괜춘        },{138:2017-12-11 :           닭칼국수 8천원. 닭고기 고명이 올라가있고 칼국수면은 두꺼운 편임. 처음엔 너무 밀가루 맛이 나서 면 거의 못먹었는데 지금은 적응돼서 먹음. 김치는 언제나처럼 달고 자극적이지만 자극적인 맛 좋아하는 아재들을 따라 종종 먹으러 옴.         },{139:2017-11-30 :           집이 판교만 아니었어도 season 2입니다... 인생콩국수예요ㅠ 양이 좀 많긴해도 진하고 고소하고 깔끔하고 짭짤하고 정말 혼자서 다하는 콩국수집입니다. 개인적으로 마늘맛이 강한걸 못먹고 겉절이도 별로 안좋아하지만 김치가 단짠의 진수이고 마늘이 그렇게 많이들어가진않아서 명동교자st 김치를 못먹는 저에겐 정말 절묘하게 괜찮았어요. 그리고 콩국수와 정말 환상의 궁합입니다. 또 가고 싶은데 너무 멀어요ㅠ 사람들이 살인적으로 많으니 식사시간대는 피해서 가시는걸 추천해요.        },{140:2017-11-29 :           닭칼국수 맛있다        },{141:2017-11-16 :           콩국수를 즐기지못한다 다른종류를먹었다감히 평가불가할거같다        },{142:2017-10-05 :           김치도 맛있고 뷰드러운 콩국수        },{143:2017-10-02 :           근 몇 년만에 먹은 진주집의 콩국수(95)여름동안 못 먹어서 아쉬웠는데 방문한 날이 충분히 더워서 딱 먹기 좋았어요.첫입 했을 땐 전보다 맹맹해졌나?싶었는데 또 먹다보면 역시 맛있다..싶어요ㅋㅋ 꾸</t>
+  </si>
+  <si>
+    <t>덕한 콩물이 두꺼운 면에 착착 달라붙어 면만 먹어도 맛있긴 하지만 면이 너무 많아서 차라리 면 양 줄이고 가격을 좀 낮추는 게 낫지 않을까란 생각이 늘 듭니다.(하지만 남김없이 싹싹 먹은 돼지1인)집에서 직접 만든 콩국수보다야 못 하겠지만 그래도 파는 콩국수 중에 이만한 퀄리티 자랑하는 데는 흔치 않다고 생각해요. 특히 함께 나오는 김치도 꿀맛ㅋㅋ내년 여름에 또 만나요 진주집!        },{144:2017-09-14 :           몇년만에 먹었던 인생콩국수♡내 인생에서 콩국수가 맛있다는걸 알게해준집김치랑 어울리는 이맛계속변치않길!        },{145:2017-09-07 :           항상 붐비고.. 가격은 너무 비싸지만..여기만한 콩국수는 먹어본 적이 없어요시청점보다도 여기가 제 입엔 더 맞아요닭칼국수도 의외로 맛있어요! 그런데 많은분들 칭찬하시는 비빔국수는 너무 별로였어요;;        },{146:2017-09-01 :           비빔국수도 정말 맛있지만 콩국수는 어마무시한 수준.        },{147:2017-08-22 :           개강추        },{148:2017-08-18 :           늘 줄을 서 있는 곳이라 콩국수를 좋아하지 않아도 어떤 맛인지 궁금해서 들어가본 곳. 다른 메뉴보다 콩국수를 시키길 권한다. 다른 메뉴는 특별한 차이가 없으나 콩국수는 그전에 먹어본 맛과 달리 고소하고 비리지도 않은 내공이 느껴지는 맛. 특히 질리기 쉬운 콩국수에 맛있는 김치가 신의 한수!! 콩국수를 안좋아하는 사람도 한번 쯤 생각 나게 하는 맛.         },{149:2017-08-08 :           아냐.. 이게 아니야... 이정도로 줄서서 먹을 콩국수는 아닌듯. 국수는 엄청 많은데 콩국은 너무 적어서 국물이랄 것도 없이 조림에 면 풀어넣은 듯한 맛임. 근데 이걸 9500원이나 받는다니 너무한 듯. 전체적으로 이집은 면을 너무 많이 줌. 또는 면만 많이 줌. 보쌈 김치는 맛있음..        },{150:2017-08-06 :           애써 찾아가면 후회할 수 있어요. 근처에 계신다면 먹어볼만 한데. 어차피 여의도에 계신분들이라면 다 경험해봤을 곳.         },{151:2017-08-05 :           너무너무 궁금했던 콩국수집. 방송등 여러군데에서 상당히 추천을 받았던터라 궁금했네요. 결론적으로는 너무 기대는 하지 말고 가세요. 냉콩국수(9.5)- 국물은 생각보다 걸쭉할정도는 아니었고 적당한 정도였어요. 콩을 갈았기때문에 살짝 콩비린내가 날수도 있는데 전혀 나지 않고 살짝 고소함만 맴도는 맛이었어요. 뭔가 더 '콩'-!을 느끼고 싶었는데 제 기대에는 살짝 못미치지 않았나 싶습니다. 면은 적당히 쫄깃탱글한듯해서 잘 먹었어요.개인적으로 다른 곳과 비교했을때 가격이 높은 편인데다 명성이 높은데 이제껏먹었던 곳들과 비교했을때 비슷하거나 높은 수준이 아니라고 생각이 들어서 아쉽네여ㅎ        },{152:2017-08-05 :           태어나서 이렇게 걸쭉하고 진한 콩국수는 처음 먹어봤다국물이 걸쭉걸쭉하게 넘어간다나랑 엄마는 단걸 좋아해서 설탕 두숟갈씩 넣고 먹어서 너무 맛있었는데아빠가 내꺼 먹어보더니 완전 왜케 다냐고 해서 아빠껑 먹어봤더니 움.. 내스타일은 아니었닼ㅋㅋㅋㅋ걍 맛있었던건 내 설탕 맛이었나보다아빠가 전라도 사람이라 아빠는 광주 콩국수가 더 맛있다고 했당젤 맛있었던거 김치!!!!식당에서 김치 아예 안먹는데 맛있어보여서 먹었는데 너무 맛있었당!!토요일 열시반인데도 사람들 와글와글..직장인들 평일 점심때는 줄을 선다고 한돠.....담엔 비빔국수나 닭칼국수 먹으러 또와보고 싶다!        },{153:2017-07-29 :           여의도에서 워낙 유명한 국수집이어서 여기서 회사 다닐때도 여름에 콩국수를 한번밖에 먹어보지 못했어요ㅠ.ㅠ 1년이 지나니 너무너무 자꾸자꾸 생각해서 30분 웨이팅 각오하고 다녀왔어요 :) 역시 콩국수는 정말 찐하고 고소하고 맛있습니다!! 김치도 약간 매콤 약간 자극적인게 건강한 콩국수와 잘 어울려요 만두도 나눠먹기 맛도 양도 괜찮구요. 전체적으로 군더더기 없고 콩국수는 진리고..! 개인적으로 서울에서는 여기랑 진주회관이 탑이 아닌가 생각합니다ㅎㅎ 사계진미는 청국장이 넘 맛있어서 콩국수 맛을 살짝 죽여버리더라구요 ㅎㅎ 여튼 평일 점심시간만 피하면 제일 좋겠는데 사실 그 시간에 먹어야 제일 맛있는 것 같아요&gt;&lt;        },{154:2017-07-19 :           진한 콩물에 정말 반했어요. 리뷰에서 보듯이 김치가 정말 진하더라구요. 칼국수도 칼칼하니 맛있었어요.!!!! 왜 맛집인지 알겠더라는~~        },{155:2017-07-16 :           옛날에 아빠가 포장해왔을때는 이맛이 아니었는데..역시 콩국수는 현장에서 먹어야 제맛이다. 웨이팅이 꽤 길었는데 워낙업장이 넓어 사람이 금방 빠진다. 으아. 콩국수 너무 맛있다.ㅠㅠ콩국수 좋아해서 많이 먹어본편인데 여긴 콩국수의 정석과도 같은곳이다. 보들보들 얊은 소면.되지도 묽지도 않은 딱 적당한국물. 적당한 양. 짜지도 싱겁지도 않은 간..모든게 콩국수의 이데아다 ㅋㅋ 흠잡을데가 없음. 달달한 김치랑 먹어도 참 맛있는데 국물이 변하는게 싫어 막판에는 콩국수만 먹었다. 만두도 칼국수도 파는데 역시 콩국수만하지 않다. 이걸 점심으로 먹는 여의도직장인 세상부럽..        },{156:2017-07-12 :           서울에서 먹을 수 있는 최고의 콩국수집. 진한 콩국에 입맛을 돋구는 김치가 일품이다. 비빔국수를 시켜서 쉐어하여 먹으면 더 좋다. 개인적으로 닭칼국수는 비린내가 약간 나서 선호하지 않음. 그리고 여름 평일 점심은 직장인이 몹시 많으니 피해서 가기!        },{157:2017-06-24 :           콩국수만 먹어봤는데 정말 맛있어요!마치 스프같은 콩국물의 식감과 고소한 맛까지!!같이 나오는 김치는 보쌈김치 비쥬얼인데 약간 달짝지근하지만 콩국수랑 잘어울리네요토요일에 가서인지 대기없이 바로 먹을수 있었어요다음엔 비빔국수도 먹어보고싶네요추천합니다!},{158:2017-06-13 :           인생콩국수 ㅋㅋ비빔국수도 내공이있는 맛이었고 보쌈김치도 환상만두는 국수에 비해 평범        },{159:2017-06-10 :           주변 식당 다 쉬는데 홀로 문전성시 돗데기 시장판 정신 하나도 없음 콩국이 진해서 면을 말아먹기 보다 비벼먹는 느낌 첫 한수저에 두유맛향 물씬 김치는 조미료맛 너무 쎘어 맛은 뭐 이만하면 맛있네 싶은데 넘 비싸        },{160:2017-06-10 :           좋아요        },{161:2017-06-09 :           여의도 콩국수 비빔국수 만두 맛집점심에도 가게를 한바퀴 돌 정도로 줄 서는 맛집이다.갈 때는 인원을 3배수에 맞추세요ㅋㅋㅋ콩국수 비빔국수 닭칼국수에 만두하나 시키면 딱 맞아요 군더더기 없는 콩국수 매콤달콤한 비빔국수에 깔끔한 닭칼국수까지 빠지는게 없고 곁들여먹는 김치가 크..b        },{162:2017-05-30 :           닭칼국수 먹고왔는데 맛있어요        },{163:2017-05-27 :           ㅜㅡㅜ 만두가 매우맛나네요 ㅎㅎ 간이잘맞음 (콩국수랑)        },{164:2017-05-23 :           국수맛집 여긴 평일에 먹는건 포기 주말에 가자가겯이 점점오름....        },{165:2017-04-29 :           와우 진주집 여름되면 한번이상은 방문해야하는전설의 콩국수~~집!!! 만두도 쩔탱이고 비빔국수도ㅠㅠㅠㅠ 또먹고싶음요 베리굿 이건 콩맛 베리굿        },{166:2017-04-24 :           먹어본 메뉴: 비빔국수 닭칼국수 냉콩국수 육개장칼국수비빔국수&gt;육개장칼국수&gt;냉콩국수&gt;닭칼국수 순으로 평점 매기고 싶고 유명세나 기대했던 것에 반해 개인적으로 비빔국수가 원탑이라고 생각합니다.비빔국수는 안에 무랑 오이 무친게 풍부하게 들었는데 양념장도 새콤달콤하니 맛있어요. 다른데랑 차별화된 맛의 메뉴!육칼 냉콩국수는 맛있는 편이지만 굳이 여기서 이가격 주고 먹어야하나 싶은 맛이구요 콩국수는 명성에 비해 정석적인 콩국수가 아니라 미숫가루맛?같은게 섞인맛이라 좀 실망했어요. 국물이 진하긴한데 콩으로 진한게 아닌거죠..닭칼국수는 다른데가 더맛있는수준.. 양은 정말 많은데 msg느낌이 많이나서 별로였어요. 닭칼에 만두가 들어있는데 피가 두꺼워서 그냥그래요 접시만두 따로 시켜보진 않았는데 같은 만두가 나오는거같더라구요.ㅋㅋ 어쨌든 결론은 비빔국수만 먹는걸로!        },{167:2017-04-23 :           콩국수야 말이 필요없고..비빔국수에 기름이 좀 많은것 빼고는 달달한 비빔국수에서는 최고봉.        },{168:2017-04-18 :           닭칼국수 콩국수 비빔국수 만두 다 괜찮았어요.그런데 이거 먹으러 멀리서 찾아올 정도는 아니고 올일있다면 먹어볼 맛이구요.줄이 길지만 회전율이 좋아서 금방 앉을 수 있으니 겁먹을 필요는 없다요},{169:2017-04-15 :           여의도 콩국수 맛집이라고 해요! 여의나루역에서 노닥노닥하다 슬슬 추워져서 밥 먹으러 갔는데 냉콩국수 먹음 하핳... 콩국수 맛집은 을매나 맛있는지 확인하러 갔다가 뿅가고 왔어요 홍홍주문하면 거의 바로 내주셔요! 주변엔 직장인 분들이 많으셨어용 역시 직장인 맛집...! 콩국수 국물이 그렇게 진한건 처음 먹어봤어요 진짜 찌이이인해요! 엄청 걸쭉하구 꼬소하구 간도 딱 맛있게 적당해요 ㅎㅎ 국물 너무 맛있어서 거의 다 먹었네용... 헤 양도 짱 많아요!그리고 여기 별미가 김친데 김치가 약간 달콤해요 새콤달콤매콤? 아 계속 땡기는 맛이예요 김치랑 콩국수랑 같이 먹으면 을매나 맛있게요 ㅠㅠ        },{170:2017-04-13 :           MSG 가득한 맛을 원할 때 찾아야 하는 곳. 그래서 점심 때 먹으면 괜히 엄청나게 졸림. MSG를 넣는 비율이 좋아서 맛은 꽤나 좋다고 할 수 있음. 개인적으로는 비빔국수 매번 맛있게 먹었고 닭칼국수도 꽤나 괜찮음. 김치도 조미료가 꽤나 들어갔는데 이 감칠맛을 이겨낼 재간이 없음. MSG 충전이 필요하면 올만한 이 동네 사람 모두가 아는 여백의 맛집        },{171:2017-04-13 :           냉콩국수와 접시만두를 주문했습니다.냉콩국수는 콩의 고소한 맛과 쫄깃한 국수가 일품이었고 만두는 간장에 찍지 않고 먹어도 맛있었습니다.        },{172:2017-04-01 :           간이 되어있는 걸쭉한 콩국수에 쫄면수준의 쫠깃한 면이 어울려 죽여줌.이 집은 콩국수 말고 다른건 콩국수만큼은 아님.장사가 너무 잘 되어 점점 퍼져나가고 있어 여의도백화점 지하를 다 인수할듯.        },{173:2017-03-30 :           난 콩국수를 안 먹으니 그건 패스...신랑은 너무 좋아하긴 하더라구요...콩국수 맛있다고...비빔국수 정말 제 스타일 너무 맛있어요. 단 양이 진짜 많음 ㅎㅎㅎ 칼국수도 먹어봤는데 솔직히 누린내가 ㅠㅠ 킬국수 빼고는 맛있는 집        },{174:2017-03-26 :           콩국수랑 비빔국수 주문!역시 괜히 유명한게 아닌듯 엄청 진하고 맛있었어요.노란빛의 콩국수였는데 달지 않고 부드러웠어요.비빔국수는 입에 넣자마자 새콤하고 고소해서 깜짝 놀랐어요! 비빔국수도 존맛~~4월부터는 콩국물도 판매한다고 하십니다.        },{175:2017-03-26 :           진한 콩국물!! 소금을 넣지 않아도 간이 딱 맞는다         },{176:2017-03-04 :           비싸다비싸다 기다리는거 짜증난다 하면서도 이집 콩국수만한데가 없어서 자주감겉절이스러운 마늘맛강한 김치랑 곱게 갈린 콩국이 너무너무 맛있음ㅜㅜ        },{177:2017-03-04 :           토요일 점심 방문. 식당이 큰데 주말에는 절반만 영업하는 것 같다. 사람이 많지만 음식도 엄청 빨리 나오고 순환이 잘 돼서 기다리지는 않았다. 기회가 되어 모든 메뉴를 맛보았다. 전반적으로 감칠맛 단맛이 도는 음식들이라 더 맛있게 느껴지는 듯 하다. 콩국수도 고명 하나 없지만 깊고 진한 맛+고소해서 콩국수를 별로 안좋아하는 나도 맛있게 먹었다. 비빔국수는 생각보다 맵지 않고 새콤달콤했다. 여름 별미일듯. 육개장칼국수는 약간 매콤한 정도라 매운걸 좋아한다면 비빔국수보다는 육칼을 추천. 일행 2명은 육칼을 베스트로 꼽았다. 닭칼국수에는 만두가 2개 들어있다. 푸짐함. 접시만두를 따로 시켰지만 나는 닭칼의 만두를 먹느라 먹지 못했다. 고기만두와 닭칼국수의 조합이 매우 좋았다. 맑은 국물에 다데기가 좀 들어가서 더욱 풍성한 맛을 느낄수 있다. 함께 먹는 김치도 시원하고 짭잘해서 잘어울린다.        },{178:2017-02-18 :           콩국수 4.0 / 만두 4.0확실히 콩국수 국물이 진하고 독특하다.갠적으로 콩국수를 좋아했다면 더더욱 좋아했을듯만두는 육즙 가득한 모범적인 맛집 만두        },{179:2017-01-23 :           이렇게 추운날 몸녹이고 싶을 때 땡기는 맛깔끔하면서 깊은 맛의 닭국물은 언제나 먹어도 맛있다김치와 함께 호로록하면 좋다. 마지막에 밥달라고 한 후 말아먹으면 완벽.         },{180:2017-01-12 :           .        },{181:2016-12-07 :           콩국수 좋아하시는 분들께는 성지와 같은 여의도 진주회관과 시청 진주집은 형제분이 각각 운영하시는 걸로 알려져 있죠진주회관이 밥집이라는 이미지가 있다면 진주집은 국수집 이라고 말씀드릴 수 있습니다역시 가장 유명한 것은 냉콩국수입니다그리고 그 다음으로 유명한 것이 닭칼국수입니다. 진하지 않고 가벼운 msg섞인 맛의 칼국수인데 걸쭉한 국물 싫어하시는 분들께는 안성맞춤입니다국물의 깊이가 옅어 실망이신 분들은 함께 들어있는 듬직한 만두 두 알이 큰 위로가 되죠조금 달지만 시지않고 산뜻한 비빔국수는 담백한 접시만두와 찰떡궁합이죠이 집에서 가장 맛있는 건 김치입니다진주회관처럼 약간 달달한 감치는 콩국수와 짝짜꿍이 잘 맞고... 묵은 김치가 아닌 막 버무려낸 김장버무리 같이 내어두셔서 배추의 신선한 식감도 함께 느낄 수 있어요이집 메니아들은 콩국수파 닭칼국수파 비빔국수파로 나뉘고 겨울에는 육개장칼국수도 판매하셔서 1년 내내 행복한 집이랍니다이 곳 콩국수는 진주회관의 콩국수와 닮은 듯 다른 그런 맛이죠걸쭉하고 고소한 맛은 닮았으나이 곳 콩물은 좀 더 콩맛이 강하죠양도 이 곳이 조금 적어요.. 아마도 500원이 싸서 그럴 지도 모르겠어요        },{182:2016-11-04 :           콩국수 비빔국수 접시만두 먹었어요. 접시만두만 먹어도 배부르네요 정말. 접시만두는 고기만두입니당! 고기를 잘게 다지고 당면과 채소 등으로 속을 만들어냈네요. 무난한 맛이지만 고기라 그런가 속이 금방 든든해졌어요. 그리고 대망의 콩국수!!!!국물 진짜 걸쭉하고 고아요! 부드러운 죽/스프처럼 꿀렁꿀렁 넘어가고 은근히 콩 향이 느껴지네요. 쫄깃한 면에 이 콩국이 착 달라붙으니 맛이 없을래야 없을 수 없죠! 여기에 김장김치? 올려 먹으면 아삭하고 고소해서 너무 좋은 것!비빔국수에는 꼬들꼬들한 오이와 무가 많이 들어가 씹는 재미가 아주 좋고요~!!  면발도 콩국수처럼 쫀득합니다. 소스는 일반적인 비빔국수와는 달리 쌈장색깔이에요(쌈장맛은 안나요)! 맛은 어느 하나 과도한 것 없이 새콤X달콤X매콤 발란스가 맞아요! 아...오늘도 행복하게 먹킷리스트를 하나씩 지워갑니다..★         },{183:2016-10-13 :           냉콩국수 닭칼국수.가격-중 / 맛-중 / 재방문의사-오게되면 오고 찾아올것 같진 않다.냉콩국수가 제일 유명하다고해요. 그냥 콩국수보다는 색이 노랗고 한약재 맛과 향이나요. 콩도 진하고 면은 쫄깃쫄깃 합니다. 콩국수 좋아하시는 분들에겐 추천요~ 닭칼국수는 별로에요. 닭비린내 살짝 났고 국물도 시원한맛이 아니였어요. 진짜 별로인 닭칼국수 ㅜㅜ 여기 김치가 맛있어서 유명하다고 했는데 제 입맛에는 너무 달더라구요.        },{184:2016-10-12 :           여름에 갔눈데 지금 리뷰쓴다;;너무 맛있다. 이게 표현이 안되긴하는데 너무 맛있어 김치랑 먹으면 죽음 진짜 콩을 어떻게 갈길래 이런 농도와 맛이 나올까.. 알면 내가 차렸겠지...        },{185:2016-10-02 :           기대를 너무 많이해서 그런지..그닥 그랬음콩국수 찐하고 좋았다 그치만 만두가 더 맛있었음        },{186:2016-08-28 :           넘넘 맛있음. 콩국수를 엄청 잘 먹진 못해서 먹다가 살짝 물리긴 함 ㅠ개취로는 비빔국수랑 만두를 제일 좋아함!!!!만두 진짜 짱맛..배부르고 남기게될지언정 만두는 일단 고. 꼭 시키고 봅니다 ㅎㅎ 육개장칼국수는 그냥 무난하고 다음엔 닭칼국수를 먹어봐야지 후후        },{187:2016-08-25 :           ㅇㅇ        },{188:2016-08-09 :           먹는 내내 대한민국에서 가장 맛있는 콩국수집 중 하나가 바로 이곳이라는 생각을 했다. 국물은 충분히 묵직했고 콩비린내는 찾아볼 수 없었으며 달큰한 콩향이 내내 입안에서 감도는 것이 충분히 감탄할만하다. 이런 면요리는 음식 자체의 완벽함도 좋지만 함께 서빙되는 김치류와의 조합이 중요한데 보쌈김치 양념으로 나오는 김치와의 궁합도 훌륭하다.콩국수 외 비빔국수와 만두도 오더했는데 만두는 만두피의 반죽은 좋았지만 살짝 푹 익었었고 비빔국수는 과하지 않은 새콤달콤한 양념이 입맛을 확 돌게 했다. 또한 국수 전문점답게 비빔국수와 콩국수의 면을 달리 했는데 꼭 이 집의 면요리 모두를 맛보기를 권한다.        },{189:2016-08-02 :           기대한만큼 맛있었어요!! 콩국수랑 닭칼국수 먹었는데 다음엔 비빔국수 먹으러 또 오고 싶어요 ㅎㅎ 먹고있는데 최화정씨랑 장미여관도 봤어용        },{190:2016-07-31 :           김치가 맛있는 집        },{191:2016-07-30 :           부산행보고 콩국수먹으러 방문했어요.기대를 워낙 많이 했는지 기대 한것보단 별로였어요.닭칼국수도 걍 그럼.김치의 잔뜩 들어있는 무가 제일 맛있었어요.무말랭이스러운 양념과 식감ㅋㅋㅋ앗 인상깊었던건 이 건물은 약간 음식점파라다이스 같은곳이어서 너무 신기했어요.순대국 삼겹살 백반집 등등등 쫘라락 모여있어 완전 행복한 비명을 지름ㅋㅋㅋ        },{192:2016-07-28 :           마싯소        },{193:2016-07-23 :           이 집은 걸쭉한 콩국수가 죽여줍니다.닭칼국수도 양호.만두는 그냥 그럼에도 꼭 오면 시키고 후회함. ㅋㅋㅋㅋㅋ줄이 50메다지만 금방금방 자리가 나고 혼자서도 먹을 수 있습니다.        },{194:2016-07-22 :           유명한 진주집에 첫 방문! 평일 점심인데 줄이 어마어마한 걸 보고 일차로 놀라고 그 줄이 생각보다 엄청 빨리 빠지는 데 이차로 놀랐다. 시그니처인 콩국수(9500)는 엄청나게 진하고 고소한 게 땅콩을 갈아넣은 맛이다. 걸쭉하니 먹다보면 무지하게 배부른 게 함정. 여름날에 종종 생각날 것 같다.        },{195:2016-07-20 :           .        },{196:2016-07-08 :           !!!!        },{197:2016-07-06 :           콩국수를 정말 싫어했어요...그 이유는...너무 맛없는 콩국수만 먹어서 그랬나봐요인생의 콩국수를 처음 접한날 저는 이제 콩국수를 사랑할꺼예요..최고 맛있는 콩국수를 경험하고 싶다면 이곳으로단 일요일은 쉽니다..ㅜ        },{198:2016-07-06 :           처음엔 국수치곤 가격이 비싸다고 생각했는데 시켜서 먹고보니 그 값을 한다는 생각이 든 곳. 콩국수는 많은 사람들이 말하듯 정말 진했고 비빔국수도 정말 상큼하니 깔끔하게 맛있었고 만두도 최고 주말 좀 늦은 점심이어선지 웨이팅 없이 들어가서 더 만족*콩국수는 고명 없이 나오는데 고추장아찌 뿌린 뒤 찍은 거예요~~        },{199:2016-06-26 :           하.. 진리콩국수. 이 콩국물 테이크아웃해서 여름내내 퍼먹으며 다니고 싶다. 고소하고 진하고 간도 딱맞고. 콩국수 안좋아하는 남친한테 여기거를 먹이면 맛있다고 눈을 번쩍 뜰 것 같음        },{200:2016-06-25 :           여의도 직장인 맛집에서 절대로 빠질수없는 집.독보적인 수준의 대박집이다. 줄은 길지만 회전이 빨라 금방 들어갈 수 있다.한달에 얼마를 벌까..늘 궁금하더라.        },{201:2016-06-24 :           진짜 존맛! 제가 먹어본 콩국수중에 제일 맛있는 듯! 콩물도 진하고 진짜 고소하고 같이 나오는 김치랑 먹으면 꿀맛입니다!         },{202:2016-06-24 :           소문대로 콩국수계의 비주얼쇼크..... 갠적으로 콩 매니아라서 이 걸쭉한 비주얼과 맛에 완전 반했습니다 ㅜㅜ 시원하고 너무 맛있음!!! 김치랑 같이 먹으면 더 제대로! 양이 많아 남기긴 했지만 진짜 별미라는 생각 들었어요 취향은 좀 탈 것 같네요.. 만두도 시켰는데 특별하진 않지만 옛날 시장에서 사먹던 친숙한 맛으로 맛있게 먹었습니다! 제 취향엔 넘 좋았던 집.. 아저씨 취향인가...         },{203:2016-06-22 :           언제 먹어도 진하고 고소한 콩국수.새콤달콤 맛있는 비빔국수~시청  진주회관이랑 형제지간이라는데 제입에는 여의도 진주집 김치가 훨씬 더 맛있어요~^^여름마다 길게 늘어서는 줄이 이해가 가는 집이에요:)        },{204:2016-06-21 :           비빔국수가 새콤하니 맛있었다. 같이 간 친구는 콩국수도 맛있게 먹었다. 콩국수 국물이 좀 걸쭉함. 만두도 맛있다. 여기선 뭘 시켜도 실패안할듯. 사람이 많고 북적댄다        },{205:2016-06-19 :           비린내 나지 않는 고소하고 진한 콩국물과 퍼지지 않는 생면의 조화가 좋다 건강한 맛이라 국물까지 싹 먹게 된다 함께 시킨 비빔국수도 새콤한 맛이 식욕을 자극한다부모님과 다시 가고 싶은 곳        },{206:2016-06-19 :           콩국수 국물 진짜 진하고 닭칼국수도 맛있어요~~ 양도 푸짐해요. 만두 두개가 이미 칼국수 안에 나와서 따로 만두 시킬필요는 없었네요ㅠㅠ 사람은 항상 많아서 북적북적해요 그대신 회전율이 빨라서 대기시간없이 들어갈수있어요~        },{207:2016-06-09 :           콩국수 찌이이이인~~하니 맛나다. 정말 한그릇 뚝딱! 여기에 같이 얹어먹는 김치까지! 드디어 올여름 첫 콩국수 개시함         },{208:2016-06-09 :           여기서 콩국수 한번 먹으면 다른집 콩국수 못먹는다. 콩국수도 비빔국수도 닭칼국수도 다 맛있는 집.        },{209:2016-05-24 :           내맘속 콩국수 일등집. 콩국수 칠천원인가 칠천오백원일 때 부터 갔는데 언제든 진하디 진한 그 맛은 똑같...김치랑콩국수 딱이고 친구는 비빔 시키래서 같이 먹음 더 좋음 ㅎ 그치만 주방을 봤다는 제보자 말로는 엠에스지를 콩국물에 포대자루로 넣는다는 말도 ...그래서 그렇게 맛있는것인가?!?쓰는 중에도 먹고픈 맛 ㅎㅎ        },{210:2016-05-16 :           리얼 콩국수입니다!!!!비빔국수도 양념 맛의 조화가 인상깊네요비싼 가격이 아깝지 않습니다        },{211:2016-05-13 :           진심 줄서는게 아깝지 않을 맛집!!!!!김치를 먹다 짜다싶으면 콩국물 한입~김치랑 환상궁합이다진심콩국수 처음먹어본 친구도 맛있다고국물까지 싹 비움!!        },{212:2016-05-07 :           여의도 최고맛집이라고 생각함        },{213:2016-05-07 :           콩국수 하나로 여의도를 평정한 맛집...겉절이 김치와의 조합이 너무 좋아요...        },{214:2016-04-10 :           닭칼국수 시켰는데 자극적이지 않고 맛있었다.평소에 음식 먹을때 국물은 거의 먹지 않는데 국물도 깔끔하고 맛있었다옆테이블에서 콩국수 먹는걸 보니 너무 맛있어보임다음번에는 콩국수 먹어봐 야겠다.        },{215:2016-03-23 :           여의도에서 유명한 콩국수 집! 비빔국수도 맛나요.        },{216:2016-03-06 :           점심시간마다 줄이 너무 긴데 회전율 빠르다.콩국수는 국물이 정말 콩 꾸덕~하고 알차게 갈아낸 느낌이라 맛있다 (가격 비싼건..ㅜㅜ) 콩국수 좋아하면 한번 들러보면 좋을 곳!닭칼국수나 그런 외의 메뉴는 적당히 맛있는 수준.@포인트 중 하나 김치 맛이 예술...        },{217:2016-02-23 :           진짜 완전 맛있어요 ㅠㅜ 콩국수는 진리고 비빔이랑 닭칼도 평타쳤었음..! 아.. 빨리 여름되어서 먹으러가고 싶네요        },{218:2016-02-12 :           주로 비빔국수를 먹는데짜고 맵고 단 맛내 입맛에는 딱 맞음         },{219:2016-02-10 :           사실 김치맛에 먹으러감. 싸고 자리 많고 회전율 좋아서 가는 집이지 맛이 기가막히고 이런 거 아님. 왜 맛집이라고 바깥동네까지 소문났는지 의문. 근데 김치도 맛있지만 간이 엄청 쎄다. 가끔 생각나서 가지만 막 찾아갈 일은 없음        },{220:2016-01-30 :           아주맛있다고해서 가봤는데 맛없는건 아니고보통^^;        },{221:2015-12-02 :           진한 콩국물이긴한데 퍽퍽한 느낌.다시 가지는 않을 듯.},{222:2015-11-01 :           여의도에 들린김에 하도 유명하니 가보았는데 김치가 진짜 맛있네요 ㅎㅎ 콩국수랑 닭칼국수 시켰는데 기대를 너무 많이 했는지...맛있긴한데 놀라울정도까지는 아니라고 생각됩니당ㅋ 콩국수때문에 생각나서 다시 먼 길을 올 정도는 아닌듯.^^        },{223:2015-10-02 :           가격은 비싸지만 최고        },{224:2015-09-21 :                   },{225:2015-08-29 :           콩국수가 너~무 진하닷. 시원한 국물을 들이키고 싶었는데 여기는 걸쭉해서 그 느낌이 안나옴. 가격도 쎄고....         },{226:2015-08-26 :           이게 진짜 콩국수구나 싶을정도로 꾸덕꾸덕한 콩국수국물! 다만 콩국수를 처음먹어보거나 시원한 국물을 원하는 사람이라면 별로일수도...? 가격또한 콩국수치고는 비싼편이당. 그치만 건강한 한끼를 생각한나면 나쁘지않음! 함께 시킨 만두는 기대안했으나 양도 많고 맛있었당!        },{227:2015-08-09 :             여의도에 위치한 콩국수 전문점으로 이미 꽤나 유명한 곳. 시청 진주회관과는 사촌지간이라는 말이 있다. 진주회관과 달리 이곳은 비빔국수와 닭칼국수 접시만두를 맛볼 수 있다. 작년에는 콩국수와 만두만 먹어보고 비빔국수를 못먹어봐서 이번 여름에 재방문해 보았다 :) 점심시간에는 줄이 엄청나다고 하는데 저녁시간에는 사람이 많지만 매장이 워낙 넓기 때문에 바로 착석해서 먹을 수 있다.  콩국수는 고명이 없지만 정말 걸죽하고 콩향이 진하고 고소하다. 양은 여자 혼자 먹기에는 많은 편. 같이 나오는 김치는 보쌈김치 스타일인데 위에 채썬 무는 오독오독 씹히는 식감이 좋다. 약간 겉절이 스타일이라 배추는 소금에 안절이시고 양념만 묻히신듯. 김치가 달달하니 괜찮다. 비빔국수는 고추장 아닌 고춧가루로 만드셔서 텁텁하지 않고 입에 넣으면 참기름의 고소한 향이 확 퍼진다. 고명으로 오이지와 절인 무기 많은데 이 비빔국수의 8할이 이 오이지인 듯하다. 새콤달콤 오독오독한데 면과 꼭 같이 먹어야 한다. 접시만두는 피가 얇고 맛있었다. 개인적으로 비빔국수와 만두는 환상의 궁합이라고 생각함 :)  진한 국물이 일품인 콩국수 맛집으로 저녁에 여유있게 먹기를 추천하는 곳 :)},{228:2015-07-23 :           1:30정도에 가서 줄 없이 먹을 수 있었다.  크림같은 콩국물은 정말 먹을수록 고소고소!!! 김치랑 무말랭이도 칼국수집 맛의 그것인데 맛있었다.  왜 그렇게 유명한지 알겠던곳.  비빔국수도 먹어보러 꼭 오고 싶다. 참고 - 콩국수에 오이나 다른 고명이 전혀 없음        },{229:2015-07-21 :           예전에 비해서 맛이 없어져서... 안가게 된집 확장확장하면서 맛이 떨어지는걸 느껴짐        },{230:2015-07-08 :           여의도에서 콩국수 잘하는데를 검색했다 찾게 됐어요ㅎ 콩국수 가격이 9500원이라 놀랐는데 먹어보면 이해가 가요!! 국물이 정말 진해서 먹는 맛이 나네요 다른 데서 콩국수 못먹을거같아요 ㅋㅋㅋ        },{231:2015-06-17 :           맛있다 ㅠㅜ 콩국수를 좋아하는 사람으로서 콩의 진함과 걸죽함이... 굳굳... 무말랭이와의 조합 굳굳 비빔국수는 새콤 새콤 ㅋㅋ 참기름 맛이 강하긴 했지만 새콤한 맛과 잘 어울려짐! 하지만 난 제일 만두가 맛있었다는거 !!        },{232:2015-06-10 :           여기 콩국수는 정말 국물까지 먹어야함 면발은 쫄깃 하지만 줄이 길다는 거 ㅠㅜ        },{233:2015-06-09 :           비싸다는거 너무 줄이 길다는거 빼고는 엄지척!        },{234:2015-06-03 :           다음 생애엔 진주집 아들로 태어나길 ㅋㅋ        },{235:2015-05-29 :           비빔과  콩국수  추천  닭은  나랑은  좀  안맞음가격은  쎈편     김치가  예술임        },{236:2015-05-02 :           비빔국수랑 닭칼국수. 나는 비빔국수를 먹었다. 다녀온지 2주 넘었는데 아직도 생각난다.......... ㅠㅠ 양도 짐승같고 꼬소한 췜기름 스멜이 스며든 새콤달콤한 양념 그리고 쫄깃한 면발ㅠㅠ 참기름빨인가 하고 양념을 들여다보면 기름이 떠있는게 보이질 않는다. 숙성한 양념인건가.. 깊은 맛의 원천은 숙성인가..! 하면서 먹는 내내 엄마랑 심도있는 토론을 해보았다. 닭칼국수는 약간 닭비린내가 나서 호불호가 갈릴 것도 같은데 대체로 자극적이지 않아서 좋았다. 닭고기가 워낙 많이 들어가서 남은 고기를 비빔국수 양념에 찍어먹었는데 양념통닭 후려치는 맛. 진주집 근처에 있는 회사 다니는 분들이 부러워지는 날이었다. 다음엔 콩국수를 먹어볼테야.         },{237:2015-04-30 :           닭칼국수 맛있어요. 가격도 좋고 양도 좋고!비빔국수는 면발도 넘 쫄깃하고 맛있는데 너어어무 달아요. 김치마저 달달함. 좀만 덜 달면 더 맛있을거 같아요. 그래도 다음에 또 갈 것 같은 곳이에요~        },{238:2015-04-29 :           여기 칼국수 정말 굿굿비빔국수도 포기할수 없어요ㅠ만두도 맛있구추천요        },{239:2015-03-24 :           비빔국수 진짜 좋아하는데 진주집이 제일 맛있다. 진주집 알기 전까지는 직영 망향비빔국수먹으러 남양주까지갔는데 여기 알고난 이후론 가까운 여의도에서 먹을수 있어서 너무 좋다**        },{240:2015-01-21 :           여기 콩국구 비빔국수 만두 다 맛있음! 값도 착함~ 여의도 소문난 맛집!        },{241:2015-01-18 :           비빔국수에 뭐넣은거죠??? 너무 맛있음 그냥 맛있음        },{242:2014-12-18 :                   },{243:2014-09-03 :           닭칼국수는 무난~비빔국수는 맛은 괜찮은데 쫌 간이 센편        },{244:2014-08-31 :           콩국물이 아주 걸죽한 맛집..조금 짠것만빼면 강추~~!        },{245:2014-08-31 :           맛있는데 비쌈 ㅠㅠ...        },{246:2014-08-28 :           면요리 가격치고는 꽤 비싸지만여름철 건강식이라 생각하고 먹기엔 꽤 괜찮은 콩국수! 정말 진하고 고소합니다.        },{247:2014-08-15 :           콩국물이 정말 진하고 걸쭉하며 고소고소하다. 김치는 보쌈김치 형태인데 살짝 달짝지근하며 맛있다! 서소문 진주회관과는 형제지간이라 들었는데 1년 전 방문했던 그곳과 비교했을 때 두 곳의 콩국물은 거의 같고 면과 김치는 다르다. 개인적으로 진주집이 더 맛있다 :) 만두도 피가 얇고 부들부들 맛있다! 더워서 닭칼국수는 못먹었지만 다음에는 비빔국수랑 3개 시켜서 나눠 먹어보고 싶다. 콩국수 맛집으로 추천추천 :)_        },{248:2014-08-12 :                   },{249:2014-08-12 :                   },{250:2014-08-05 :                   },{251:2014-08-02 :                   },{252:2014-07-27 :           진한 콩국수 양념이 많이 단 비빔국수 닭칼국수 3개로 승부하는곳        },{253:2014-07-24 :           괜찮다        },{254:2014-07-23 :                   },{255:2014-07-10 :           일주일에 한번정도는 가는데.. 콩국수와 비빔국수 모두 다 맛있습니다. 걸쭉한 콩국물을 좋아하신다면 강추단... 가격은 일반 콩국수집들보다 많이비싸요. 9000원임. 면 리필 가능합니다.        },{256:2014-06-22 :                   },{257:2014-06-18 :           가격은 비싼편이지만 진짜짱짱 콩국이 진해서 콩국만 먹어도 구수하고 닭칼국수도 맛있어요        },{258:2014-05-28 :                   },{259:2014-03-22 :                   },{260:2014-02-21 :                   },{261:2014-02-02 :                   },{262:2014-01-31 :           가격은 좀 비싸지만 종종 생각나는 맛집. 콩국수와 비빔국수를 같이먹으면 그 진가가 배가 된다!        },{263:2014-01-11 :                   },{264:2014-01-07 :                   },{265:2014-01-06 :                   },{266:2013-11-23 :                   },{267:2013-11-21 :                   },{268:2020-08-21 :           콩국수가 유명한 맛집이지만 저는 닭칼국수를 먹어봤습니다. 월래 줄서서 먹는 맛집인데 평일날 11시쯤 가니 웨이팅이 아예 없었어요. 회전율도 대박이에요. 주문하고 1-2분 후에 음식이 나와서 놀랐음. 스피드 대박! 닭칼국수는 가격대비 양도 많고 육수다 진했음. 아는 맛이지만 맛있음! 닭고기 오이채 김치도 맛있음. 해장할때 먹기 좋을거같네요~만두도 쫀쫀하고 속이 꽉 찬게 사이드로 추천합니다.         },{269:2019-07-29 :           .        },{270:2018-10-17 :           I couldn’t find this place for the longest time... it’s on the bottom floor of a plaza. I was able to show someone a photo of the soy noodles and they directed me in the right direction :). I only had the cold soy noodles and had zero expectations but it was surprisingly good. I kept wanting more even after I realised it was a carb filled meal. It tastes a lot nicer with the spicy side dishes that it came with. The noodles were fresh and chewy while the soy broth was thick with a very slight hint of the natural sweetness with some saltiness to it. Would recommend giving it a try if you haven’t had anything like it!        },{271:2018-08-27 :           Wow I completely understand what my co-workers have been raving about. The 콩국수 is the most popular dish but the 닭칼국수 is really great.        },{272:2018-07-16 :           .        },{273:2016-08-25 :           Everything (Awesome!) - Hands down one of the best meals I've had in Korea         },{274:2016-05-28 :           My favorite. This place rocks!  I go here whenever I crave 콩국수. I went around 5 pm on a Friday afternoon and it was empty. No wait.         },{275:2014-09-17 :           I finally visited this place and oh man..... The food was just amazing!!! The food was so amazing that it is addictive. I am craving it now again now that I am looking at these pictures again. It is just in a strange location (b1 of yoido dept store). Highly recommend!        },{276:2013-10-24 :           its just Ok. not worth to wait an hour to eat this food        },"</t>
+  </si>
+  <si>
+    <t>allreviews2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +450,9 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1095,9 +1115,9 @@
     <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1106,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1123,8 +1143,11 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1132,7 +1155,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="str">
         <f>VLOOKUP(B2,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1151,10 +1174,10 @@
         <v>4.5</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1162,7 +1185,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(B3,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1181,10 +1204,10 @@
         <v>4.5</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1192,7 +1215,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP(B4,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1211,10 +1234,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1222,7 +1245,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" t="str">
         <f>VLOOKUP(B5,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1241,10 +1264,10 @@
         <v>4.3</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1252,7 +1275,7 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(B6,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1271,10 +1294,10 @@
         <v>4.3</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1282,7 +1305,7 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(B7,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1301,10 +1324,10 @@
         <v>4.3</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1312,7 +1335,7 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="str">
         <f>VLOOKUP(B8,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1331,10 +1354,10 @@
         <v>4.2</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1342,7 +1365,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" t="str">
         <f>VLOOKUP(B9,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1361,10 +1384,13 @@
         <v>4.2</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1372,7 +1398,7 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(B10,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1391,10 +1417,10 @@
         <v>4.2</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1402,7 +1428,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(B11,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1421,10 +1447,10 @@
         <v>4.2</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1432,7 +1458,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP(B12,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1451,10 +1477,10 @@
         <v>4.2</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1462,7 +1488,7 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(B13,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1481,10 +1507,10 @@
         <v>4.2</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1492,7 +1518,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP(B14,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1511,10 +1537,10 @@
         <v>4.2</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1522,7 +1548,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP(B15,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1541,10 +1567,10 @@
         <v>4.2</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1552,7 +1578,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(B16,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1571,7 +1597,7 @@
         <v>4.2</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1582,7 +1608,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(B17,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1601,7 +1627,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1612,7 +1638,7 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(B18,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1631,37 +1657,37 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
+      <c r="B19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(B19,[1]Sheet1!$B:$C,2,FALSE)</f>
         <v>만원 미만</v>
       </c>
-      <c r="E19" s="2">
-        <v>128589</v>
-      </c>
-      <c r="F19" s="1">
-        <v>276</v>
-      </c>
-      <c r="G19" s="2">
-        <v>4563</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>77</v>
+      <c r="E19" s="7">
+        <v>64346</v>
+      </c>
+      <c r="F19" s="6">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6">
+        <v>885</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1672,7 +1698,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(B20,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1702,7 +1728,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" t="str">
         <f>VLOOKUP(B21,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1732,7 +1758,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(B22,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1762,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" t="str">
         <f>VLOOKUP(B23,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1792,7 +1818,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" t="str">
         <f>VLOOKUP(B24,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1822,7 +1848,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" t="str">
         <f>VLOOKUP(B25,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1852,7 +1878,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" t="str">
         <f>VLOOKUP(B26,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1882,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" t="str">
         <f>VLOOKUP(B27,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1939,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" t="str">
         <f>VLOOKUP(B29,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1969,7 +1995,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" t="str">
         <f>VLOOKUP(B30,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -1999,7 +2025,7 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" t="str">
         <f>VLOOKUP(B31,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2029,7 +2055,7 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" t="str">
         <f>VLOOKUP(B32,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2059,7 +2085,7 @@
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" t="str">
         <f>VLOOKUP(B33,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2089,7 +2115,7 @@
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" t="str">
         <f>VLOOKUP(B34,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2119,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(B35,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2149,7 +2175,7 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" t="str">
         <f>VLOOKUP(B36,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2179,7 +2205,7 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" t="str">
         <f>VLOOKUP(B37,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2209,7 +2235,7 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" t="str">
         <f>VLOOKUP(B38,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2239,7 +2265,7 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" t="str">
         <f>VLOOKUP(B39,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2269,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" t="str">
         <f>VLOOKUP(B40,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2299,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" t="str">
         <f>VLOOKUP(B41,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2329,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" t="str">
         <f>VLOOKUP(B42,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2359,7 +2385,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43" t="str">
         <f>VLOOKUP(B43,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2389,7 +2415,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" t="str">
         <f>VLOOKUP(B44,[1]Sheet1!$B:$C,2,FALSE)</f>
@@ -2419,7 +2445,7 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" t="str">
         <f>VLOOKUP(B45,[1]Sheet1!$B:$C,2,FALSE)</f>
